--- a/static/Programming_Languages/Programming_Languages.xlsx
+++ b/static/Programming_Languages/Programming_Languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMR\Desktop\NLP_Resume\static\Programming_Languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66851D-4007-4AE4-8876-95AD02CEAA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68586A-B5B1-4EF6-9AA9-F7FC4323D0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1272" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="420" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="716">
   <si>
     <t>A.NET (A#/A sharp)</t>
   </si>
@@ -2283,6 +2283,12 @@
   </si>
   <si>
     <t>Altibase</t>
+  </si>
+  <si>
+    <t>Html</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -2621,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="D359" sqref="D359"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3071,3066 +3077,3076 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>715</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>714</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
         <v>678</v>
       </c>
     </row>
@@ -6202,615 +6218,615 @@
     <hyperlink ref="A65" r:id="rId64" tooltip="Boo (programming language)" display="https://en.wikipedia.org/wiki/Boo_(programming_language)" xr:uid="{9E68F407-C1DA-4C7E-8988-65976FEFBA0E}"/>
     <hyperlink ref="A66" r:id="rId65" tooltip="Boomerang (programming language)" display="https://en.wikipedia.org/wiki/Boomerang_(programming_language)" xr:uid="{57EF50FA-0A5F-4988-B25D-16783B6931A1}"/>
     <hyperlink ref="A67" r:id="rId66" tooltip="Bosque (programming language)" display="https://en.wikipedia.org/wiki/Bosque_(programming_language)" xr:uid="{4F2C186E-2054-4DFE-B4C1-B726D0E89A69}"/>
-    <hyperlink ref="A68" r:id="rId67" tooltip="C (programming language)" display="https://en.wikipedia.org/wiki/C_(programming_language)" xr:uid="{3657807A-80AD-4528-A267-F54C005387E1}"/>
-    <hyperlink ref="A69" r:id="rId68" tooltip="C--" display="https://en.wikipedia.org/wiki/C--" xr:uid="{ECF96DE6-E1D6-41F9-9A51-DEEAE3B434F6}"/>
-    <hyperlink ref="A70" r:id="rId69" tooltip="C++" display="https://en.wikipedia.org/wiki/C%2B%2B" xr:uid="{FACC81B8-A220-48D7-8981-08C404DC641F}"/>
-    <hyperlink ref="A71" r:id="rId70" tooltip="C*" display="https://en.wikipedia.org/wiki/C*" xr:uid="{6B081E1C-F470-4818-820B-55B00AB65B52}"/>
-    <hyperlink ref="A72" r:id="rId71" tooltip="C Sharp (programming language)" display="https://en.wikipedia.org/wiki/C_Sharp_(programming_language)" xr:uid="{00865C8C-ACB0-40DB-AC17-AECBFEB19093}"/>
-    <hyperlink ref="A73" r:id="rId72" tooltip="C/AL" display="https://en.wikipedia.org/wiki/C/AL" xr:uid="{5D587D15-54E4-44F0-9C65-EF816721BE4E}"/>
-    <hyperlink ref="A74" r:id="rId73" tooltip="Caché ObjectScript" display="https://en.wikipedia.org/wiki/Cach%C3%A9_ObjectScript" xr:uid="{7B55B42A-FB5B-4C3F-B7BE-83EC2712E37F}"/>
-    <hyperlink ref="A75" r:id="rId74" tooltip="C Shell" display="https://en.wikipedia.org/wiki/C_Shell" xr:uid="{AFFE6527-8FB6-494B-9BF0-3C4FEA1D3A58}"/>
-    <hyperlink ref="A76" r:id="rId75" tooltip="Caml" display="https://en.wikipedia.org/wiki/Caml" xr:uid="{D23ACE1B-D213-4ED1-A65D-235DAFB535E9}"/>
-    <hyperlink ref="A77" r:id="rId76" tooltip="Carbon (programming language)" display="https://en.wikipedia.org/wiki/Carbon_(programming_language)" xr:uid="{EBA97D40-2D92-4C28-B2B0-458B8DD8356A}"/>
-    <hyperlink ref="A78" r:id="rId77" tooltip="Catrobat" display="https://en.wikipedia.org/wiki/Catrobat" xr:uid="{68ACC56F-4F7C-47CE-984A-199A6581907E}"/>
-    <hyperlink ref="A79" r:id="rId78" tooltip="Cayenne (programming language)" display="https://en.wikipedia.org/wiki/Cayenne_(programming_language)" xr:uid="{9B3063C0-D75D-4BDF-BF84-D21861D68219}"/>
-    <hyperlink ref="A80" r:id="rId79" tooltip="CDuce" display="https://en.wikipedia.org/wiki/CDuce" xr:uid="{3EC8BE76-AB45-4D3E-9912-1EE643F8452A}"/>
-    <hyperlink ref="A81" r:id="rId80" tooltip="Cecil (programming language)" display="https://en.wikipedia.org/wiki/Cecil_(programming_language)" xr:uid="{9324C2CA-DFA5-443F-A506-EDD0A1EE11D9}"/>
-    <hyperlink ref="A82" r:id="rId81" tooltip="CESIL" display="https://en.wikipedia.org/wiki/CESIL" xr:uid="{A188F93A-8367-4666-B544-66E7E7E17B8E}"/>
-    <hyperlink ref="A83" r:id="rId82" tooltip="Céu (programming language)" display="https://en.wikipedia.org/wiki/C%C3%A9u_(programming_language)" xr:uid="{3E7181BE-BA8F-493E-BA64-6B54AA109482}"/>
-    <hyperlink ref="A84" r:id="rId83" tooltip="Ceylon (programming language)" display="https://en.wikipedia.org/wiki/Ceylon_(programming_language)" xr:uid="{4C647DAD-387E-42A2-8B39-943FA76F67CA}"/>
-    <hyperlink ref="A85" r:id="rId84" tooltip="CFEngine" display="https://en.wikipedia.org/wiki/CFEngine" xr:uid="{E360D530-DD23-4F1F-8E87-BB319B35ABBE}"/>
-    <hyperlink ref="A86" r:id="rId85" tooltip="Cg (programming language)" display="https://en.wikipedia.org/wiki/Cg_(programming_language)" xr:uid="{9B0D0BF5-2F7A-48A3-AABC-E55209A31DB9}"/>
-    <hyperlink ref="A87" r:id="rId86" tooltip="Ch (computer programming)" display="https://en.wikipedia.org/wiki/Ch_(computer_programming)" xr:uid="{72FCFC9F-D309-4321-B0A3-11DDA4D467F4}"/>
-    <hyperlink ref="A88" r:id="rId87" tooltip="Chapel (programming language)" display="https://en.wikipedia.org/wiki/Chapel_(programming_language)" xr:uid="{3524F2DD-F782-4671-B50E-7711AE3E42DF}"/>
-    <hyperlink ref="A89" r:id="rId88" tooltip="Charm (language)" display="https://en.wikipedia.org/wiki/Charm_(language)" xr:uid="{CD2F8278-B1F4-41A9-90F0-3BFC116B333D}"/>
-    <hyperlink ref="A90" r:id="rId89" tooltip="CHILL" display="https://en.wikipedia.org/wiki/CHILL" xr:uid="{B8C7C7D8-99B6-40E8-940F-C43DD3BD5446}"/>
-    <hyperlink ref="A91" r:id="rId90" tooltip="CHIP-8" display="https://en.wikipedia.org/wiki/CHIP-8" xr:uid="{C6C69CA9-1747-4FB4-BA97-441FD7C28043}"/>
-    <hyperlink ref="A92" r:id="rId91" tooltip="ChucK" display="https://en.wikipedia.org/wiki/ChucK" xr:uid="{55A0F9BD-E8AB-4B2F-AEFF-065F5780D602}"/>
-    <hyperlink ref="A93" r:id="rId92" tooltip="Cilk" display="https://en.wikipedia.org/wiki/Cilk" xr:uid="{95DD8420-5154-4B70-9B51-97059BEFD8E9}"/>
-    <hyperlink ref="A94" r:id="rId93" tooltip="Claire (programming language)" display="https://en.wikipedia.org/wiki/Claire_(programming_language)" xr:uid="{CC9A5A0B-47B0-495D-8441-9BDCAA04A50E}"/>
-    <hyperlink ref="A95" r:id="rId94" tooltip="Clarion (programming language)" display="https://en.wikipedia.org/wiki/Clarion_(programming_language)" xr:uid="{A2EEB8DD-1294-404F-BB3A-DD80FBB27E65}"/>
-    <hyperlink ref="A96" r:id="rId95" tooltip="Clean (programming language)" display="https://en.wikipedia.org/wiki/Clean_(programming_language)" xr:uid="{CAE06E2D-710A-4EB9-8AA8-D18E3D44E800}"/>
-    <hyperlink ref="A97" r:id="rId96" tooltip="Clipper (programming language)" display="https://en.wikipedia.org/wiki/Clipper_(programming_language)" xr:uid="{7317367E-9071-4BAF-B93E-3E18CE2B0E3D}"/>
-    <hyperlink ref="A98" r:id="rId97" tooltip="CLIPS (programming language)" display="https://en.wikipedia.org/wiki/CLIPS_(programming_language)" xr:uid="{3135ED5C-2B6F-4811-95C8-B239F3989731}"/>
-    <hyperlink ref="A99" r:id="rId98" tooltip="CLIST" display="https://en.wikipedia.org/wiki/CLIST" xr:uid="{CD3D8580-F62B-4593-A1F0-4393E5C41526}"/>
-    <hyperlink ref="A100" r:id="rId99" tooltip="Clojure" display="https://en.wikipedia.org/wiki/Clojure" xr:uid="{0F761F32-6452-490D-8501-253DACDC99C5}"/>
-    <hyperlink ref="A101" r:id="rId100" tooltip="CLU (programming language)" display="https://en.wikipedia.org/wiki/CLU_(programming_language)" xr:uid="{B02BAC57-7ACC-4C03-9A03-B795BE2A3784}"/>
-    <hyperlink ref="A102" r:id="rId101" tooltip="CMS-2 (programming language)" display="https://en.wikipedia.org/wiki/CMS-2_(programming_language)" xr:uid="{9A59981E-F5A9-445D-95C3-A524448EABC3}"/>
-    <hyperlink ref="A103" r:id="rId102" tooltip="COBOL" display="https://en.wikipedia.org/wiki/COBOL" xr:uid="{A13AD42C-ACE6-4F03-AC23-5A7FCE5BF02C}"/>
-    <hyperlink ref="A104" r:id="rId103" tooltip="CobolScript" display="https://en.wikipedia.org/wiki/CobolScript" xr:uid="{EBD6B1F8-3C48-493D-B912-40FBB05C4DAD}"/>
-    <hyperlink ref="A105" r:id="rId104" tooltip="Cobra (programming language)" display="https://en.wikipedia.org/wiki/Cobra_(programming_language)" xr:uid="{50257406-299B-49EF-86C1-4E7177A669C7}"/>
-    <hyperlink ref="A106" r:id="rId105" tooltip="CoffeeScript" display="https://en.wikipedia.org/wiki/CoffeeScript" xr:uid="{03651E2B-F63B-486E-80DF-1BA4A556CD8A}"/>
-    <hyperlink ref="A107" r:id="rId106" tooltip="ColdFusion" display="https://en.wikipedia.org/wiki/ColdFusion" xr:uid="{793789A4-8EF4-45BE-A5EB-CCB3510F621B}"/>
-    <hyperlink ref="A108" r:id="rId107" tooltip="COMAL" display="https://en.wikipedia.org/wiki/COMAL" xr:uid="{F1865F2C-8C66-4A5C-9A01-356B979CA007}"/>
-    <hyperlink ref="A109" r:id="rId108" tooltip="COMIT" display="https://en.wikipedia.org/wiki/COMIT" xr:uid="{F4F27D55-D41C-4CCB-8D94-86BF93C51446}"/>
-    <hyperlink ref="A110" r:id="rId109" tooltip="Common Intermediate Language" display="https://en.wikipedia.org/wiki/Common_Intermediate_Language" xr:uid="{B64E2E2D-E283-4505-B70B-6D01B36C62B3}"/>
-    <hyperlink ref="A111" r:id="rId110" tooltip="Common Lisp" display="https://en.wikipedia.org/wiki/Common_Lisp" xr:uid="{C866F91D-615D-4A40-892E-43A7A0CF5F0E}"/>
-    <hyperlink ref="A112" r:id="rId111" tooltip="COMPASS" display="https://en.wikipedia.org/wiki/COMPASS" xr:uid="{3A9ADF09-0597-4DF4-8394-B7BD605F9899}"/>
-    <hyperlink ref="A113" r:id="rId112" tooltip="Component Pascal" display="https://en.wikipedia.org/wiki/Component_Pascal" xr:uid="{5CDA0A8D-86CB-4DE9-B27F-F6983E39594A}"/>
-    <hyperlink ref="A114" r:id="rId113" tooltip="COMTRAN" display="https://en.wikipedia.org/wiki/COMTRAN" xr:uid="{B51CFE93-61A9-45FD-B45D-030149B3D428}"/>
-    <hyperlink ref="A115" r:id="rId114" tooltip="Constraint Handling Rules" display="https://en.wikipedia.org/wiki/Constraint_Handling_Rules" xr:uid="{E15694E2-32E4-4EE8-9686-F1E940FBAF11}"/>
-    <hyperlink ref="A116" r:id="rId115" tooltip="Control Language" display="https://en.wikipedia.org/wiki/Control_Language" xr:uid="{4B8403DC-2108-4103-A162-8F55A8AC35DD}"/>
-    <hyperlink ref="A117" r:id="rId116" tooltip="Cool (programming language)" display="https://en.wikipedia.org/wiki/Cool_(programming_language)" xr:uid="{C8318B9F-5EBE-48D9-95A1-3DAF1D1C0C53}"/>
-    <hyperlink ref="A118" r:id="rId117" tooltip="Coq" display="https://en.wikipedia.org/wiki/Coq" xr:uid="{16E66891-73A3-4420-985B-CF337A25DC48}"/>
-    <hyperlink ref="A119" r:id="rId118" tooltip="Coral 66" display="https://en.wikipedia.org/wiki/Coral_66" xr:uid="{2FAC71EB-BF37-4DEC-A909-5EC0E7C1C33C}"/>
-    <hyperlink ref="A120" r:id="rId119" tooltip="CorVision" display="https://en.wikipedia.org/wiki/CorVision" xr:uid="{B69C2A55-77CA-49E9-ACE4-D60D3F316A6D}"/>
-    <hyperlink ref="A121" r:id="rId120" tooltip="COWSEL" display="https://en.wikipedia.org/wiki/COWSEL" xr:uid="{B16970A2-0D41-47AC-8C9F-7130DF635EFB}"/>
-    <hyperlink ref="A122" r:id="rId121" tooltip="CPL (programming language)" display="https://en.wikipedia.org/wiki/CPL_(programming_language)" xr:uid="{7190AC2B-182C-4A22-AF80-8C36010F5CD6}"/>
-    <hyperlink ref="A123" r:id="rId122" tooltip="Cryptol" display="https://en.wikipedia.org/wiki/Cryptol" xr:uid="{F2CB07A8-C908-4271-A90A-7C12B32F5E85}"/>
-    <hyperlink ref="A124" r:id="rId123" tooltip="Crystal (programming language)" display="https://en.wikipedia.org/wiki/Crystal_(programming_language)" xr:uid="{CCA383BD-EC9F-4037-A158-1E26E3E12816}"/>
-    <hyperlink ref="A125" r:id="rId124" tooltip="Csound" display="https://en.wikipedia.org/wiki/Csound" xr:uid="{FC84B004-5162-4178-B012-85AD842BC337}"/>
-    <hyperlink ref="A126" r:id="rId125" tooltip="Cuneiform (programming language)" display="https://en.wikipedia.org/wiki/Cuneiform_(programming_language)" xr:uid="{3493AE2F-07C3-4050-B54C-9DEF4E3A5AC5}"/>
-    <hyperlink ref="A127" r:id="rId126" tooltip="Curl (programming language)" display="https://en.wikipedia.org/wiki/Curl_(programming_language)" xr:uid="{4C09711D-A0E8-4CE5-B4C5-BF5EFACC5C1D}"/>
-    <hyperlink ref="A128" r:id="rId127" tooltip="Curry (programming language)" display="https://en.wikipedia.org/wiki/Curry_(programming_language)" xr:uid="{3562DCAB-102C-420D-AD1F-692898357EBD}"/>
-    <hyperlink ref="A129" r:id="rId128" tooltip="Cybil (programming language)" display="https://en.wikipedia.org/wiki/Cybil_(programming_language)" xr:uid="{6D0EB438-D8DB-4AB8-90F0-9D0FAC3554B7}"/>
-    <hyperlink ref="A130" r:id="rId129" tooltip="Cyclone (programming language)" display="https://en.wikipedia.org/wiki/Cyclone_(programming_language)" xr:uid="{9F37C4FF-F53F-4A57-969F-D68E0A0BE56D}"/>
-    <hyperlink ref="A131" r:id="rId130" tooltip="Cypher Query Language" display="https://en.wikipedia.org/wiki/Cypher_Query_Language" xr:uid="{321F554C-01B1-4728-B5CC-A57043BAAD09}"/>
-    <hyperlink ref="A132" r:id="rId131" tooltip="Cython" display="https://en.wikipedia.org/wiki/Cython" xr:uid="{CB110665-EF50-43AC-B3C0-66C350769132}"/>
-    <hyperlink ref="A133" r:id="rId132" tooltip="CEEMAC" display="https://en.wikipedia.org/wiki/CEEMAC" xr:uid="{09985B2F-0086-423B-99F8-3A275EC7B7FA}"/>
-    <hyperlink ref="A134" r:id="rId133" tooltip="Dart (programming language)" display="https://en.wikipedia.org/wiki/Dart_(programming_language)" xr:uid="{73535242-9185-488F-A757-BD6033817914}"/>
-    <hyperlink ref="A135" r:id="rId134" tooltip="Darwin (programming language)" display="https://en.wikipedia.org/wiki/Darwin_(programming_language)" xr:uid="{A66AACC9-0AF5-4F42-BBBB-547C53B8F2DD}"/>
-    <hyperlink ref="A136" r:id="rId135" tooltip="DataFlex" display="https://en.wikipedia.org/wiki/DataFlex" xr:uid="{6D6D34D9-8BC4-406F-AA82-44F3639277C3}"/>
-    <hyperlink ref="A137" r:id="rId136" tooltip="Datalog" display="https://en.wikipedia.org/wiki/Datalog" xr:uid="{51E9672E-FEB3-4C88-8756-0032AF3CEFE1}"/>
-    <hyperlink ref="A138" r:id="rId137" tooltip="DATATRIEVE" display="https://en.wikipedia.org/wiki/DATATRIEVE" xr:uid="{92D10FD7-9010-4C5F-85C4-FD963E6E8DF0}"/>
-    <hyperlink ref="A139" r:id="rId138" tooltip="DBase" display="https://en.wikipedia.org/wiki/DBase" xr:uid="{6FB2C551-FAB7-4A85-BAE4-170A2490D0C9}"/>
-    <hyperlink ref="A140" r:id="rId139" tooltip="Dc (computer program)" display="https://en.wikipedia.org/wiki/Dc_(computer_program)" xr:uid="{6AFCC2B1-2DCC-4501-8375-696DC66DEA17}"/>
-    <hyperlink ref="A141" r:id="rId140" tooltip="DIGITAL Command Language" display="https://en.wikipedia.org/wiki/DIGITAL_Command_Language" xr:uid="{268E7EF5-36DE-49E0-8B14-8E9801C09717}"/>
-    <hyperlink ref="A142" r:id="rId141" tooltip="Delphi (software)" display="https://en.wikipedia.org/wiki/Delphi_(software)" xr:uid="{409950DD-AD5F-4199-BFB2-33444D40BE9C}"/>
-    <hyperlink ref="A143" r:id="rId142" tooltip="DIBOL" display="https://en.wikipedia.org/wiki/DIBOL" xr:uid="{5A5A8892-CC6F-43C7-AB86-D8D539B46CCC}"/>
-    <hyperlink ref="A144" r:id="rId143" location="Modification" tooltip="Dink Smallwood" display="https://en.wikipedia.org/wiki/Dink_Smallwood - Modification" xr:uid="{D861D49E-2FDF-4B0A-A291-6D573834335A}"/>
-    <hyperlink ref="A145" r:id="rId144" tooltip="Dog (programming language)" display="https://en.wikipedia.org/wiki/Dog_(programming_language)" xr:uid="{FBEBF846-941E-46B7-AC99-ED757FD53ADA}"/>
-    <hyperlink ref="A146" r:id="rId145" tooltip="Draco (programming language)" display="https://en.wikipedia.org/wiki/Draco_(programming_language)" xr:uid="{8C90A143-F8A6-4371-B900-9E127167C980}"/>
-    <hyperlink ref="A147" r:id="rId146" tooltip="DRAKON" display="https://en.wikipedia.org/wiki/DRAKON" xr:uid="{EBEAD8A8-CE82-4736-9D7D-0A45D17608F6}"/>
-    <hyperlink ref="A148" r:id="rId147" tooltip="Dylan (programming language)" display="https://en.wikipedia.org/wiki/Dylan_(programming_language)" xr:uid="{81F07823-8A14-44FD-8683-B6BDCF018D77}"/>
-    <hyperlink ref="A149" r:id="rId148" tooltip="DYNAMO (programming language)" display="https://en.wikipedia.org/wiki/DYNAMO_(programming_language)" xr:uid="{40F17476-1E6C-41A4-A798-87C001C6DFE6}"/>
-    <hyperlink ref="A150" r:id="rId149" tooltip="Data analysis expressions" display="https://en.wikipedia.org/wiki/Data_analysis_expressions" xr:uid="{DBE3DDF6-13E0-4B1D-8136-53C68504D50A}"/>
-    <hyperlink ref="A151" r:id="rId150" tooltip="Ease (programming language)" display="https://en.wikipedia.org/wiki/Ease_(programming_language)" xr:uid="{FA6D78B2-7B38-4B3A-A6D1-E7C6D04FE9FF}"/>
-    <hyperlink ref="A152" r:id="rId151" tooltip="PL/I" display="https://en.wikipedia.org/wiki/PL/I" xr:uid="{38C34D7A-5C52-461B-84E8-D19DC594D083}"/>
-    <hyperlink ref="A153" r:id="rId152" tooltip="Easytrieve" display="https://en.wikipedia.org/wiki/Easytrieve" xr:uid="{2FBA2721-75AE-48C0-A80F-C4666FC1B489}"/>
-    <hyperlink ref="A154" r:id="rId153" tooltip="EC (programming language)" display="https://en.wikipedia.org/wiki/EC_(programming_language)" xr:uid="{0DB3E33D-60F0-4200-AA60-DD9FB67BD0B5}"/>
-    <hyperlink ref="A155" r:id="rId154" tooltip="ECMAScript" display="https://en.wikipedia.org/wiki/ECMAScript" xr:uid="{45B48016-6FA0-4AD4-BA5F-421304F7191A}"/>
-    <hyperlink ref="A156" r:id="rId155" tooltip="Edinburgh IMP" display="https://en.wikipedia.org/wiki/Edinburgh_IMP" xr:uid="{3E3F93C2-0211-4713-ACA3-275828F2687E}"/>
-    <hyperlink ref="A157" r:id="rId156" tooltip="EGL (programming language)" display="https://en.wikipedia.org/wiki/EGL_(programming_language)" xr:uid="{2ADAF833-1DB4-450D-BFAB-1E0F31D6575F}"/>
-    <hyperlink ref="A158" r:id="rId157" tooltip="Eiffel (programming language)" display="https://en.wikipedia.org/wiki/Eiffel_(programming_language)" xr:uid="{5B583706-374F-46A3-B567-7D089A145CA2}"/>
-    <hyperlink ref="A159" r:id="rId158" tooltip="ELAN (programming language)" display="https://en.wikipedia.org/wiki/ELAN_(programming_language)" xr:uid="{27AA23B0-3D89-4DB7-8804-D7DC28122E89}"/>
-    <hyperlink ref="A160" r:id="rId159" tooltip="Elixir (programming language)" display="https://en.wikipedia.org/wiki/Elixir_(programming_language)" xr:uid="{A57CF776-7AEC-4A17-AB0D-056B17A0CFD0}"/>
-    <hyperlink ref="A161" r:id="rId160" tooltip="Elm (programming language)" display="https://en.wikipedia.org/wiki/Elm_(programming_language)" xr:uid="{653AE1C2-E6A8-44D7-8224-2F5B2134B84F}"/>
-    <hyperlink ref="A162" r:id="rId161" tooltip="Emacs Lisp" display="https://en.wikipedia.org/wiki/Emacs_Lisp" xr:uid="{5A8EF9A3-DDC5-4DF3-BD2D-CBD3E9D1F4AE}"/>
-    <hyperlink ref="A163" r:id="rId162" tooltip="Emerald (programming language)" display="https://en.wikipedia.org/wiki/Emerald_(programming_language)" xr:uid="{556D811C-D207-496C-91E0-C30053DFE7F3}"/>
-    <hyperlink ref="A164" r:id="rId163" tooltip="Epigram (programming language)" display="https://en.wikipedia.org/wiki/Epigram_(programming_language)" xr:uid="{A8ABF5C8-1E42-4715-A010-D4152A921943}"/>
-    <hyperlink ref="A165" r:id="rId164" tooltip="Easy Programming Language" display="https://en.wikipedia.org/wiki/Easy_Programming_Language" xr:uid="{E8D55191-56A8-482B-B38B-6A1B0E11BF81}"/>
-    <hyperlink ref="A166" r:id="rId165" tooltip="Erlang (programming language)" display="https://en.wikipedia.org/wiki/Erlang_(programming_language)" xr:uid="{C1CFBC04-203A-421B-9459-F4A6D8793EEC}"/>
-    <hyperlink ref="A167" r:id="rId166" tooltip="Es (Unix shell)" display="https://en.wikipedia.org/wiki/Es_(Unix_shell)" xr:uid="{8CFBB79D-C3E0-446E-9061-67A977E40D69}"/>
-    <hyperlink ref="A168" r:id="rId167" tooltip="Escher (programming language)" display="https://en.wikipedia.org/wiki/Escher_(programming_language)" xr:uid="{C55593EA-A35D-419E-9C07-3D598A839E72}"/>
-    <hyperlink ref="A169" r:id="rId168" tooltip="Executive Systems Problem Oriented Language" display="https://en.wikipedia.org/wiki/Executive_Systems_Problem_Oriented_Language" xr:uid="{8B37313A-5B69-4BDD-B87E-DE9510A36F23}"/>
-    <hyperlink ref="A170" r:id="rId169" tooltip="Esterel" display="https://en.wikipedia.org/wiki/Esterel" xr:uid="{07B5A9F4-515D-473F-9659-FFDF690FAC88}"/>
-    <hyperlink ref="A171" r:id="rId170" tooltip="Etoys (programming language)" display="https://en.wikipedia.org/wiki/Etoys_(programming_language)" xr:uid="{9D74E809-6C88-4631-9280-DF050B44773A}"/>
-    <hyperlink ref="A172" r:id="rId171" tooltip="Euclid (programming language)" display="https://en.wikipedia.org/wiki/Euclid_(programming_language)" xr:uid="{7AA1731E-0F07-41E8-B078-8BDCAB2AF1BB}"/>
-    <hyperlink ref="A173" r:id="rId172" tooltip="Euler (programming language)" display="https://en.wikipedia.org/wiki/Euler_(programming_language)" xr:uid="{617A1893-B064-4E0E-B44F-E1CAAD054094}"/>
-    <hyperlink ref="A174" r:id="rId173" tooltip="Euphoria (programming language)" display="https://en.wikipedia.org/wiki/Euphoria_(programming_language)" xr:uid="{6B971B98-F926-4D84-8AB0-17F6281DF446}"/>
-    <hyperlink ref="A175" r:id="rId174" tooltip="EusLisp Robot Programming Language" display="https://en.wikipedia.org/wiki/EusLisp_Robot_Programming_Language" xr:uid="{907EB979-E31A-4324-AB60-F89CF8CA1BCA}"/>
-    <hyperlink ref="A176" r:id="rId175" tooltip="CMS EXEC" display="https://en.wikipedia.org/wiki/CMS_EXEC" xr:uid="{195D24BE-9267-48A3-A7A2-45B1D0B01956}"/>
-    <hyperlink ref="A177" r:id="rId176" tooltip="EXEC 2" display="https://en.wikipedia.org/wiki/EXEC_2" xr:uid="{65314412-C267-4211-86BB-5EA1E9A7CD70}"/>
-    <hyperlink ref="A178" r:id="rId177" tooltip="Executable UML" display="https://en.wikipedia.org/wiki/Executable_UML" xr:uid="{671E55AB-6C45-46D9-8535-45491833B9B1}"/>
-    <hyperlink ref="A179" r:id="rId178" tooltip="Ezhil (programming language)" display="https://en.wikipedia.org/wiki/Ezhil_(programming_language)" xr:uid="{2951BDFB-7AE9-4A0C-909A-86499373CA10}"/>
-    <hyperlink ref="A180" r:id="rId179" tooltip="F Sharp (programming language)" display="https://en.wikipedia.org/wiki/F_Sharp_(programming_language)" xr:uid="{EFF0159D-2C23-41A1-8965-AD20D7EDE80D}"/>
-    <hyperlink ref="A181" r:id="rId180" tooltip="F* (programming language)" display="https://en.wikipedia.org/wiki/F*_(programming_language)" xr:uid="{F2BFC9F9-3F82-44E7-AC83-171019A619CB}"/>
-    <hyperlink ref="A182" r:id="rId181" tooltip="Factor (programming language)" display="https://en.wikipedia.org/wiki/Factor_(programming_language)" xr:uid="{76669254-17FB-4FF8-977E-8AB27C22D571}"/>
-    <hyperlink ref="A183" r:id="rId182" tooltip="Fantom (programming language)" display="https://en.wikipedia.org/wiki/Fantom_(programming_language)" xr:uid="{23445AEE-AF1B-41A3-BD7C-5557604CB235}"/>
-    <hyperlink ref="A184" r:id="rId183" tooltip="FAUST (programming language)" display="https://en.wikipedia.org/wiki/FAUST_(programming_language)" xr:uid="{25C82BEE-396F-46E2-A4BD-9B338AEB1AA0}"/>
-    <hyperlink ref="A185" r:id="rId184" tooltip="FFP (programming language)" display="https://en.wikipedia.org/wiki/FFP_(programming_language)" xr:uid="{4EF1B7A3-F826-4FF8-98FC-D60F189FF079}"/>
-    <hyperlink ref="A186" r:id="rId185" tooltip="Friendly interactive shell" display="https://en.wikipedia.org/wiki/Friendly_interactive_shell" xr:uid="{B3DFB77C-08ED-47DE-8E3C-2B333FE1480A}"/>
-    <hyperlink ref="A187" r:id="rId186" tooltip="Fjölnir (programming language)" display="https://en.wikipedia.org/wiki/Fj%C3%B6lnir_(programming_language)" xr:uid="{AD67E7D6-08DE-4AFC-80BF-D320243DFB64}"/>
-    <hyperlink ref="A188" r:id="rId187" tooltip="FL (programming language)" display="https://en.wikipedia.org/wiki/FL_(programming_language)" xr:uid="{3DFAF392-5DB1-435E-85AD-165812AA3FC5}"/>
-    <hyperlink ref="A189" r:id="rId188" tooltip="FlagShip" display="https://en.wikipedia.org/wiki/FlagShip" xr:uid="{8560C2D0-7EA6-40ED-A41D-AB84B534542C}"/>
-    <hyperlink ref="A190" r:id="rId189" tooltip="Flavors (programming language)" display="https://en.wikipedia.org/wiki/Flavors_(programming_language)" xr:uid="{82A19771-55B4-46BE-B1B1-9E470BE89E9B}"/>
-    <hyperlink ref="A191" r:id="rId190" tooltip="Flex (language)" display="https://en.wikipedia.org/wiki/Flex_(language)" xr:uid="{F1B1151E-D6FC-4ED5-A54E-1B75BB0E3E7E}"/>
-    <hyperlink ref="A192" r:id="rId191" tooltip="Flix (programming language)" display="https://en.wikipedia.org/wiki/Flix_(programming_language)" xr:uid="{69991EBB-4224-4A06-898B-14BE9E8C8C41}"/>
-    <hyperlink ref="A193" r:id="rId192" tooltip="BlooP and FlooP" display="https://en.wikipedia.org/wiki/BlooP_and_FlooP" xr:uid="{0A52C670-9ACB-4895-A2AF-172E753CDB7A}"/>
-    <hyperlink ref="A194" r:id="rId193" tooltip="FLOW-MATIC" display="https://en.wikipedia.org/wiki/FLOW-MATIC" xr:uid="{A3AE5865-5A2D-4CF0-B878-8C79EDAFA916}"/>
-    <hyperlink ref="A195" r:id="rId194" tooltip="FOCAL (programming language)" display="https://en.wikipedia.org/wiki/FOCAL_(programming_language)" xr:uid="{84489BB1-3992-469F-9B3D-B7CB3D1BEF06}"/>
-    <hyperlink ref="A196" r:id="rId195" tooltip="FOCUS" display="https://en.wikipedia.org/wiki/FOCUS" xr:uid="{B0C01C0C-FCAB-485D-8158-06FEE3E942B2}"/>
-    <hyperlink ref="A197" r:id="rId196" tooltip="FOIL (programming language)" display="https://en.wikipedia.org/wiki/FOIL_(programming_language)" xr:uid="{9ED22FAE-89DF-4CFB-827A-2DB1E570632A}"/>
-    <hyperlink ref="A198" r:id="rId197" tooltip="FORMAC (programming language)" display="https://en.wikipedia.org/wiki/FORMAC_(programming_language)" xr:uid="{CF9AB9BA-66B5-4423-B553-A9922BC70F6A}"/>
-    <hyperlink ref="A199" r:id="rId198" tooltip="Formula language" display="https://en.wikipedia.org/wiki/Formula_language" xr:uid="{F29A92DC-7D50-4042-8F63-FD436349E20B}"/>
-    <hyperlink ref="A200" r:id="rId199" tooltip="Forth (programming language)" display="https://en.wikipedia.org/wiki/Forth_(programming_language)" xr:uid="{7EFF1A8E-ABA1-4F78-A3BD-5E8C4F0D18B6}"/>
-    <hyperlink ref="A201" r:id="rId200" tooltip="Fortran" display="https://en.wikipedia.org/wiki/Fortran" xr:uid="{3B0682E7-0846-401C-9EA6-9ED0D34AE06A}"/>
-    <hyperlink ref="A202" r:id="rId201" tooltip="Fortress (programming language)" display="https://en.wikipedia.org/wiki/Fortress_(programming_language)" xr:uid="{8C73BE7E-D00E-4149-B963-AD01F51D840A}"/>
-    <hyperlink ref="A203" r:id="rId202" tooltip="FP (programming language)" display="https://en.wikipedia.org/wiki/FP_(programming_language)" xr:uid="{3035E627-D1BB-4F0A-8F6B-12B5E48B3E7C}"/>
-    <hyperlink ref="A204" r:id="rId203" tooltip="FoxPro (programming language)" display="https://en.wikipedia.org/wiki/FoxPro_(programming_language)" xr:uid="{8EDA69D6-537D-4FE9-BF73-847C7173EA56}"/>
-    <hyperlink ref="A205" r:id="rId204" tooltip="Franz Lisp" display="https://en.wikipedia.org/wiki/Franz_Lisp" xr:uid="{B2E77091-1C65-4178-9B5A-9F7A1EE5BDE8}"/>
-    <hyperlink ref="A206" r:id="rId205" tooltip="Futhark (programming language)" display="https://en.wikipedia.org/wiki/Futhark_(programming_language)" xr:uid="{F2362470-F53E-4FF2-8110-4DAF9A9AF09A}"/>
-    <hyperlink ref="A207" r:id="rId206" tooltip="F-Script (programming language)" display="https://en.wikipedia.org/wiki/F-Script_(programming_language)" xr:uid="{D134BB15-0198-4D5A-A08A-E1C18CF4BBCE}"/>
-    <hyperlink ref="A208" r:id="rId207" tooltip="Game Maker Language" display="https://en.wikipedia.org/wiki/Game_Maker_Language" xr:uid="{9295CAA0-6939-4177-9EDF-7A6E0AEEB9EF}"/>
-    <hyperlink ref="A209" r:id="rId208" tooltip="GameMonkey Script" display="https://en.wikipedia.org/wiki/GameMonkey_Script" xr:uid="{C31862B3-D66D-47BD-BEBE-585EE11CAAEC}"/>
-    <hyperlink ref="A210" r:id="rId209" tooltip="General Algebraic Modeling System" display="https://en.wikipedia.org/wiki/General_Algebraic_Modeling_System" xr:uid="{FC7D8AAF-187F-47C2-BB79-C6ACBEC39FB2}"/>
-    <hyperlink ref="A211" r:id="rId210" tooltip="GAP computer algebra system" display="https://en.wikipedia.org/wiki/GAP_computer_algebra_system" xr:uid="{70922E45-CF2E-41F5-BBA1-2E363355C049}"/>
-    <hyperlink ref="A212" r:id="rId211" tooltip="G-code" display="https://en.wikipedia.org/wiki/G-code" xr:uid="{B9D5340A-FDC7-42EA-92E0-1C605E8F5F07}"/>
-    <hyperlink ref="A213" r:id="rId212" tooltip="Godot (game engine)" display="https://en.wikipedia.org/wiki/Godot_(game_engine)" xr:uid="{E486F76A-C3B2-472B-9AEC-0C02C028B64B}"/>
-    <hyperlink ref="A214" r:id="rId213" tooltip="Genie (programming language)" display="https://en.wikipedia.org/wiki/Genie_(programming_language)" xr:uid="{81E2BCB2-07B7-4BB6-835E-ACADDBDE1281}"/>
-    <hyperlink ref="A215" r:id="rId214" tooltip="Geometric Description Language" display="https://en.wikipedia.org/wiki/Geometric_Description_Language" xr:uid="{945285E1-471E-47D7-ACAA-99DC5978F1D4}"/>
-    <hyperlink ref="A216" r:id="rId215" tooltip="GEORGE (programming language)" display="https://en.wikipedia.org/wiki/GEORGE_(programming_language)" xr:uid="{DABA073E-840F-4A12-86FC-6034EA9BCED5}"/>
-    <hyperlink ref="A217" r:id="rId216" tooltip="OpenGL Shading Language" display="https://en.wikipedia.org/wiki/OpenGL_Shading_Language" xr:uid="{F2529917-1FC1-40A3-A847-E59F64D08A68}"/>
-    <hyperlink ref="A218" r:id="rId217" tooltip="GNU E" display="https://en.wikipedia.org/wiki/GNU_E" xr:uid="{1A3EE3D1-6782-46AD-8271-D58DA2669E3B}"/>
-    <hyperlink ref="A219" r:id="rId218" tooltip="GNU Guile" display="https://en.wikipedia.org/wiki/GNU_Guile" xr:uid="{E72E1565-79F2-4E0C-BB24-BD3C494E124A}"/>
-    <hyperlink ref="A220" r:id="rId219" tooltip="Go (programming language)" display="https://en.wikipedia.org/wiki/Go_(programming_language)" xr:uid="{72186A3E-4AEC-4CC9-81A3-678D04F78DCC}"/>
-    <hyperlink ref="A221" r:id="rId220" tooltip="Go! (programming language)" display="https://en.wikipedia.org/wiki/Go!_(programming_language)" xr:uid="{534B5BC1-1496-4292-9FB7-ACECA4B3607E}"/>
-    <hyperlink ref="A222" r:id="rId221" tooltip="Game Oriented Assembly Lisp" display="https://en.wikipedia.org/wiki/Game_Oriented_Assembly_Lisp" xr:uid="{AABCABFE-E8C6-4B19-95AA-61CFFC56A8C0}"/>
-    <hyperlink ref="A223" r:id="rId222" tooltip="Gödel (programming language)" display="https://en.wikipedia.org/wiki/G%C3%B6del_(programming_language)" xr:uid="{C086682C-F3DD-4803-B848-1FE29E62C0BC}"/>
-    <hyperlink ref="A224" r:id="rId223" tooltip="Golo (programming language)" display="https://en.wikipedia.org/wiki/Golo_(programming_language)" xr:uid="{75BDECC9-5E55-4455-A4BA-D41828E871D0}"/>
-    <hyperlink ref="A225" r:id="rId224" tooltip="MAD (programming language)" display="https://en.wikipedia.org/wiki/MAD_(programming_language)" xr:uid="{A23C8B37-9C09-4914-8357-34FBDD86B6A2}"/>
-    <hyperlink ref="A226" r:id="rId225" tooltip="Google Apps Script" display="https://en.wikipedia.org/wiki/Google_Apps_Script" xr:uid="{9A2AA101-B050-48ED-9903-E1B86EBCE10F}"/>
-    <hyperlink ref="A227" r:id="rId226" tooltip="Gosu (programming language)" display="https://en.wikipedia.org/wiki/Gosu_(programming_language)" xr:uid="{A9FFFBDC-E51A-4E9A-A47B-AC6597DA2FC6}"/>
-    <hyperlink ref="A228" r:id="rId227" location="GOTRAN" tooltip="IBM 1620" display="https://en.wikipedia.org/wiki/IBM_1620 - GOTRAN" xr:uid="{19FAD9AC-AE94-43E8-B5A8-5F63ECC53BB0}"/>
-    <hyperlink ref="A229" r:id="rId228" tooltip="GPSS" display="https://en.wikipedia.org/wiki/GPSS" xr:uid="{6BC88DEA-B379-4352-B813-77E817EF62D1}"/>
-    <hyperlink ref="A230" r:id="rId229" tooltip="Computer Sciences Corporation" display="https://en.wikipedia.org/wiki/Computer_Sciences_Corporation" xr:uid="{F769AF19-B1B6-457B-A833-4903C990815D}"/>
-    <hyperlink ref="A231" r:id="rId230" tooltip="GRASS (programming language)" display="https://en.wikipedia.org/wiki/GRASS_(programming_language)" xr:uid="{D1E8B613-12B3-4EA7-B827-5B132AEF6ACF}"/>
-    <hyperlink ref="A232" r:id="rId231" tooltip="Grasshopper 3D" display="https://en.wikipedia.org/wiki/Grasshopper_3D" xr:uid="{8C6EBE55-F4BD-43ED-959F-BF93BE5022C3}"/>
-    <hyperlink ref="A233" r:id="rId232" tooltip="Apache Groovy" display="https://en.wikipedia.org/wiki/Apache_Groovy" xr:uid="{39B657FF-0E50-4AD6-B8A3-B5A4B8FE746E}"/>
-    <hyperlink ref="A234" r:id="rId233" tooltip="Hack (programming language)" display="https://en.wikipedia.org/wiki/Hack_(programming_language)" xr:uid="{E563F6AB-C4C1-4EAA-81C5-08FEEAED9362}"/>
-    <hyperlink ref="A235" r:id="rId234" tooltip="HAGGIS" display="https://en.wikipedia.org/wiki/HAGGIS" xr:uid="{72CE1C24-79DB-4894-94A6-979B78A64054}"/>
-    <hyperlink ref="A236" r:id="rId235" tooltip="HAL/S" display="https://en.wikipedia.org/wiki/HAL/S" xr:uid="{54E828D3-C399-4F76-B545-81254D51ED09}"/>
-    <hyperlink ref="A237" r:id="rId236" tooltip="Halide (programming language)" display="https://en.wikipedia.org/wiki/Halide_(programming_language)" xr:uid="{3B45CA43-97AB-43C3-B4CA-EFCDAAFEC802}"/>
-    <hyperlink ref="A238" r:id="rId237" tooltip="Hamilton C shell" display="https://en.wikipedia.org/wiki/Hamilton_C_shell" xr:uid="{36F3D4DC-867F-4A7B-98E5-D9ABA7904C33}"/>
-    <hyperlink ref="A239" r:id="rId238" tooltip="Harbour (software)" display="https://en.wikipedia.org/wiki/Harbour_(software)" xr:uid="{DEB9423F-73D1-4CDB-86B9-B243A95E3EF0}"/>
-    <hyperlink ref="A240" r:id="rId239" tooltip="Hartmann pipeline" display="https://en.wikipedia.org/wiki/Hartmann_pipeline" xr:uid="{E61BFA90-17C9-4D32-B9B4-063E77821BCA}"/>
-    <hyperlink ref="A241" r:id="rId240" tooltip="Haskell (programming language)" display="https://en.wikipedia.org/wiki/Haskell_(programming_language)" xr:uid="{D42AF286-F587-4102-AC16-A3FF8CC725C9}"/>
-    <hyperlink ref="A242" r:id="rId241" tooltip="Haxe" display="https://en.wikipedia.org/wiki/Haxe" xr:uid="{935FD85D-FACF-49A5-995B-FCDCEDC3DA54}"/>
-    <hyperlink ref="A243" r:id="rId242" tooltip="Hermes (programming language)" display="https://en.wikipedia.org/wiki/Hermes_(programming_language)" xr:uid="{5D9441AC-3A78-4867-A679-53CDF17FB9D5}"/>
-    <hyperlink ref="A244" r:id="rId243" tooltip="High Level Assembly" display="https://en.wikipedia.org/wiki/High_Level_Assembly" xr:uid="{2E1E897B-6A2D-4F14-AFCA-A6348F5A9E8C}"/>
-    <hyperlink ref="A245" r:id="rId244" tooltip="High Level Shader Language" display="https://en.wikipedia.org/wiki/High_Level_Shader_Language" xr:uid="{C0FD8130-C36C-42C9-9935-A225934BCC52}"/>
-    <hyperlink ref="A246" r:id="rId245" tooltip="Hollywood (programming language)" display="https://en.wikipedia.org/wiki/Hollywood_(programming_language)" xr:uid="{3C8F2622-9F43-4204-BB69-2293E90AEAF7}"/>
-    <hyperlink ref="A247" r:id="rId246" tooltip="TempleOS" display="https://en.wikipedia.org/wiki/TempleOS" xr:uid="{3EB39EC6-1C8F-4612-B43B-AC162BA25A7C}"/>
-    <hyperlink ref="A248" r:id="rId247" tooltip="Hop (software)" display="https://en.wikipedia.org/wiki/Hop_(software)" xr:uid="{1358C712-3317-48EB-95FC-6965851AEFF9}"/>
-    <hyperlink ref="A249" r:id="rId248" tooltip="Hopscotch (programming language)" display="https://en.wikipedia.org/wiki/Hopscotch_(programming_language)" xr:uid="{BF83624F-816B-4961-A2CA-4BC586D90B59}"/>
-    <hyperlink ref="A250" r:id="rId249" tooltip="Hope (programming language)" display="https://en.wikipedia.org/wiki/Hope_(programming_language)" xr:uid="{63B6B86A-0286-413C-8887-56AC3257F942}"/>
-    <hyperlink ref="A251" r:id="rId250" tooltip="Hume (language)" display="https://en.wikipedia.org/wiki/Hume_(language)" xr:uid="{C9854125-B6B8-4C06-B08A-02A3BF98DB4D}"/>
-    <hyperlink ref="A252" r:id="rId251" tooltip="HyperTalk" display="https://en.wikipedia.org/wiki/HyperTalk" xr:uid="{37F3A451-01BB-4243-8BBA-4BE24DFC7992}"/>
-    <hyperlink ref="A253" r:id="rId252" tooltip="Hy" display="https://en.wikipedia.org/wiki/Hy" xr:uid="{D206A8ED-2281-4A12-B452-BBAD6EEA9B44}"/>
-    <hyperlink ref="A254" r:id="rId253" tooltip="Io (programming language)" display="https://en.wikipedia.org/wiki/Io_(programming_language)" xr:uid="{D1310D65-2A68-4D2C-BB3B-B66874A0855A}"/>
-    <hyperlink ref="A255" r:id="rId254" tooltip="Icon (programming language)" display="https://en.wikipedia.org/wiki/Icon_(programming_language)" xr:uid="{3834619A-D921-4D32-8638-9B07130FFCB2}"/>
-    <hyperlink ref="A256" r:id="rId255" tooltip="IBM Basic assembly language" display="https://en.wikipedia.org/wiki/IBM_Basic_assembly_language" xr:uid="{CE268C7F-C91F-4471-A950-C0667DD3DCEB}"/>
-    <hyperlink ref="A257" r:id="rId256" tooltip="IBM HAScript" display="https://en.wikipedia.org/wiki/IBM_HAScript" xr:uid="{43BC442C-DAF3-4C37-8EA7-ADA799833D8A}"/>
-    <hyperlink ref="A258" r:id="rId257" tooltip="IBM Informix-4GL" display="https://en.wikipedia.org/wiki/IBM_Informix-4GL" xr:uid="{46FB51DA-4345-4029-B8AD-7CBB20D84D0C}"/>
-    <hyperlink ref="A259" r:id="rId258" tooltip="IBM RPG" display="https://en.wikipedia.org/wiki/IBM_RPG" xr:uid="{B2D10408-D47C-4A7F-ACD8-537DCFFE9676}"/>
-    <hyperlink ref="A260" r:id="rId259" tooltip="IDL (programming language)" display="https://en.wikipedia.org/wiki/IDL_(programming_language)" xr:uid="{54FD52DA-4EC4-430C-A729-5B10F356895A}"/>
-    <hyperlink ref="A261" r:id="rId260" tooltip="Idris (programming language)" display="https://en.wikipedia.org/wiki/Idris_(programming_language)" xr:uid="{F591F23B-67BE-4322-B751-F3858772D937}"/>
-    <hyperlink ref="A262" r:id="rId261" tooltip="Inform (programming language)" display="https://en.wikipedia.org/wiki/Inform_(programming_language)" xr:uid="{B1CFC782-84CE-489C-9DFA-0F2C980CFE5E}"/>
-    <hyperlink ref="A263" r:id="rId262" tooltip="ISLISP" display="https://en.wikipedia.org/wiki/ISLISP" xr:uid="{6DE80490-F55A-439E-AC49-08A56951038F}"/>
-    <hyperlink ref="A264" r:id="rId263" tooltip="J Sharp" display="https://en.wikipedia.org/wiki/J_Sharp" xr:uid="{E6ECDC37-A06F-4088-AC57-3E4E16BE4496}"/>
-    <hyperlink ref="A265" r:id="rId264" tooltip="Visual J++" display="https://en.wikipedia.org/wiki/Visual_J%2B%2B" xr:uid="{12FB095A-92A3-4AE1-9369-EDD9C18702E2}"/>
-    <hyperlink ref="A266" r:id="rId265" tooltip="JADE (programming language)" display="https://en.wikipedia.org/wiki/JADE_(programming_language)" xr:uid="{174C2A31-8D3A-4CAB-A9F4-DF612C9E37A0}"/>
-    <hyperlink ref="A267" r:id="rId266" tooltip="Jai (programming language)" display="https://en.wikipedia.org/wiki/Jai_(programming_language)" xr:uid="{98B40853-A3A4-4D17-B451-829AC363AD53}"/>
-    <hyperlink ref="A268" r:id="rId267" tooltip="JAL (compiler)" display="https://en.wikipedia.org/wiki/JAL_(compiler)" xr:uid="{D42900F0-2723-45A0-B187-114DDD53E824}"/>
-    <hyperlink ref="A269" r:id="rId268" tooltip="Janus (concurrent constraint programming language)" display="https://en.wikipedia.org/wiki/Janus_(concurrent_constraint_programming_language)" xr:uid="{84199D52-B2CF-451A-A75B-FD8B0C541849}"/>
-    <hyperlink ref="A270" r:id="rId269" tooltip="Janus (time-reversible computing programming language)" display="https://en.wikipedia.org/wiki/Janus_(time-reversible_computing_programming_language)" xr:uid="{C9FDDA92-9102-4B10-8F79-308DB4382859}"/>
-    <hyperlink ref="A271" r:id="rId270" tooltip="JASS (scripting language)" display="https://en.wikipedia.org/wiki/JASS_(scripting_language)" xr:uid="{22F05E74-D06B-4CCE-A906-B1B9238180E6}"/>
-    <hyperlink ref="A272" r:id="rId271" tooltip="Java (programming language)" display="https://en.wikipedia.org/wiki/Java_(programming_language)" xr:uid="{39EDDBD7-8CCD-4633-A1D1-FD0C8605B9AC}"/>
-    <hyperlink ref="A273" r:id="rId272" tooltip="JavaFX Script" display="https://en.wikipedia.org/wiki/JavaFX_Script" xr:uid="{2FEFF4E7-EA5C-4625-A59D-895501356E89}"/>
-    <hyperlink ref="A274" r:id="rId273" tooltip="JavaScript" display="https://en.wikipedia.org/wiki/JavaScript" xr:uid="{548054CF-4C95-4121-AD86-551DC9772B15}"/>
-    <hyperlink ref="A275" r:id="rId274" tooltip="Jess (programming language)" display="https://en.wikipedia.org/wiki/Jess_(programming_language)" xr:uid="{BBC255C4-E835-4D21-A964-1A974E9408B6}"/>
-    <hyperlink ref="A276" r:id="rId275" tooltip="Job Control Language" display="https://en.wikipedia.org/wiki/Job_Control_Language" xr:uid="{3289300F-DCEE-4411-9393-B110665C8818}"/>
-    <hyperlink ref="A277" r:id="rId276" tooltip="JEAN" display="https://en.wikipedia.org/wiki/JEAN" xr:uid="{56AF5E50-01C2-43DB-AA3D-D711F7A93224}"/>
-    <hyperlink ref="A278" r:id="rId277" tooltip="Join Java" display="https://en.wikipedia.org/wiki/Join_Java" xr:uid="{5E03BEAD-A9B4-4093-9DDF-56A14487C308}"/>
-    <hyperlink ref="A279" r:id="rId278" tooltip="JOSS" display="https://en.wikipedia.org/wiki/JOSS" xr:uid="{F7458A77-F31D-47E0-9B8D-4CD1FA227794}"/>
-    <hyperlink ref="A280" r:id="rId279" tooltip="Joule (programming language)" display="https://en.wikipedia.org/wiki/Joule_(programming_language)" xr:uid="{93722C79-F6BF-48BF-83CE-FF2057D1CC93}"/>
-    <hyperlink ref="A281" r:id="rId280" tooltip="JOVIAL" display="https://en.wikipedia.org/wiki/JOVIAL" xr:uid="{B3698A35-006F-42D6-88D4-AAB39FE352C3}"/>
-    <hyperlink ref="A282" r:id="rId281" tooltip="Joy (programming language)" display="https://en.wikipedia.org/wiki/Joy_(programming_language)" xr:uid="{7EBCA08E-D259-428A-B881-CB133810DD97}"/>
-    <hyperlink ref="A283" r:id="rId282" tooltip="JScript" display="https://en.wikipedia.org/wiki/JScript" xr:uid="{7CAEC649-B8DA-4A30-8719-F08669DD0B92}"/>
-    <hyperlink ref="A284" r:id="rId283" tooltip="JScript .NET" display="https://en.wikipedia.org/wiki/JScript_.NET" xr:uid="{E6DA6E57-6035-49C8-9B91-841233E2BD07}"/>
-    <hyperlink ref="A285" r:id="rId284" tooltip="Julia (programming language)" display="https://en.wikipedia.org/wiki/Julia_(programming_language)" xr:uid="{D00F7742-8318-4AB5-812E-C567B73568FA}"/>
-    <hyperlink ref="A286" r:id="rId285" tooltip="Jython" display="https://en.wikipedia.org/wiki/Jython" xr:uid="{C279149B-2A16-4DE4-A723-8880F64AFC3E}"/>
-    <hyperlink ref="A287" r:id="rId286" tooltip="Kaleidoscope (programming language)" display="https://en.wikipedia.org/wiki/Kaleidoscope_(programming_language)" xr:uid="{C8AC1731-1B1A-4616-9332-0E69319153E7}"/>
-    <hyperlink ref="A288" r:id="rId287" tooltip="Karel (programming language)" display="https://en.wikipedia.org/wiki/Karel_(programming_language)" xr:uid="{69BBF924-FAF6-4661-B9F1-829E61B7F00A}"/>
-    <hyperlink ref="A289" r:id="rId288" tooltip="IntelliCorp (Software)" display="https://en.wikipedia.org/wiki/IntelliCorp_(Software)" xr:uid="{F2028D44-6DDB-4A3E-8AE1-BFD9E24F3AA1}"/>
-    <hyperlink ref="A290" r:id="rId289" tooltip="KiXtart" display="https://en.wikipedia.org/wiki/KiXtart" xr:uid="{4D164CAA-71E3-40CB-AE6D-CB2922B54E9D}"/>
-    <hyperlink ref="A291" r:id="rId290" tooltip="Klerer-May System" display="https://en.wikipedia.org/wiki/Klerer-May_System" xr:uid="{922904F6-DE56-4193-95C6-5DF1A0229501}"/>
-    <hyperlink ref="A292" r:id="rId291" tooltip="Knowledge Interchange Format" display="https://en.wikipedia.org/wiki/Knowledge_Interchange_Format" xr:uid="{B895285B-DB95-43C4-9546-9D6326D4C8C3}"/>
-    <hyperlink ref="A293" r:id="rId292" tooltip="Kojo (programming language)" display="https://en.wikipedia.org/wiki/Kojo_(programming_language)" xr:uid="{82B5332C-E1D9-4364-88CF-041D030FFC2E}"/>
-    <hyperlink ref="A294" r:id="rId293" tooltip="Kotlin (programming language)" display="https://en.wikipedia.org/wiki/Kotlin_(programming_language)" xr:uid="{F01550ED-415A-491F-85B9-25E694A4479D}"/>
-    <hyperlink ref="A295" r:id="rId294" tooltip="Kent Recursive Calculator" display="https://en.wikipedia.org/wiki/Kent_Recursive_Calculator" xr:uid="{78789EA0-E29F-4447-92C8-F5C5BA5C8343}"/>
-    <hyperlink ref="A296" r:id="rId295" tooltip="KRL (programming language)" display="https://en.wikipedia.org/wiki/KRL_(programming_language)" xr:uid="{25B7032F-434C-4102-A10B-CC056EDD9516}"/>
-    <hyperlink ref="A297" r:id="rId296" tooltip="KUKA Robot Language" display="https://en.wikipedia.org/wiki/KUKA_Robot_Language" xr:uid="{590DD664-3698-424A-9A9D-258C04E7D700}"/>
-    <hyperlink ref="A298" r:id="rId297" tooltip="KRYPTON" display="https://en.wikipedia.org/wiki/KRYPTON" xr:uid="{8A142A50-8FC4-41AB-9E99-201FE6EBFD58}"/>
-    <hyperlink ref="A299" r:id="rId298" tooltip="KornShell" display="https://en.wikipedia.org/wiki/KornShell" xr:uid="{AA21802E-7C55-4242-8965-9CB2E5FE3560}"/>
-    <hyperlink ref="A300" r:id="rId299" tooltip="Kodu Game Lab" display="https://en.wikipedia.org/wiki/Kodu_Game_Lab" xr:uid="{3728DC62-A5FD-4848-8D66-79DDDD31CC35}"/>
-    <hyperlink ref="A301" r:id="rId300" location="Kv_language" tooltip="Kivy (framework)" display="https://en.wikipedia.org/wiki/Kivy_(framework) - Kv_language" xr:uid="{3C8842B8-688E-4295-B258-0BFA61B262D6}"/>
-    <hyperlink ref="A302" r:id="rId301" tooltip="LabVIEW" display="https://en.wikipedia.org/wiki/LabVIEW" xr:uid="{D8F6C7A1-CDA7-4F98-9F0E-83039B666B4C}"/>
-    <hyperlink ref="A303" r:id="rId302" tooltip="Ladder logic" display="https://en.wikipedia.org/wiki/Ladder_logic" xr:uid="{6CB94BD6-52DD-4D30-98DF-D0C4686F8F09}"/>
-    <hyperlink ref="A304" r:id="rId303" tooltip="LANSA (development environment)" display="https://en.wikipedia.org/wiki/LANSA_(development_environment)" xr:uid="{BB4B1843-B60D-4611-8C8F-C4F489E1F6A6}"/>
-    <hyperlink ref="A305" r:id="rId304" tooltip="Lasso (programming language)" display="https://en.wikipedia.org/wiki/Lasso_(programming_language)" xr:uid="{E08E81D9-D2B6-44A1-868F-FA0554493652}"/>
-    <hyperlink ref="A306" r:id="rId305" tooltip="Lava (programming language)" display="https://en.wikipedia.org/wiki/Lava_(programming_language)" xr:uid="{4FAF7A73-98E2-4976-ADDC-1F643C39B88C}"/>
-    <hyperlink ref="A307" r:id="rId306" tooltip="Little Computer 3" display="https://en.wikipedia.org/wiki/Little_Computer_3" xr:uid="{512BAD76-5450-42B5-8B82-326EACA8F35C}"/>
-    <hyperlink ref="A308" r:id="rId307" tooltip="Lean (proof assistant)" display="https://en.wikipedia.org/wiki/Lean_(proof_assistant)" xr:uid="{6013D905-7C96-43DD-B260-0EC2A86148AA}"/>
-    <hyperlink ref="A309" r:id="rId308" tooltip="Legoscript" display="https://en.wikipedia.org/wiki/Legoscript" xr:uid="{67E696F0-5A91-4AFA-8A78-83AD55BF3E34}"/>
-    <hyperlink ref="A310" r:id="rId309" tooltip="Little Implementation Language" display="https://en.wikipedia.org/wiki/Little_Implementation_Language" xr:uid="{9E3AAE51-E23D-4134-9149-88F79749721A}"/>
-    <hyperlink ref="A311" r:id="rId310" tooltip="LilyPond" display="https://en.wikipedia.org/wiki/LilyPond" xr:uid="{633C8F56-A1FD-4B41-B720-40F7218F85DA}"/>
-    <hyperlink ref="A312" r:id="rId311" tooltip="Limbo (programming language)" display="https://en.wikipedia.org/wiki/Limbo_(programming_language)" xr:uid="{C7FD16A6-693F-4594-ABD9-6FEA7BF5CBE9}"/>
-    <hyperlink ref="A313" r:id="rId312" tooltip="Limnor" display="https://en.wikipedia.org/wiki/Limnor" xr:uid="{05618BA8-7A5F-487F-B488-499E90A27359}"/>
-    <hyperlink ref="A314" r:id="rId313" tooltip="LINC 4GL" display="https://en.wikipedia.org/wiki/LINC_4GL" xr:uid="{0D0CECCF-9315-4ADC-BD91-B8E4D4B9DFD7}"/>
-    <hyperlink ref="A315" r:id="rId314" tooltip="Lingo (programming language)" display="https://en.wikipedia.org/wiki/Lingo_(programming_language)" xr:uid="{79BA7EFF-0EB4-48D6-90C1-6AFA928E8AFC}"/>
-    <hyperlink ref="A316" r:id="rId315" tooltip="LINQ" display="https://en.wikipedia.org/wiki/LINQ" xr:uid="{CF25E875-0349-44CD-8C11-FF70B10A099D}"/>
-    <hyperlink ref="A317" r:id="rId316" tooltip="LIS (programming language)" display="https://en.wikipedia.org/wiki/LIS_(programming_language)" xr:uid="{4F0F3E60-E403-470C-BCB3-58D112652DD7}"/>
-    <hyperlink ref="A318" r:id="rId317" tooltip="Language for Instruction Set Architecture" display="https://en.wikipedia.org/wiki/Language_for_Instruction_Set_Architecture" xr:uid="{8A4B86DF-3D84-4B58-9740-E59057EB63D3}"/>
-    <hyperlink ref="A319" r:id="rId318" tooltip="Language H" display="https://en.wikipedia.org/wiki/Language_H" xr:uid="{231C2636-207D-413D-9049-569BDB50B03B}"/>
-    <hyperlink ref="A320" r:id="rId319" tooltip="Lisp (programming language)" display="https://en.wikipedia.org/wiki/Lisp_(programming_language)" xr:uid="{0BFABBC6-3AC2-4AFE-9BBF-B32E8CA339CB}"/>
-    <hyperlink ref="A321" r:id="rId320" tooltip="Lite-C" display="https://en.wikipedia.org/wiki/Lite-C" xr:uid="{76EAD394-CB9B-4EFB-8863-2C873B304AE0}"/>
-    <hyperlink ref="A322" r:id="rId321" tooltip="Lithe (programming language)" display="https://en.wikipedia.org/wiki/Lithe_(programming_language)" xr:uid="{5A86A809-80DE-42D4-97C1-3A826DAB8604}"/>
-    <hyperlink ref="A323" r:id="rId322" tooltip="Little b (programming language)" display="https://en.wikipedia.org/wiki/Little_b_(programming_language)" xr:uid="{D632BA47-9E39-403C-86FD-CA32AEA7ADB8}"/>
-    <hyperlink ref="A324" r:id="rId323" location="Contract_source_code" tooltip="Ethereum" display="https://en.wikipedia.org/wiki/Ethereum - Contract_source_code" xr:uid="{EC3C4D7B-DE84-40B7-B784-82836F0B286D}"/>
-    <hyperlink ref="A325" r:id="rId324" tooltip="Logo (programming language)" display="https://en.wikipedia.org/wiki/Logo_(programming_language)" xr:uid="{15FE7904-D31C-4FA3-AC67-9FACF6BE74D4}"/>
-    <hyperlink ref="A326" r:id="rId325" tooltip="Logtalk" display="https://en.wikipedia.org/wiki/Logtalk" xr:uid="{13F6DD86-6E62-4A6D-A799-DEFE13225780}"/>
-    <hyperlink ref="A327" r:id="rId326" tooltip="LotusScript" display="https://en.wikipedia.org/wiki/LotusScript" xr:uid="{6B147385-A27C-40AC-A691-64BAFDFB713A}"/>
-    <hyperlink ref="A328" r:id="rId327" tooltip="LPC (programming language)" display="https://en.wikipedia.org/wiki/LPC_(programming_language)" xr:uid="{1D67BE18-8D0E-4A93-8706-01249D250FBA}"/>
-    <hyperlink ref="A329" r:id="rId328" tooltip="LSE (programming language)" display="https://en.wikipedia.org/wiki/LSE_(programming_language)" xr:uid="{5022A65B-CE7D-4F29-8F39-91D582D73867}"/>
-    <hyperlink ref="A330" r:id="rId329" tooltip="Linden Scripting Language" display="https://en.wikipedia.org/wiki/Linden_Scripting_Language" xr:uid="{8A7BFF5D-4156-49B9-A6CF-5FFE920578AD}"/>
-    <hyperlink ref="A331" r:id="rId330" tooltip="LiveCode" display="https://en.wikipedia.org/wiki/LiveCode" xr:uid="{E0583B7D-A88A-4104-B1B3-5E98F843B308}"/>
-    <hyperlink ref="A332" r:id="rId331" tooltip="LiveScript" display="https://en.wikipedia.org/wiki/LiveScript" xr:uid="{07441096-55F7-437C-8BE5-0340A1ED41D3}"/>
-    <hyperlink ref="A333" r:id="rId332" tooltip="Lua (programming language)" display="https://en.wikipedia.org/wiki/Lua_(programming_language)" xr:uid="{15CBEA4A-5FE6-496A-BC68-80DDDC5C74C2}"/>
-    <hyperlink ref="A334" r:id="rId333" tooltip="Lucid (programming language)" display="https://en.wikipedia.org/wiki/Lucid_(programming_language)" xr:uid="{D4F3B66D-4467-4909-B2F8-F604E24FC0D1}"/>
-    <hyperlink ref="A335" r:id="rId334" tooltip="Lustre (programming language)" display="https://en.wikipedia.org/wiki/Lustre_(programming_language)" xr:uid="{993FFE73-4742-4693-8103-DB0F8E2078C5}"/>
-    <hyperlink ref="A336" r:id="rId335" tooltip="LYaPAS" display="https://en.wikipedia.org/wiki/LYaPAS" xr:uid="{D1B343B2-5A72-44DC-A833-C0A6FA6766D2}"/>
-    <hyperlink ref="A337" r:id="rId336" tooltip="Lynx (programming language)" display="https://en.wikipedia.org/wiki/Lynx_(programming_language)" xr:uid="{803CF46E-E5C9-4471-87D6-31F8AA852FFE}"/>
-    <hyperlink ref="A338" r:id="rId337" tooltip="M Formula language" display="https://en.wikipedia.org/wiki/M_Formula_language" xr:uid="{7829C08A-3E56-4027-A457-BBB18C736E89}"/>
-    <hyperlink ref="A339" r:id="rId338" tooltip="M2001" display="https://en.wikipedia.org/wiki/M2001" xr:uid="{7389609C-29DF-48AE-BEAE-10D46BB512C0}"/>
-    <hyperlink ref="A340" r:id="rId339" tooltip="M4 (computer language)" display="https://en.wikipedia.org/wiki/M4_(computer_language)" xr:uid="{641FB40B-21C3-498D-ACE3-82840F5F10F4}"/>
-    <hyperlink ref="A341" r:id="rId340" tooltip="M Sharp (programming language)" display="https://en.wikipedia.org/wiki/M_Sharp_(programming_language)" xr:uid="{8A0B68CB-2007-4C7E-A00D-052A89AE8E9E}"/>
-    <hyperlink ref="A342" r:id="rId341" tooltip="Machine code" display="https://en.wikipedia.org/wiki/Machine_code" xr:uid="{2CE95CAF-F53F-4A6E-BB07-9D721137A456}"/>
-    <hyperlink ref="A343" r:id="rId342" tooltip="MAD (programming language)" display="https://en.wikipedia.org/wiki/MAD_(programming_language)" xr:uid="{FB8D8CAD-7AA2-43AF-8DC1-04D4EB9CBC60}"/>
-    <hyperlink ref="A344" r:id="rId343" tooltip="MAD (programming language)" display="https://en.wikipedia.org/wiki/MAD_(programming_language)" xr:uid="{75A988A4-90B1-4F91-B093-7C52143F8CD4}"/>
-    <hyperlink ref="A345" r:id="rId344" tooltip="Magik (programming language)" display="https://en.wikipedia.org/wiki/Magik_(programming_language)" xr:uid="{0BC1EEA7-CD6C-4F1E-817F-8D910D047D07}"/>
-    <hyperlink ref="A346" r:id="rId345" tooltip="Magma computer algebra system" display="https://en.wikipedia.org/wiki/Magma_computer_algebra_system" xr:uid="{DC6C3774-11E8-4D06-B18E-70C64C3BE4F1}"/>
-    <hyperlink ref="A347" r:id="rId346" tooltip="Máni" display="https://en.wikipedia.org/wiki/M%C3%A1ni" xr:uid="{BEE6B54E-78B4-40D4-8377-D313D0611232}"/>
-    <hyperlink ref="A348" r:id="rId347" tooltip="Maple (software)" display="https://en.wikipedia.org/wiki/Maple_(software)" xr:uid="{E0601AC5-2978-4A2D-A9CD-1A39DBCD8612}"/>
-    <hyperlink ref="A349" r:id="rId348" tooltip="MAPPER" display="https://en.wikipedia.org/wiki/MAPPER" xr:uid="{FBFF8738-6682-4B4B-9381-B18380CAFD98}"/>
-    <hyperlink ref="A350" r:id="rId349" tooltip="MARK IV (software)" display="https://en.wikipedia.org/wiki/MARK_IV_(software)" xr:uid="{0B277979-38FE-4C47-9091-65C7862A53D8}"/>
-    <hyperlink ref="A351" r:id="rId350" tooltip="Mary (programming language)" display="https://en.wikipedia.org/wiki/Mary_(programming_language)" xr:uid="{8E4A8F01-CED4-4384-8E86-2F853D298761}"/>
-    <hyperlink ref="A352" r:id="rId351" tooltip="MATLAB" display="https://en.wikipedia.org/wiki/MATLAB" xr:uid="{323890CD-5C11-49A9-B5C7-20174ED11032}"/>
-    <hyperlink ref="A353" r:id="rId352" tooltip="Microsoft Macro Assembler" display="https://en.wikipedia.org/wiki/Microsoft_Macro_Assembler" xr:uid="{438DFBE7-8A3B-499F-AF20-14249E4F4CD3}"/>
-    <hyperlink ref="A354" r:id="rId353" tooltip="MATH-MATIC" display="https://en.wikipedia.org/wiki/MATH-MATIC" xr:uid="{12058E5E-78C2-4037-890C-0095DC06B95D}"/>
-    <hyperlink ref="A355" r:id="rId354" tooltip="Maude system" display="https://en.wikipedia.org/wiki/Maude_system" xr:uid="{EEAAEF50-4E81-4DBB-A8B1-F78AC3C943AC}"/>
-    <hyperlink ref="A357" r:id="rId355" tooltip="Max (software)" display="https://en.wikipedia.org/wiki/Max_(software)" xr:uid="{E5B59C6C-6B82-441D-88BE-AB408F77E94C}"/>
-    <hyperlink ref="A358" r:id="rId356" tooltip="Autodesk 3ds Max" display="https://en.wikipedia.org/wiki/Autodesk_3ds_Max" xr:uid="{1C537B4E-914A-41AF-B82C-5FA86662DE38}"/>
-    <hyperlink ref="A359" r:id="rId357" tooltip="Maya Embedded Language" display="https://en.wikipedia.org/wiki/Maya_Embedded_Language" xr:uid="{CE7076A9-49D2-47D8-93AC-0F5D34650759}"/>
-    <hyperlink ref="A360" r:id="rId358" tooltip="MDL (programming language)" display="https://en.wikipedia.org/wiki/MDL_(programming_language)" xr:uid="{DEBBA858-0C02-4630-A846-43877DB4C98C}"/>
-    <hyperlink ref="A361" r:id="rId359" tooltip="Mercury (programming language)" display="https://en.wikipedia.org/wiki/Mercury_(programming_language)" xr:uid="{3C180F28-0604-4B0A-80D2-3ACFA8FB70C9}"/>
-    <hyperlink ref="A362" r:id="rId360" tooltip="Mesa (programming language)" display="https://en.wikipedia.org/wiki/Mesa_(programming_language)" xr:uid="{685ED57D-EC7D-4408-A92C-C04C8398AA2B}"/>
-    <hyperlink ref="A363" r:id="rId361" tooltip="MHEG-5" display="https://en.wikipedia.org/wiki/MHEG-5" xr:uid="{F8F5F663-F7EB-46DE-BCC4-9704C9C76DEE}"/>
-    <hyperlink ref="A364" r:id="rId362" tooltip="Microassembler" display="https://en.wikipedia.org/wiki/Microassembler" xr:uid="{2601976C-FE27-4E2F-8CF0-0D22D0CD9D64}"/>
-    <hyperlink ref="A365" r:id="rId363" tooltip="Microsoft Power Fx" display="https://en.wikipedia.org/wiki/Microsoft_Power_Fx" xr:uid="{608304A6-8B26-4B48-B889-037DF3653D22}"/>
-    <hyperlink ref="A366" r:id="rId364" tooltip="MIIS (programming language)" display="https://en.wikipedia.org/wiki/MIIS_(programming_language)" xr:uid="{D7D413C3-5563-4AE3-95A3-FC82DC6C0516}"/>
-    <hyperlink ref="A367" r:id="rId365" tooltip="MIMIC" display="https://en.wikipedia.org/wiki/MIMIC" xr:uid="{171676D9-04DD-4BDE-8FCF-795383152640}"/>
-    <hyperlink ref="A368" r:id="rId366" tooltip="Mirah (programming language)" display="https://en.wikipedia.org/wiki/Mirah_(programming_language)" xr:uid="{5F295805-E26B-4B9F-B6D7-54F1C93FF44B}"/>
-    <hyperlink ref="A369" r:id="rId367" tooltip="Miranda (programming language)" display="https://en.wikipedia.org/wiki/Miranda_(programming_language)" xr:uid="{D35E5B5F-393C-4FC9-A181-045EB6DD0952}"/>
-    <hyperlink ref="A370" r:id="rId368" tooltip="MIVA Script" display="https://en.wikipedia.org/wiki/MIVA_Script" xr:uid="{A202973F-DA79-4DE7-A050-2C9879243C43}"/>
-    <hyperlink ref="A371" r:id="rId369" tooltip="ML (programming language)" display="https://en.wikipedia.org/wiki/ML_(programming_language)" xr:uid="{F83D6C92-D361-4359-8B1C-AEA070E06CFF}"/>
-    <hyperlink ref="A372" r:id="rId370" tooltip="Model 204" display="https://en.wikipedia.org/wiki/Model_204" xr:uid="{D9AC18F9-E08A-4057-AA92-7858B16259B2}"/>
-    <hyperlink ref="A373" r:id="rId371" tooltip="Modelica" display="https://en.wikipedia.org/wiki/Modelica" xr:uid="{419D4447-4F67-42FB-A835-E1D4F5B584F2}"/>
-    <hyperlink ref="A374" r:id="rId372" tooltip="Malbolge" display="https://en.wikipedia.org/wiki/Malbolge" xr:uid="{8DD21620-A33A-4806-93EE-B0D1F61E25FB}"/>
-    <hyperlink ref="A375" r:id="rId373" tooltip="Modula" display="https://en.wikipedia.org/wiki/Modula" xr:uid="{655499BB-9B7D-4CB4-B927-E55B820B2900}"/>
-    <hyperlink ref="A376" r:id="rId374" tooltip="Modula-2" display="https://en.wikipedia.org/wiki/Modula-2" xr:uid="{DF42135E-AB1A-4180-ABE2-996237D6C40F}"/>
-    <hyperlink ref="A377" r:id="rId375" tooltip="Modula-3" display="https://en.wikipedia.org/wiki/Modula-3" xr:uid="{E89B49EF-35E8-4A52-831E-BC4D8EAAE3DF}"/>
-    <hyperlink ref="A378" r:id="rId376" tooltip="Mohol programming languages" display="https://en.wikipedia.org/wiki/Mohol_programming_languages" xr:uid="{EA347FC7-72FD-40C3-9411-9BA9EF5C4F3A}"/>
-    <hyperlink ref="A379" r:id="rId377" tooltip="MOO (programming language)" display="https://en.wikipedia.org/wiki/MOO_(programming_language)" xr:uid="{04AF088B-0AFF-45F8-B415-83622F892C70}"/>
-    <hyperlink ref="A380" r:id="rId378" tooltip="Mortran" display="https://en.wikipedia.org/wiki/Mortran" xr:uid="{1E460ECF-7B77-4BE8-A480-E7D18BA06B2C}"/>
-    <hyperlink ref="A381" r:id="rId379" tooltip="Mouse (programming language)" display="https://en.wikipedia.org/wiki/Mouse_(programming_language)" xr:uid="{8833AAC8-5AC1-46ED-8E06-680356C5EA98}"/>
-    <hyperlink ref="A382" r:id="rId380" tooltip="MPD (programming language)" display="https://en.wikipedia.org/wiki/MPD_(programming_language)" xr:uid="{ACB691B9-FA57-4D54-A28D-CDB85B4AB6D0}"/>
-    <hyperlink ref="A383" r:id="rId381" tooltip="MIRC scripting language" display="https://en.wikipedia.org/wiki/MIRC_scripting_language" xr:uid="{ED6D675F-5B10-406E-8D41-3BF94C03B03D}"/>
-    <hyperlink ref="A384" r:id="rId382" tooltip="MUMPS" display="https://en.wikipedia.org/wiki/MUMPS" xr:uid="{636CF18C-0383-465E-9730-EE07EAD75FFF}"/>
-    <hyperlink ref="A385" r:id="rId383" tooltip="MuPAD" display="https://en.wikipedia.org/wiki/MuPAD" xr:uid="{FA6A8A09-74D9-4648-A004-FADF6D1522EC}"/>
-    <hyperlink ref="A386" r:id="rId384" location="Programming_languages" tooltip="Ethereum" display="https://en.wikipedia.org/wiki/Ethereum - Programming_languages" xr:uid="{7B342E90-5C40-4D2F-A3DB-817614B30832}"/>
-    <hyperlink ref="A387" r:id="rId385" tooltip="Mystic BBS" display="https://en.wikipedia.org/wiki/Mystic_BBS" xr:uid="{081C27D7-AE41-41BF-809F-D87B3B858886}"/>
-    <hyperlink ref="A388" r:id="rId386" tooltip="Netwide Assembler" display="https://en.wikipedia.org/wiki/Netwide_Assembler" xr:uid="{5D99FAFA-E18D-4D35-9525-72055A11E6A7}"/>
-    <hyperlink ref="A389" r:id="rId387" tooltip="Napier88" display="https://en.wikipedia.org/wiki/Napier88" xr:uid="{918A4F03-B76D-4A74-812C-D5CFF1CC6FEB}"/>
-    <hyperlink ref="A390" r:id="rId388" tooltip="Neko (programming language)" display="https://en.wikipedia.org/wiki/Neko_(programming_language)" xr:uid="{127401E4-F1FD-4372-A9AB-9E3A9619F2B7}"/>
-    <hyperlink ref="A391" r:id="rId389" tooltip="Nemerle" display="https://en.wikipedia.org/wiki/Nemerle" xr:uid="{5505E0FA-6C29-43EE-B05F-9D80A642E119}"/>
-    <hyperlink ref="A392" r:id="rId390" tooltip="NESL" display="https://en.wikipedia.org/wiki/NESL" xr:uid="{5A9DC6E0-351F-474A-82F4-18275C55591F}"/>
-    <hyperlink ref="A393" r:id="rId391" tooltip="Net.Data" display="https://en.wikipedia.org/wiki/Net.Data" xr:uid="{CBF90A40-F637-4D2B-85EF-6857B3481CE4}"/>
-    <hyperlink ref="A394" r:id="rId392" tooltip="NetLogo" display="https://en.wikipedia.org/wiki/NetLogo" xr:uid="{9B2CBFE7-109E-4A3C-8EBA-CE545F159EA3}"/>
-    <hyperlink ref="A395" r:id="rId393" tooltip="NetRexx" display="https://en.wikipedia.org/wiki/NetRexx" xr:uid="{166A0F37-28FB-45A0-9CF5-CCA4F39E6F16}"/>
-    <hyperlink ref="A396" r:id="rId394" tooltip="NewLISP" display="https://en.wikipedia.org/wiki/NewLISP" xr:uid="{ED4A45D9-F08E-4964-A317-2A6038D37D2C}"/>
-    <hyperlink ref="A397" r:id="rId395" tooltip="NEWP" display="https://en.wikipedia.org/wiki/NEWP" xr:uid="{DB315252-B323-41F2-82F5-B273AE64BE4D}"/>
-    <hyperlink ref="A398" r:id="rId396" tooltip="Newspeak (programming language)" display="https://en.wikipedia.org/wiki/Newspeak_(programming_language)" xr:uid="{130E6B59-76FC-49ED-B3B2-4E228B0386D7}"/>
-    <hyperlink ref="A399" r:id="rId397" tooltip="NewtonScript" display="https://en.wikipedia.org/wiki/NewtonScript" xr:uid="{1E935EA0-C64D-4698-A35C-F1619CB0D101}"/>
-    <hyperlink ref="A400" r:id="rId398" tooltip="Nial" display="https://en.wikipedia.org/wiki/Nial" xr:uid="{3A26695E-577B-4A2A-AFDD-D8A3D76A23F6}"/>
-    <hyperlink ref="A402" r:id="rId399" tooltip="Nim (programming language)" display="https://en.wikipedia.org/wiki/Nim_(programming_language)" xr:uid="{C7144BBE-0527-456B-8A40-8BF79A3CDA2A}"/>
-    <hyperlink ref="A403" r:id="rId400" tooltip="Nix package manager" display="https://en.wikipedia.org/wiki/Nix_package_manager" xr:uid="{C1093214-BAE4-4D26-B773-04CDB9D47697}"/>
-    <hyperlink ref="A404" r:id="rId401" tooltip="NORD Programming Language" display="https://en.wikipedia.org/wiki/NORD_Programming_Language" xr:uid="{836D891A-242C-413F-8D6D-9877D9C96843}"/>
-    <hyperlink ref="A405" r:id="rId402" tooltip="Not eXactly C" display="https://en.wikipedia.org/wiki/Not_eXactly_C" xr:uid="{942E648A-E1C4-437B-874B-83083AFAEB06}"/>
-    <hyperlink ref="A406" r:id="rId403" tooltip="Not Quite C" display="https://en.wikipedia.org/wiki/Not_Quite_C" xr:uid="{F032F761-1168-4BDD-883F-374A3DB5B7B8}"/>
-    <hyperlink ref="A407" r:id="rId404" tooltip="Nullsoft Scriptable Install System" display="https://en.wikipedia.org/wiki/Nullsoft_Scriptable_Install_System" xr:uid="{AE01A0C4-98B3-4697-A649-505D17D59639}"/>
-    <hyperlink ref="A408" r:id="rId405" tooltip="Nu (programming language)" display="https://en.wikipedia.org/wiki/Nu_(programming_language)" xr:uid="{25ED6306-C473-4C25-8B2D-EBC2F19D1A86}"/>
-    <hyperlink ref="A409" r:id="rId406" tooltip="NWScript" display="https://en.wikipedia.org/wiki/NWScript" xr:uid="{6A1713AB-B00C-477D-9E7F-4332C76017A1}"/>
-    <hyperlink ref="A410" r:id="rId407" tooltip="NXT-G" display="https://en.wikipedia.org/wiki/NXT-G" xr:uid="{07D9AF7A-19C9-458D-8EA2-0282BB959C35}"/>
-    <hyperlink ref="A411" r:id="rId408" tooltip="O:XML" display="https://en.wikipedia.org/wiki/O:XML" xr:uid="{79E1C1B6-3875-4044-A7F8-6014E5933CD6}"/>
-    <hyperlink ref="A412" r:id="rId409" tooltip="Oak (programming language)" display="https://en.wikipedia.org/wiki/Oak_(programming_language)" xr:uid="{F25550D2-B28D-459F-8BE6-AD2FE393F147}"/>
-    <hyperlink ref="A413" r:id="rId410" tooltip="Oberon (programming language)" display="https://en.wikipedia.org/wiki/Oberon_(programming_language)" xr:uid="{91E80FB3-F1FF-499C-BCD6-0457029E08F3}"/>
-    <hyperlink ref="A414" r:id="rId411" tooltip="OBJ2" display="https://en.wikipedia.org/wiki/OBJ2" xr:uid="{60C97598-9E05-49BF-BB37-048340A1681E}"/>
-    <hyperlink ref="A415" r:id="rId412" tooltip="Object Lisp" display="https://en.wikipedia.org/wiki/Object_Lisp" xr:uid="{50BAB5D2-959F-42ED-A722-EC87AC8A7AB4}"/>
-    <hyperlink ref="A416" r:id="rId413" tooltip="ObjectLOGO" display="https://en.wikipedia.org/wiki/ObjectLOGO" xr:uid="{A419E56F-0792-4A51-A97C-AB4CA5AC1542}"/>
-    <hyperlink ref="A417" r:id="rId414" tooltip="Object REXX" display="https://en.wikipedia.org/wiki/Object_REXX" xr:uid="{9626A2FC-A9CD-4FFE-BC59-F45B10B0F04A}"/>
-    <hyperlink ref="A418" r:id="rId415" tooltip="Object Pascal" display="https://en.wikipedia.org/wiki/Object_Pascal" xr:uid="{A17D415A-4F81-4698-A290-DF9858051A15}"/>
-    <hyperlink ref="A419" r:id="rId416" tooltip="Objective-C" display="https://en.wikipedia.org/wiki/Objective-C" xr:uid="{0A8F41C0-4549-4F8C-829F-47B99F46EE7B}"/>
-    <hyperlink ref="A420" r:id="rId417" tooltip="Obliq" display="https://en.wikipedia.org/wiki/Obliq" xr:uid="{ED43CE1B-BD0B-4201-8DD5-A5C2E1525BEF}"/>
-    <hyperlink ref="A421" r:id="rId418" tooltip="OCaml" display="https://en.wikipedia.org/wiki/OCaml" xr:uid="{AD1B9084-383E-4742-B1F8-AA687B61BA01}"/>
-    <hyperlink ref="A422" r:id="rId419" tooltip="Occam (programming language)" display="https://en.wikipedia.org/wiki/Occam_(programming_language)" xr:uid="{93627A2D-4BC6-4ACA-8947-9E405D7E4E1C}"/>
-    <hyperlink ref="A423" r:id="rId420" tooltip="Occam-π" display="https://en.wikipedia.org/wiki/Occam-%CF%80" xr:uid="{93F3B91A-4E8D-47B0-8B48-21DA4276A4AF}"/>
-    <hyperlink ref="A424" r:id="rId421" tooltip="GNU Octave" display="https://en.wikipedia.org/wiki/GNU_Octave" xr:uid="{A76D415F-6709-42F2-A4A1-9057819AE842}"/>
-    <hyperlink ref="A425" r:id="rId422" tooltip="OmniMark" display="https://en.wikipedia.org/wiki/OmniMark" xr:uid="{A60ADF38-79C0-49E8-B087-8D26F5A36C11}"/>
-    <hyperlink ref="A426" r:id="rId423" tooltip="Opa (programming language)" display="https://en.wikipedia.org/wiki/Opa_(programming_language)" xr:uid="{1DABB1E8-8D01-481D-A295-EA6F9609ABB6}"/>
-    <hyperlink ref="A427" r:id="rId424" tooltip="Opal (programming language)" display="https://en.wikipedia.org/wiki/Opal_(programming_language)" xr:uid="{8C12D5E2-45BF-4707-8ED3-DC7559A17B71}"/>
-    <hyperlink ref="A428" r:id="rId425" tooltip="Open Programming Language" display="https://en.wikipedia.org/wiki/Open_Programming_Language" xr:uid="{8A9BF970-A426-459A-9EC9-F4A59E1DF3EB}"/>
-    <hyperlink ref="A429" r:id="rId426" tooltip="OpenCL" display="https://en.wikipedia.org/wiki/OpenCL" xr:uid="{BFE3557E-E1BC-47E8-918C-EA830703D24B}"/>
-    <hyperlink ref="A430" r:id="rId427" tooltip="OpenEdge Advanced Business Language" display="https://en.wikipedia.org/wiki/OpenEdge_Advanced_Business_Language" xr:uid="{CB63B384-FD2D-4DCB-A7FE-6BDCF5E5BE1E}"/>
-    <hyperlink ref="A431" r:id="rId428" tooltip="OpenVera" display="https://en.wikipedia.org/wiki/OpenVera" xr:uid="{60966F19-204C-4D8D-B8EC-F287BB98E10C}"/>
-    <hyperlink ref="A432" r:id="rId429" tooltip="OpenQASM" display="https://en.wikipedia.org/wiki/OpenQASM" xr:uid="{162BDD34-B33F-41D6-B6D6-9387324F5522}"/>
-    <hyperlink ref="A433" r:id="rId430" tooltip="OPS5" display="https://en.wikipedia.org/wiki/OPS5" xr:uid="{85CCE69A-5E55-4085-AEF9-95FC6912F646}"/>
-    <hyperlink ref="A434" r:id="rId431" tooltip="OptimJ" display="https://en.wikipedia.org/wiki/OptimJ" xr:uid="{4257DB03-78FE-4EAB-9ACB-A452B79FB990}"/>
-    <hyperlink ref="A435" r:id="rId432" tooltip="Orc (programming language)" display="https://en.wikipedia.org/wiki/Orc_(programming_language)" xr:uid="{2E03C08B-5046-4F9E-9074-2D51ADAAE74E}"/>
-    <hyperlink ref="A436" r:id="rId433" tooltip="ORCA/Modula-2" display="https://en.wikipedia.org/wiki/ORCA/Modula-2" xr:uid="{BD27C5AE-2746-4E89-845C-938C84EE81BB}"/>
-    <hyperlink ref="A437" r:id="rId434" tooltip="Oriel (scripting language)" display="https://en.wikipedia.org/wiki/Oriel_(scripting_language)" xr:uid="{8FFABE5F-F0E4-44BB-93E4-F45B3A6D098F}"/>
-    <hyperlink ref="A438" r:id="rId435" tooltip="Orwell (programming language)" display="https://en.wikipedia.org/wiki/Orwell_(programming_language)" xr:uid="{174997C8-1146-4A95-90CC-170C30556B9A}"/>
-    <hyperlink ref="A439" r:id="rId436" tooltip="Oxygene (programming language)" display="https://en.wikipedia.org/wiki/Oxygene_(programming_language)" xr:uid="{34907510-3634-48D8-BE63-1C6B94E1F7EF}"/>
-    <hyperlink ref="A440" r:id="rId437" tooltip="Oz (programming language)" display="https://en.wikipedia.org/wiki/Oz_(programming_language)" xr:uid="{32541E47-F4C9-42AA-AC8C-148E75919BE3}"/>
-    <hyperlink ref="A441" r:id="rId438" tooltip="P4 (programming language)" display="https://en.wikipedia.org/wiki/P4_(programming_language)" xr:uid="{5BF6BFA1-9043-4F77-A694-4A0806D69211}"/>
-    <hyperlink ref="A442" r:id="rId439" tooltip="P′′" display="https://en.wikipedia.org/wiki/P%E2%80%B2%E2%80%B2" xr:uid="{5761B359-0FAC-4C96-A07F-F1FAC1854946}"/>
-    <hyperlink ref="A443" r:id="rId440" tooltip="ParaSail (programming language)" display="https://en.wikipedia.org/wiki/ParaSail_(programming_language)" xr:uid="{ACF2EC26-C8FA-46B9-BED7-22C6098B9468}"/>
-    <hyperlink ref="A444" r:id="rId441" tooltip="PARI/GP" display="https://en.wikipedia.org/wiki/PARI/GP" xr:uid="{AA2CF69C-01E7-48C1-BA2B-B6AFEDFD24DF}"/>
-    <hyperlink ref="A445" r:id="rId442" tooltip="Pascal (programming language)" display="https://en.wikipedia.org/wiki/Pascal_(programming_language)" xr:uid="{07BCBD30-1CDC-4E23-9E50-ACFD6C8A9494}"/>
-    <hyperlink ref="A446" r:id="rId443" tooltip="Pascal Script" display="https://en.wikipedia.org/wiki/Pascal_Script" xr:uid="{15D3E135-73BC-49B6-8D38-F31AA9B53144}"/>
-    <hyperlink ref="A447" r:id="rId444" tooltip="PCASTL" display="https://en.wikipedia.org/wiki/PCASTL" xr:uid="{72BE97F1-6195-4CC4-A2D7-E271D0D50AB7}"/>
-    <hyperlink ref="A448" r:id="rId445" tooltip="Programming language for Computable Functions" display="https://en.wikipedia.org/wiki/Programming_language_for_Computable_Functions" xr:uid="{357C0215-DB8A-4BB5-B19A-3057925937F1}"/>
-    <hyperlink ref="A449" r:id="rId446" tooltip="PEARL (programming language)" display="https://en.wikipedia.org/wiki/PEARL_(programming_language)" xr:uid="{3F553951-AB64-46DE-BD30-8144DC08A7F2}"/>
-    <hyperlink ref="A450" r:id="rId447" tooltip="PeopleCode" display="https://en.wikipedia.org/wiki/PeopleCode" xr:uid="{7E73B093-82DB-44C6-B6EB-522497D665B0}"/>
-    <hyperlink ref="A451" r:id="rId448" tooltip="Perl" display="https://en.wikipedia.org/wiki/Perl" xr:uid="{1218EF02-4F31-4DCF-822A-839D2CB8501C}"/>
-    <hyperlink ref="A452" r:id="rId449" tooltip="Perl Data Language" display="https://en.wikipedia.org/wiki/Perl_Data_Language" xr:uid="{30D39D42-7F05-4D38-9FF7-D107A26C869F}"/>
-    <hyperlink ref="A453" r:id="rId450" tooltip="Pharo" display="https://en.wikipedia.org/wiki/Pharo" xr:uid="{4FF5A647-FA08-4F33-82FD-206DA989CECC}"/>
-    <hyperlink ref="A454" r:id="rId451" tooltip="PHP" display="https://en.wikipedia.org/wiki/PHP" xr:uid="{0D3228D0-CC5E-42AE-BFC5-E3FD887DB3B6}"/>
-    <hyperlink ref="A455" r:id="rId452" tooltip="Pico (programming language)" display="https://en.wikipedia.org/wiki/Pico_(programming_language)" xr:uid="{4CC1ADD0-2F3C-40C0-8DBF-0805A9AAF24C}"/>
-    <hyperlink ref="A456" r:id="rId453" tooltip="Picolisp" display="https://en.wikipedia.org/wiki/Picolisp" xr:uid="{B5036B39-3C96-41E0-A987-2F851B15E01C}"/>
-    <hyperlink ref="A457" r:id="rId454" tooltip="Pict (programming language)" display="https://en.wikipedia.org/wiki/Pict_(programming_language)" xr:uid="{B9E2A053-B78A-4002-AA90-30BEA9ED2EEE}"/>
-    <hyperlink ref="A458" r:id="rId455" tooltip="Pike (programming language)" display="https://en.wikipedia.org/wiki/Pike_(programming_language)" xr:uid="{0B8BEA17-40E4-4135-93D2-96E42A63A2C3}"/>
-    <hyperlink ref="A459" r:id="rId456" tooltip="PILOT" display="https://en.wikipedia.org/wiki/PILOT" xr:uid="{8FD90490-342C-43C7-9F45-72524AEB1D3F}"/>
-    <hyperlink ref="A460" r:id="rId457" tooltip="Hartmann pipeline" display="https://en.wikipedia.org/wiki/Hartmann_pipeline" xr:uid="{19442F83-8D95-4E74-B7AE-F036DB5DCEB3}"/>
-    <hyperlink ref="A461" r:id="rId458" tooltip="Pizza (programming language)" display="https://en.wikipedia.org/wiki/Pizza_(programming_language)" xr:uid="{3FCEF34F-675E-470B-ABA5-DDA2DB5FED17}"/>
-    <hyperlink ref="A462" r:id="rId459" tooltip="PL-11" display="https://en.wikipedia.org/wiki/PL-11" xr:uid="{30C4758E-9311-4C30-B158-CA95073E124B}"/>
-    <hyperlink ref="A463" r:id="rId460" tooltip="PL/0" display="https://en.wikipedia.org/wiki/PL/0" xr:uid="{97DCB97D-CCF2-4FED-A3D4-BBB4E948A0E9}"/>
-    <hyperlink ref="A464" r:id="rId461" tooltip="Programming Language for Business" display="https://en.wikipedia.org/wiki/Programming_Language_for_Business" xr:uid="{D4E6A575-E809-445F-B456-E2672D957490}"/>
-    <hyperlink ref="A465" r:id="rId462" tooltip="PL/C" display="https://en.wikipedia.org/wiki/PL/C" xr:uid="{D4ABAE52-6DF7-4EE8-965C-BEBF9877F74B}"/>
-    <hyperlink ref="A466" r:id="rId463" tooltip="PL/I" display="https://en.wikipedia.org/wiki/PL/I" xr:uid="{2B8D2212-C896-463F-BAB4-B4FCEE976C15}"/>
-    <hyperlink ref="A467" r:id="rId464" tooltip="PL/M" display="https://en.wikipedia.org/wiki/PL/M" xr:uid="{49EC94CE-E6B4-493A-B914-51FCC2E6A97F}"/>
-    <hyperlink ref="A468" r:id="rId465" tooltip="PL/P" display="https://en.wikipedia.org/wiki/PL/P" xr:uid="{0961CF78-F1A8-4DF7-A4E1-B61BD42A4A8C}"/>
-    <hyperlink ref="A469" r:id="rId466" tooltip="PL/S" display="https://en.wikipedia.org/wiki/PL/S" xr:uid="{230530AD-10FE-4718-AF7D-03CD1A6CC122}"/>
-    <hyperlink ref="A470" r:id="rId467" tooltip="PL/SQL" display="https://en.wikipedia.org/wiki/PL/SQL" xr:uid="{CCF0EDBF-2299-46BC-99D9-2919CE21F847}"/>
-    <hyperlink ref="A471" r:id="rId468" tooltip="PL360" display="https://en.wikipedia.org/wiki/PL360" xr:uid="{858A6D53-7D80-42C4-B54A-E23948C60895}"/>
-    <hyperlink ref="A472" r:id="rId469" tooltip="PLANC" display="https://en.wikipedia.org/wiki/PLANC" xr:uid="{29FEEF13-68DC-4B3B-9A2F-5752091F5898}"/>
-    <hyperlink ref="A473" r:id="rId470" tooltip="Plankalkül" display="https://en.wikipedia.org/wiki/Plankalk%C3%BCl" xr:uid="{DC3CF7EA-BF10-45D2-9F01-F8C7AC2D5419}"/>
-    <hyperlink ref="A474" r:id="rId471" tooltip="Planner (programming language)" display="https://en.wikipedia.org/wiki/Planner_(programming_language)" xr:uid="{DD92342C-6E20-4AE4-992C-2668CF317616}"/>
-    <hyperlink ref="A475" r:id="rId472" tooltip="PLEX (programming language)" display="https://en.wikipedia.org/wiki/PLEX_(programming_language)" xr:uid="{58821F2D-0998-40E3-9FE7-1F2F95574CF4}"/>
-    <hyperlink ref="A476" r:id="rId473" tooltip="PLEXIL" display="https://en.wikipedia.org/wiki/PLEXIL" xr:uid="{CFFDE76C-4185-4E17-B25B-E081398C9697}"/>
-    <hyperlink ref="A477" r:id="rId474" tooltip="Plus (programming language)" display="https://en.wikipedia.org/wiki/Plus_(programming_language)" xr:uid="{0BB3B306-EAFF-42B8-A9F4-FDE05C6794F0}"/>
-    <hyperlink ref="A478" r:id="rId475" tooltip="POP-11" display="https://en.wikipedia.org/wiki/POP-11" xr:uid="{7E090F48-E464-484C-971B-42632F696304}"/>
-    <hyperlink ref="A479" r:id="rId476" tooltip="POP-2" display="https://en.wikipedia.org/wiki/POP-2" xr:uid="{4D100132-4AE2-4FEA-B979-8F4CE9042927}"/>
-    <hyperlink ref="A480" r:id="rId477" tooltip="PostScript" display="https://en.wikipedia.org/wiki/PostScript" xr:uid="{68C914DA-7047-4DF2-B316-6A89CC072A5C}"/>
-    <hyperlink ref="A481" r:id="rId478" location="PortablE" tooltip="Amiga E" display="https://en.wikipedia.org/wiki/Amiga_E - PortablE" xr:uid="{91164A05-5548-4740-A9E7-429102312DA7}"/>
-    <hyperlink ref="A482" r:id="rId479" tooltip="POV-Ray" display="https://en.wikipedia.org/wiki/POV-Ray" xr:uid="{05B451AB-1FD5-4C74-B72A-B1314C033207}"/>
-    <hyperlink ref="A483" r:id="rId480" tooltip="Powerhouse (programming language)" display="https://en.wikipedia.org/wiki/Powerhouse_(programming_language)" xr:uid="{19ED255A-906A-4683-B777-B791C82DE42A}"/>
-    <hyperlink ref="A484" r:id="rId481" tooltip="PowerBuilder" display="https://en.wikipedia.org/wiki/PowerBuilder" xr:uid="{453A6338-4988-4C59-9563-748AB19053DF}"/>
-    <hyperlink ref="A485" r:id="rId482" tooltip="PowerShell" display="https://en.wikipedia.org/wiki/PowerShell" xr:uid="{19F63BD0-71CC-4C8C-9AB8-F551CA75E7F4}"/>
-    <hyperlink ref="A486" r:id="rId483" tooltip="Polymorphic Programming Language" display="https://en.wikipedia.org/wiki/Polymorphic_Programming_Language" xr:uid="{D9E3A938-EC48-49C8-9943-28DBF9BE28DF}"/>
-    <hyperlink ref="A487" r:id="rId484" tooltip="Processing (programming language)" display="https://en.wikipedia.org/wiki/Processing_(programming_language)" xr:uid="{CAB8D8E5-FA39-4AFE-8C21-599C0C3ED58B}"/>
-    <hyperlink ref="A488" r:id="rId485" tooltip="Processing.js" display="https://en.wikipedia.org/wiki/Processing.js" xr:uid="{15F12CE4-EF94-41AE-9C2B-9B9E7B751763}"/>
-    <hyperlink ref="A489" r:id="rId486" tooltip="Prograph" display="https://en.wikipedia.org/wiki/Prograph" xr:uid="{FBAFE54B-8F61-4DD3-9715-BF525C5DCBE0}"/>
-    <hyperlink ref="A490" r:id="rId487" tooltip="Project Verona" display="https://en.wikipedia.org/wiki/Project_Verona" xr:uid="{814D218F-AC0C-4FF1-B4DF-22692F680BF3}"/>
-    <hyperlink ref="A491" r:id="rId488" tooltip="Prolog" display="https://en.wikipedia.org/wiki/Prolog" xr:uid="{D0039BCB-8DF3-4186-8B7D-382E05315D5F}"/>
-    <hyperlink ref="A492" r:id="rId489" tooltip="PROMAL" display="https://en.wikipedia.org/wiki/PROMAL" xr:uid="{8CC6CC0C-CB9B-47E5-9973-EE0897BBCC6A}"/>
-    <hyperlink ref="A493" r:id="rId490" tooltip="Promela" display="https://en.wikipedia.org/wiki/Promela" xr:uid="{985D3084-2491-4C1A-B12B-B7D2B0CCADB1}"/>
-    <hyperlink ref="A494" r:id="rId491" tooltip="PROSE modeling language" display="https://en.wikipedia.org/wiki/PROSE_modeling_language" xr:uid="{A2D953BF-6AA6-482C-8587-A4D220D2F373}"/>
-    <hyperlink ref="A495" r:id="rId492" tooltip="Protel" display="https://en.wikipedia.org/wiki/Protel" xr:uid="{0F6619B0-473C-4A92-BFB3-48BEE97CC81F}"/>
-    <hyperlink ref="A496" r:id="rId493" tooltip="ProvideX" display="https://en.wikipedia.org/wiki/ProvideX" xr:uid="{64E47F1A-565A-40CB-A11C-407322378918}"/>
-    <hyperlink ref="A497" r:id="rId494" tooltip="Pro*C" display="https://en.wikipedia.org/wiki/Pro*C" xr:uid="{557F1697-30AE-4DDB-BC83-55B5928948C0}"/>
-    <hyperlink ref="A498" r:id="rId495" tooltip="Pure (programming language)" display="https://en.wikipedia.org/wiki/Pure_(programming_language)" xr:uid="{59D0F91A-884A-4322-BCC4-17968C2FBC91}"/>
-    <hyperlink ref="A499" r:id="rId496" tooltip="Pure Data" display="https://en.wikipedia.org/wiki/Pure_Data" xr:uid="{2B481F16-07FA-4C4D-ADC6-B35C51DC6147}"/>
-    <hyperlink ref="A500" r:id="rId497" tooltip="PureScript" display="https://en.wikipedia.org/wiki/PureScript" xr:uid="{A416A406-1167-4DE7-A7CA-C02EB77F33AA}"/>
-    <hyperlink ref="A501" r:id="rId498" tooltip="PWCT" display="https://en.wikipedia.org/wiki/PWCT" xr:uid="{857C8CC2-2486-44EB-894E-60F6B69ECFAB}"/>
-    <hyperlink ref="A502" r:id="rId499" tooltip="Python (programming language)" display="https://en.wikipedia.org/wiki/Python_(programming_language)" xr:uid="{2C42EA30-CB1F-40F0-BF90-7CAC9322C6A1}"/>
-    <hyperlink ref="A503" r:id="rId500" tooltip="Q (programming language from Kx Systems)" display="https://en.wikipedia.org/wiki/Q_(programming_language_from_Kx_Systems)" xr:uid="{CEB82D4B-79AC-49E2-85A5-60306DA2EFBA}"/>
-    <hyperlink ref="A504" r:id="rId501" tooltip="Q Sharp" display="https://en.wikipedia.org/wiki/Q_Sharp" xr:uid="{2C634053-559C-41DF-8183-06F9B051E4E8}"/>
-    <hyperlink ref="A505" r:id="rId502" tooltip="Qalb (programming language)" display="https://en.wikipedia.org/wiki/Qalb_(programming_language)" xr:uid="{E6D27EF1-9B9A-4CCC-968B-4B8C13588FCE}"/>
-    <hyperlink ref="A506" r:id="rId503" tooltip="Quantum Computation Language" display="https://en.wikipedia.org/wiki/Quantum_Computation_Language" xr:uid="{196DB9DA-A929-4C52-8ED5-9A7AD240A3ED}"/>
-    <hyperlink ref="A507" r:id="rId504" tooltip="QtScript" display="https://en.wikipedia.org/wiki/QtScript" xr:uid="{B07D9AC7-CFEC-4C4F-BDC3-4BC4246C754A}"/>
-    <hyperlink ref="A508" r:id="rId505" tooltip="QuakeC" display="https://en.wikipedia.org/wiki/QuakeC" xr:uid="{FCA7CC1E-FFD3-4C13-8E2B-82E9C10862CA}"/>
-    <hyperlink ref="A509" r:id="rId506" tooltip="Quantum programming" display="https://en.wikipedia.org/wiki/Quantum_programming" xr:uid="{30D73E7A-5FC8-4711-AEF3-B75D3E208723}"/>
-    <hyperlink ref="A510" r:id="rId507" tooltip=".QL" display="https://en.wikipedia.org/wiki/.QL" xr:uid="{A2463C76-ED6D-4E55-9DCB-E708A7CF6BBD}"/>
-    <hyperlink ref="A511" r:id="rId508" tooltip="R (programming language)" display="https://en.wikipedia.org/wiki/R_(programming_language)" xr:uid="{5B8ABADB-81F5-4F2D-8825-CC8627978337}"/>
-    <hyperlink ref="A512" r:id="rId509" tooltip="R++" display="https://en.wikipedia.org/wiki/R%2B%2B" xr:uid="{0D6E8D6A-7CA1-4674-8436-152C6DA45AB0}"/>
-    <hyperlink ref="A513" r:id="rId510" tooltip="Racket (programming language)" display="https://en.wikipedia.org/wiki/Racket_(programming_language)" xr:uid="{E5772727-12CB-4B39-A296-F69A96A8A8E0}"/>
-    <hyperlink ref="A514" r:id="rId511" tooltip="Raku (programming language)" display="https://en.wikipedia.org/wiki/Raku_(programming_language)" xr:uid="{463583FA-C64D-4943-AF36-5E7BF4763E05}"/>
-    <hyperlink ref="A515" r:id="rId512" tooltip="RAPID" display="https://en.wikipedia.org/wiki/RAPID" xr:uid="{CC04F6E2-1575-40F1-974B-769D639A24BD}"/>
-    <hyperlink ref="A516" r:id="rId513" tooltip="Rapira" display="https://en.wikipedia.org/wiki/Rapira" xr:uid="{36E06B62-BE88-4C45-889B-FDDC8400D92D}"/>
-    <hyperlink ref="A517" r:id="rId514" tooltip="Ratfiv" display="https://en.wikipedia.org/wiki/Ratfiv" xr:uid="{33CA3F31-F6A7-419C-A092-E8FD8E9CDB5E}"/>
-    <hyperlink ref="A518" r:id="rId515" tooltip="Ratfor" display="https://en.wikipedia.org/wiki/Ratfor" xr:uid="{EDAA9004-CEF1-4780-AC68-787DB3139062}"/>
-    <hyperlink ref="A519" r:id="rId516" tooltip="Rc" display="https://en.wikipedia.org/wiki/Rc" xr:uid="{57277BF4-FD7F-4C33-96D5-F10B31D070AF}"/>
-    <hyperlink ref="A520" r:id="rId517" tooltip="Reason (programming language)" display="https://en.wikipedia.org/wiki/Reason_(programming_language)" xr:uid="{6F534942-6E77-406C-A558-C5E97A81455C}"/>
-    <hyperlink ref="A521" r:id="rId518" tooltip="REBOL" display="https://en.wikipedia.org/wiki/REBOL" xr:uid="{356CD2F5-B01D-4FCA-9E41-A90E33D1B5E7}"/>
-    <hyperlink ref="A522" r:id="rId519" tooltip="Red (programming language)" display="https://en.wikipedia.org/wiki/Red_(programming_language)" xr:uid="{41B4E50A-936B-40D3-AD2C-B0ECD94942E7}"/>
-    <hyperlink ref="A523" r:id="rId520" tooltip="Core War" display="https://en.wikipedia.org/wiki/Core_War" xr:uid="{D789E9AD-D856-401B-8C7A-3128DF84C584}"/>
-    <hyperlink ref="A524" r:id="rId521" tooltip="REFAL" display="https://en.wikipedia.org/wiki/REFAL" xr:uid="{0B07DE36-92C0-48CE-85FC-B056BAFE19C7}"/>
-    <hyperlink ref="A525" r:id="rId522" tooltip="REXX" display="https://en.wikipedia.org/wiki/REXX" xr:uid="{59A47DFC-C5D2-41AC-A33F-CBA1D6EDFDBA}"/>
-    <hyperlink ref="A526" r:id="rId523" tooltip="Ring (programming language)" display="https://en.wikipedia.org/wiki/Ring_(programming_language)" xr:uid="{96156886-55DB-4C43-AA86-18B184707500}"/>
-    <hyperlink ref="A527" r:id="rId524" tooltip="ROOP (programming language)" display="https://en.wikipedia.org/wiki/ROOP_(programming_language)" xr:uid="{2ECD655F-5A1B-41ED-8085-AF3ABEC74403}"/>
-    <hyperlink ref="A528" r:id="rId525" tooltip="IBM RPG" display="https://en.wikipedia.org/wiki/IBM_RPG" xr:uid="{EB97C09A-B145-4B85-A789-616A200189C8}"/>
-    <hyperlink ref="A529" r:id="rId526" tooltip="RPL (programming language)" display="https://en.wikipedia.org/wiki/RPL_(programming_language)" xr:uid="{74DC3931-8310-465D-BB80-A7EDEEAB5B2D}"/>
-    <hyperlink ref="A530" r:id="rId527" location="Robot_scripting_language" tooltip="Robot Battle" display="https://en.wikipedia.org/wiki/Robot_Battle - Robot_scripting_language" xr:uid="{051B9DDE-E2FE-4C1A-95FE-94D35978C2C0}"/>
-    <hyperlink ref="A531" r:id="rId528" tooltip="RTL/2" display="https://en.wikipedia.org/wiki/RTL/2" xr:uid="{9FA99D61-DCA7-483E-8368-E49659D1D621}"/>
-    <hyperlink ref="A532" r:id="rId529" tooltip="Ruby (programming language)" display="https://en.wikipedia.org/wiki/Ruby_(programming_language)" xr:uid="{A63C67D9-C046-45C7-A1BB-4B4880B56DAA}"/>
-    <hyperlink ref="A533" r:id="rId530" tooltip="Rust (programming language)" display="https://en.wikipedia.org/wiki/Rust_(programming_language)" xr:uid="{652B0673-3231-470E-A507-F3FBAA08BD6D}"/>
-    <hyperlink ref="A534" r:id="rId531" tooltip="S2 (programming language)" display="https://en.wikipedia.org/wiki/S2_(programming_language)" xr:uid="{DB6349B7-F557-4F48-904D-521DC02AD87C}"/>
-    <hyperlink ref="A535" r:id="rId532" tooltip="S3 (programming language)" display="https://en.wikipedia.org/wiki/S3_(programming_language)" xr:uid="{01DE48AE-1106-4A04-8398-63C7234FA6E4}"/>
-    <hyperlink ref="A536" r:id="rId533" tooltip="S-Lang (programming language)" display="https://en.wikipedia.org/wiki/S-Lang_(programming_language)" xr:uid="{AE85C335-8513-4B99-A2E5-51871816BD3F}"/>
-    <hyperlink ref="A537" r:id="rId534" tooltip="S-PLUS" display="https://en.wikipedia.org/wiki/S-PLUS" xr:uid="{21F00330-0614-43FB-B345-6C0BEFD16309}"/>
-    <hyperlink ref="A538" r:id="rId535" tooltip="SA-C (programming language)" display="https://en.wikipedia.org/wiki/SA-C_(programming_language)" xr:uid="{0B0452CC-F7C3-440B-A7D2-BEA19EFF4461}"/>
-    <hyperlink ref="A539" r:id="rId536" tooltip="SabreTalk" display="https://en.wikipedia.org/wiki/SabreTalk" xr:uid="{DD223AE3-D542-4645-9D34-CE35A8922665}"/>
-    <hyperlink ref="A540" r:id="rId537" tooltip="SAIL (programming language)" display="https://en.wikipedia.org/wiki/SAIL_(programming_language)" xr:uid="{4B04BD2C-7E96-44B2-96D1-54962B22DCD3}"/>
-    <hyperlink ref="A541" r:id="rId538" tooltip="SAKO (programming language)" display="https://en.wikipedia.org/wiki/SAKO_(programming_language)" xr:uid="{03C2C5C6-6F8B-45E9-8F6D-33DBF8AC706C}"/>
-    <hyperlink ref="A542" r:id="rId539" tooltip="SAS System" display="https://en.wikipedia.org/wiki/SAS_System" xr:uid="{A31DB0DE-2154-43CE-9C4E-BE14CD94232F}"/>
-    <hyperlink ref="A543" r:id="rId540" tooltip="SASL (programming language)" display="https://en.wikipedia.org/wiki/SASL_(programming_language)" xr:uid="{1F8B317D-FEEC-429F-ACB6-8FBF79C9A349}"/>
-    <hyperlink ref="A544" r:id="rId541" tooltip="Sather" display="https://en.wikipedia.org/wiki/Sather" xr:uid="{BF014DDF-2E14-42C8-A6F6-C428D9EAA898}"/>
-    <hyperlink ref="A545" r:id="rId542" tooltip="Sawzall (programming language)" display="https://en.wikipedia.org/wiki/Sawzall_(programming_language)" xr:uid="{AD5687D8-86B5-4BE7-9B1C-E75FE4360466}"/>
-    <hyperlink ref="A546" r:id="rId543" tooltip="Scala (programming language)" display="https://en.wikipedia.org/wiki/Scala_(programming_language)" xr:uid="{62847B1B-77FE-45E5-ADFE-55EC2FC4A42B}"/>
-    <hyperlink ref="A547" r:id="rId544" tooltip="Scheme (programming language)" display="https://en.wikipedia.org/wiki/Scheme_(programming_language)" xr:uid="{D60D4A9C-F8B3-4C6D-A580-2D9F00B16863}"/>
-    <hyperlink ref="A548" r:id="rId545" tooltip="Scilab" display="https://en.wikipedia.org/wiki/Scilab" xr:uid="{1E91B357-D2EC-4E05-A445-5BB02883F7C5}"/>
-    <hyperlink ref="A549" r:id="rId546" tooltip="Scratch (programming language)" display="https://en.wikipedia.org/wiki/Scratch_(programming_language)" xr:uid="{B0DF7191-7D37-4976-8D63-9A04098C7D53}"/>
-    <hyperlink ref="A550" r:id="rId547" tooltip="Script.NET" display="https://en.wikipedia.org/wiki/Script.NET" xr:uid="{903FF1A4-63DB-493C-9D66-F9B9799F1088}"/>
-    <hyperlink ref="A551" r:id="rId548" tooltip="Sed" display="https://en.wikipedia.org/wiki/Sed" xr:uid="{304619F5-C0CD-4D52-836E-5B5E81E8CFB2}"/>
-    <hyperlink ref="A552" r:id="rId549" tooltip="Seed7" display="https://en.wikipedia.org/wiki/Seed7" xr:uid="{D53D214E-B39A-4265-916B-0426E04E6E6C}"/>
-    <hyperlink ref="A553" r:id="rId550" tooltip="Self (programming language)" display="https://en.wikipedia.org/wiki/Self_(programming_language)" xr:uid="{059A6A3B-D84D-43EE-836A-6FA2E507B9C7}"/>
-    <hyperlink ref="A554" r:id="rId551" tooltip="SenseTalk" display="https://en.wikipedia.org/wiki/SenseTalk" xr:uid="{69572E9C-2F00-4518-990B-A2F764F1B937}"/>
-    <hyperlink ref="A555" r:id="rId552" tooltip="SequenceL" display="https://en.wikipedia.org/wiki/SequenceL" xr:uid="{74E33C5A-C530-4A06-AF9E-642E44F07C4A}"/>
-    <hyperlink ref="A556" r:id="rId553" location="Programming_languages" tooltip="Ethereum" display="https://en.wikipedia.org/wiki/Ethereum - Programming_languages" xr:uid="{FED303CF-7728-45EA-B601-7ABB83408D58}"/>
-    <hyperlink ref="A557" r:id="rId554" tooltip="SETL" display="https://en.wikipedia.org/wiki/SETL" xr:uid="{3C814929-5334-4043-8C2A-43265F7359BC}"/>
-    <hyperlink ref="A558" r:id="rId555" tooltip="Short Code (computer language)" display="https://en.wikipedia.org/wiki/Short_Code_(computer_language)" xr:uid="{8E394519-DB36-4FD2-9534-DEE11C0B87C7}"/>
-    <hyperlink ref="A559" r:id="rId556" location="History" tooltip="Superbase database" display="https://en.wikipedia.org/wiki/Superbase_database - History" xr:uid="{39A70E73-5BE5-4838-86ED-4C1361130C3B}"/>
-    <hyperlink ref="A560" r:id="rId557" tooltip="SIGNAL (programming language)" display="https://en.wikipedia.org/wiki/SIGNAL_(programming_language)" xr:uid="{D842251D-3729-44FD-B099-38004904F4FA}"/>
-    <hyperlink ref="A561" r:id="rId558" tooltip="SiMPLE" display="https://en.wikipedia.org/wiki/SiMPLE" xr:uid="{1FBBA4BF-1AF9-4395-B9FC-D5A4D4C01D63}"/>
-    <hyperlink ref="A562" r:id="rId559" tooltip="SIMSCRIPT" display="https://en.wikipedia.org/wiki/SIMSCRIPT" xr:uid="{C467B6B3-AD7C-40CB-9271-195B579A2A96}"/>
-    <hyperlink ref="A563" r:id="rId560" tooltip="Simula" display="https://en.wikipedia.org/wiki/Simula" xr:uid="{079477DF-98B1-4A7F-857A-817620DCAFD4}"/>
-    <hyperlink ref="A564" r:id="rId561" tooltip="Simulink" display="https://en.wikipedia.org/wiki/Simulink" xr:uid="{B4232C87-E0CD-4320-955C-E730D32806B1}"/>
-    <hyperlink ref="A565" r:id="rId562" tooltip="SISAL" display="https://en.wikipedia.org/wiki/SISAL" xr:uid="{E459F7BC-26A4-4A67-A0B4-68B6B0F27D0A}"/>
-    <hyperlink ref="A566" r:id="rId563" tooltip="SLIP (programming language)" display="https://en.wikipedia.org/wiki/SLIP_(programming_language)" xr:uid="{3879ED50-723B-4798-9EF5-45C7B18AA971}"/>
-    <hyperlink ref="A567" r:id="rId564" tooltip="SMALL" display="https://en.wikipedia.org/wiki/SMALL" xr:uid="{4108B875-58BC-4EE1-9D82-6301208FAE0A}"/>
-    <hyperlink ref="A568" r:id="rId565" tooltip="Smalltalk" display="https://en.wikipedia.org/wiki/Smalltalk" xr:uid="{17A3400B-9F10-47C1-90AE-9260F7CD1C94}"/>
-    <hyperlink ref="A569" r:id="rId566" tooltip="Standard ML" display="https://en.wikipedia.org/wiki/Standard_ML" xr:uid="{3E810DD4-A4A6-4110-BFB5-85915D1F7064}"/>
-    <hyperlink ref="A570" r:id="rId567" tooltip="Strongtalk" display="https://en.wikipedia.org/wiki/Strongtalk" xr:uid="{AB513DBC-D9F5-4D75-BC66-BEC9962ED2A0}"/>
-    <hyperlink ref="A571" r:id="rId568" tooltip="Snap! (programming language)" display="https://en.wikipedia.org/wiki/Snap!_(programming_language)" xr:uid="{B5D649CD-81EB-4CE2-8C2E-F3E5ADE64C3A}"/>
-    <hyperlink ref="A573" r:id="rId569" tooltip="Snowball programming language" display="https://en.wikipedia.org/wiki/Snowball_programming_language" xr:uid="{2E633B97-0CF3-4765-BC53-C36A735C9CAB}"/>
-    <hyperlink ref="A574" r:id="rId570" tooltip="Secure Operations Language" display="https://en.wikipedia.org/wiki/Secure_Operations_Language" xr:uid="{9C6E2E21-C537-4FB0-950A-12508600CCFD}"/>
-    <hyperlink ref="A575" r:id="rId571" tooltip="Solidity" display="https://en.wikipedia.org/wiki/Solidity" xr:uid="{8A91856F-BD6B-49DC-B09C-0B63FADEE2F8}"/>
-    <hyperlink ref="A576" r:id="rId572" tooltip="SOPHAEROS" display="https://en.wikipedia.org/wiki/SOPHAEROS" xr:uid="{98E1EBD3-D0F2-457A-B5A3-59DFA31A48CD}"/>
-    <hyperlink ref="A577" r:id="rId573" tooltip="Source (programming language)" display="https://en.wikipedia.org/wiki/Source_(programming_language)" xr:uid="{C49F2E28-37B3-4098-B762-F19449F049C5}"/>
-    <hyperlink ref="A578" r:id="rId574" tooltip="SPARK (programming language)" display="https://en.wikipedia.org/wiki/SPARK_(programming_language)" xr:uid="{3BB5A647-39E8-4482-A84D-994183C12B07}"/>
-    <hyperlink ref="A579" r:id="rId575" tooltip="Speakeasy (computational environment)" display="https://en.wikipedia.org/wiki/Speakeasy_(computational_environment)" xr:uid="{CFF46677-A540-4DD2-83BB-7E67FB0E3CD1}"/>
-    <hyperlink ref="A580" r:id="rId576" tooltip="Speedcoding" display="https://en.wikipedia.org/wiki/Speedcoding" xr:uid="{9BB6DFFF-6599-437D-8823-9CDF55D3ADF7}"/>
-    <hyperlink ref="A581" r:id="rId577" tooltip="Parallax Propeller" display="https://en.wikipedia.org/wiki/Parallax_Propeller" xr:uid="{207DCB33-5868-43E2-B039-F449AF4D556D}"/>
-    <hyperlink ref="A582" r:id="rId578" tooltip="SP/k" display="https://en.wikipedia.org/wiki/SP/k" xr:uid="{6E6A5A5C-DA7B-4AEA-89D2-9247CDBF9043}"/>
-    <hyperlink ref="A583" r:id="rId579" tooltip="IBM 1401 Symbolic Programming System" display="https://en.wikipedia.org/wiki/IBM_1401_Symbolic_Programming_System" xr:uid="{1D60DA80-5EE3-4BA0-B4B9-20C83262FA8A}"/>
-    <hyperlink ref="A584" r:id="rId580" tooltip="SQL" display="https://en.wikipedia.org/wiki/SQL" xr:uid="{8DFB1F15-DE82-4C7E-AB87-5FF15AEC7A10}"/>
-    <hyperlink ref="A585" r:id="rId581" tooltip="SQR" display="https://en.wikipedia.org/wiki/SQR" xr:uid="{A52EDF1A-1812-4CBB-981D-AC5C9A28886F}"/>
-    <hyperlink ref="A586" r:id="rId582" tooltip="Squeak" display="https://en.wikipedia.org/wiki/Squeak" xr:uid="{BA25A447-93F4-4762-9A85-52B82B7E5F68}"/>
-    <hyperlink ref="A587" r:id="rId583" tooltip="Squirrel (programming language)" display="https://en.wikipedia.org/wiki/Squirrel_(programming_language)" xr:uid="{C3AC6BD2-46F3-4329-B4DF-BB580947DDC7}"/>
-    <hyperlink ref="A588" r:id="rId584" tooltip="SR (programming language)" display="https://en.wikipedia.org/wiki/SR_(programming_language)" xr:uid="{412066C2-A5F0-48E1-BBA9-73DC4BBD201A}"/>
-    <hyperlink ref="A589" r:id="rId585" tooltip="S/SL programming language" display="https://en.wikipedia.org/wiki/S/SL_programming_language" xr:uid="{FEB3B6F1-014C-460C-B78F-692EC5CEE0FF}"/>
-    <hyperlink ref="A590" r:id="rId586" tooltip="Starlogo" display="https://en.wikipedia.org/wiki/Starlogo" xr:uid="{5502028F-4315-4165-A944-4DD152B52066}"/>
-    <hyperlink ref="A591" r:id="rId587" tooltip="Strand (programming language)" display="https://en.wikipedia.org/wiki/Strand_(programming_language)" xr:uid="{D51033D9-636B-4A9F-80BC-AA98A2A7E81C}"/>
-    <hyperlink ref="A592" r:id="rId588" tooltip="Stata" display="https://en.wikipedia.org/wiki/Stata" xr:uid="{A95885A0-E708-4E1D-9965-6F8BC5A26771}"/>
-    <hyperlink ref="A593" r:id="rId589" tooltip="Stateflow" display="https://en.wikipedia.org/wiki/Stateflow" xr:uid="{87DCD0F7-6F5B-467C-B406-3D74F8129814}"/>
-    <hyperlink ref="A594" r:id="rId590" tooltip="Subtext (programming language)" display="https://en.wikipedia.org/wiki/Subtext_(programming_language)" xr:uid="{A38E3528-16C1-47B0-A648-DF7124F36E68}"/>
-    <hyperlink ref="A595" r:id="rId591" tooltip="Superbase database" display="https://en.wikipedia.org/wiki/Superbase_database" xr:uid="{469B4564-84AB-4A3B-BB9A-78E5794502D3}"/>
-    <hyperlink ref="A596" r:id="rId592" tooltip="SuperCollider" display="https://en.wikipedia.org/wiki/SuperCollider" xr:uid="{E3DD5404-6AAF-43CC-B4A2-858F6FD29F34}"/>
-    <hyperlink ref="A597" r:id="rId593" tooltip="Superplan" display="https://en.wikipedia.org/wiki/Superplan" xr:uid="{545827C9-CD13-4946-AF1D-90B1BBDCA0F4}"/>
-    <hyperlink ref="A598" r:id="rId594" tooltip="SuperTalk" display="https://en.wikipedia.org/wiki/SuperTalk" xr:uid="{F1D23AF7-F51B-4926-9860-A4FC88D8F92F}"/>
-    <hyperlink ref="A599" r:id="rId595" tooltip="Swift (programming language)" display="https://en.wikipedia.org/wiki/Swift_(programming_language)" xr:uid="{B5215862-11BF-4B02-85CD-97EF56E14CD7}"/>
-    <hyperlink ref="A600" r:id="rId596" tooltip="Swift (parallel scripting language)" display="https://en.wikipedia.org/wiki/Swift_(parallel_scripting_language)" xr:uid="{99FF8210-10D7-4F7A-A7C5-3EBCE056E406}"/>
-    <hyperlink ref="A601" r:id="rId597" tooltip="SYMPL" display="https://en.wikipedia.org/wiki/SYMPL" xr:uid="{DC7ED625-81E7-4769-9E98-3A9CFEBFA3CF}"/>
-    <hyperlink ref="A602" r:id="rId598" tooltip="TACL" display="https://en.wikipedia.org/wiki/TACL" xr:uid="{85F460F2-5DE3-479F-B867-72CE0D273268}"/>
-    <hyperlink ref="A603" r:id="rId599" tooltip="TACPOL (programming language)" display="https://en.wikipedia.org/wiki/TACPOL_(programming_language)" xr:uid="{01A79CB7-88FA-4D69-8E2B-31499AC9B02C}"/>
-    <hyperlink ref="A604" r:id="rId600" tooltip="TADS" display="https://en.wikipedia.org/wiki/TADS" xr:uid="{87D487BE-8A0E-4BC4-A0AF-E571E0C4DE5C}"/>
-    <hyperlink ref="A605" r:id="rId601" tooltip="Transaction Application Language" display="https://en.wikipedia.org/wiki/Transaction_Application_Language" xr:uid="{A48AAE3B-EC08-4D17-8F8E-F86A949CC506}"/>
-    <hyperlink ref="A606" r:id="rId602" tooltip="Tcl" display="https://en.wikipedia.org/wiki/Tcl" xr:uid="{615B55A9-6270-4643-88BC-46C5629F42FB}"/>
-    <hyperlink ref="A607" r:id="rId603" tooltip="Text Editor and Corrector" display="https://en.wikipedia.org/wiki/Text_Editor_and_Corrector" xr:uid="{731B3EAE-29F9-4693-B416-6B8FE6E4AB82}"/>
-    <hyperlink ref="A608" r:id="rId604" tooltip="TELCOMP" display="https://en.wikipedia.org/wiki/TELCOMP" xr:uid="{5956D65D-E080-4CED-942F-AF03243CA021}"/>
-    <hyperlink ref="A609" r:id="rId605" tooltip="TeX" display="https://en.wikipedia.org/wiki/TeX" xr:uid="{8500BC23-65AB-4E6E-A9BD-D82C3D2371BE}"/>
-    <hyperlink ref="A610" r:id="rId606" tooltip="Text Executive Programming Language" display="https://en.wikipedia.org/wiki/Text_Executive_Programming_Language" xr:uid="{3E8D9325-13D2-44D8-8724-3A4FEA0DBDA9}"/>
-    <hyperlink ref="A611" r:id="rId607" tooltip="Tensilica Instruction Extension" display="https://en.wikipedia.org/wiki/Tensilica_Instruction_Extension" xr:uid="{91CD6FA8-E728-4099-B317-4A9CF1521928}"/>
-    <hyperlink ref="A612" r:id="rId608" tooltip="TMG (language)" display="https://en.wikipedia.org/wiki/TMG_(language)" xr:uid="{949D2A28-DE79-403E-AF87-49B6B522A27C}"/>
-    <hyperlink ref="A613" r:id="rId609" tooltip="Tom (pattern matching language)" display="https://en.wikipedia.org/wiki/Tom_(pattern_matching_language)" xr:uid="{B5236212-9B83-43D8-9ED7-6DCCBD61D96B}"/>
-    <hyperlink ref="A614" r:id="rId610" tooltip="Toi (programming language)" display="https://en.wikipedia.org/wiki/Toi_(programming_language)" xr:uid="{8D9442A1-3638-4C7E-9982-C433F17F1993}"/>
-    <hyperlink ref="A615" r:id="rId611" tooltip="Clarion (programming language)" display="https://en.wikipedia.org/wiki/Clarion_(programming_language)" xr:uid="{8DB0FF34-2743-4589-B60B-4909E980B5B8}"/>
-    <hyperlink ref="A616" r:id="rId612" tooltip="Text Processing Utility" display="https://en.wikipedia.org/wiki/Text_Processing_Utility" xr:uid="{8A2E8BF8-1F23-4229-9E56-288437E3076F}"/>
-    <hyperlink ref="A617" r:id="rId613" tooltip="TRAC (programming language)" display="https://en.wikipedia.org/wiki/TRAC_(programming_language)" xr:uid="{99A3DA46-1B02-4A13-A361-7880A1FE2E0C}"/>
-    <hyperlink ref="A618" r:id="rId614" tooltip="TTM (programming language)" display="https://en.wikipedia.org/wiki/TTM_(programming_language)" xr:uid="{74A231D5-73C9-48BB-8199-AB7D7409548C}"/>
-    <hyperlink ref="A619" r:id="rId615" tooltip="Transact-SQL" display="https://en.wikipedia.org/wiki/Transact-SQL" xr:uid="{43448DCC-4083-405D-AD60-B538D85C97FA}"/>
-    <hyperlink ref="A620" r:id="rId616" tooltip="Transcript (programming language)" display="https://en.wikipedia.org/wiki/Transcript_(programming_language)" xr:uid="{64DEE4D6-DA54-4681-9C94-A9934D3F3BF4}"/>
-    <hyperlink ref="A621" r:id="rId617" tooltip="TTCN" display="https://en.wikipedia.org/wiki/TTCN" xr:uid="{A833921C-7958-4E3E-A917-E79684DCD81D}"/>
-    <hyperlink ref="A622" r:id="rId618" tooltip="Turing (programming language)" display="https://en.wikipedia.org/wiki/Turing_(programming_language)" xr:uid="{3CD081D7-9C2A-472F-82C4-3DECC898E362}"/>
-    <hyperlink ref="A623" r:id="rId619" tooltip="TUTOR (programming language)" display="https://en.wikipedia.org/wiki/TUTOR_(programming_language)" xr:uid="{2297CFF0-BC97-4202-8A6D-BF41E7057012}"/>
-    <hyperlink ref="A624" r:id="rId620" tooltip="TXL (programming language)" display="https://en.wikipedia.org/wiki/TXL_(programming_language)" xr:uid="{61F5A134-415D-4CC3-8F27-F63AA3415557}"/>
-    <hyperlink ref="A625" r:id="rId621" tooltip="TypeScript" display="https://en.wikipedia.org/wiki/TypeScript" xr:uid="{A449AB9F-7646-420A-B5FB-3BFF905E9D71}"/>
-    <hyperlink ref="A626" r:id="rId622" tooltip="Tynker" display="https://en.wikipedia.org/wiki/Tynker" xr:uid="{B44B3436-8F3E-4A06-9E0A-25F809AF8355}"/>
-    <hyperlink ref="A627" r:id="rId623" tooltip="Ubercode" display="https://en.wikipedia.org/wiki/Ubercode" xr:uid="{9D0F14DF-FC0E-4DC9-8035-78FB8BB6C1DB}"/>
-    <hyperlink ref="A628" r:id="rId624" tooltip="UCSD Pascal" display="https://en.wikipedia.org/wiki/UCSD_Pascal" xr:uid="{3727EE11-0696-40F1-9346-34698714A7C7}"/>
-    <hyperlink ref="A629" r:id="rId625" tooltip="Umple" display="https://en.wikipedia.org/wiki/Umple" xr:uid="{8F868E67-4E92-44B1-909D-BFEA452F9D5A}"/>
-    <hyperlink ref="A630" r:id="rId626" tooltip="Unicon (programming language)" display="https://en.wikipedia.org/wiki/Unicon_(programming_language)" xr:uid="{2AF9B3F2-0FE9-4A3B-A436-B2BBAA566BE7}"/>
-    <hyperlink ref="A631" r:id="rId627" tooltip="Uniface (programming language)" display="https://en.wikipedia.org/wiki/Uniface_(programming_language)" xr:uid="{E7571121-E0E5-40C7-B6CC-B2767F47205A}"/>
-    <hyperlink ref="A632" r:id="rId628" tooltip="UNITY (programming language)" display="https://en.wikipedia.org/wiki/UNITY_(programming_language)" xr:uid="{D8A9C46A-C815-493C-B3FA-5F14A8A451D0}"/>
-    <hyperlink ref="A633" r:id="rId629" tooltip="UnrealScript" display="https://en.wikipedia.org/wiki/UnrealScript" xr:uid="{C0DA92E9-0E74-468D-8D73-E7918547174E}"/>
-    <hyperlink ref="A634" r:id="rId630" tooltip="Vala (programming language)" display="https://en.wikipedia.org/wiki/Vala_(programming_language)" xr:uid="{53B5C7E3-7918-4EAA-ABD3-F2C12DC47C69}"/>
-    <hyperlink ref="A635" r:id="rId631" location="Vim_script" tooltip="Vim (text editor)" display="https://en.wikipedia.org/wiki/Vim_(text_editor) - Vim_script" xr:uid="{B056D13A-C4E5-4538-95E4-768427D3BDDD}"/>
-    <hyperlink ref="A636" r:id="rId632" location="Smart_contracts" tooltip="Ethereum" display="https://en.wikipedia.org/wiki/Ethereum - Smart_contracts" xr:uid="{0281484F-1F34-4A36-AAAB-EA9E91872F35}"/>
-    <hyperlink ref="A637" r:id="rId633" tooltip="Visual DataFlex" display="https://en.wikipedia.org/wiki/Visual_DataFlex" xr:uid="{65564EA0-F059-4B46-A340-C8D19E343874}"/>
-    <hyperlink ref="A638" r:id="rId634" tooltip="Visual DialogScript" display="https://en.wikipedia.org/wiki/Visual_DialogScript" xr:uid="{3F3DE125-9BA4-4E06-A7BC-8649E78D18F0}"/>
-    <hyperlink ref="A639" r:id="rId635" tooltip="Visual FoxPro" display="https://en.wikipedia.org/wiki/Visual_FoxPro" xr:uid="{4491155B-1B5C-414A-9F2C-B3053DEF0363}"/>
-    <hyperlink ref="A640" r:id="rId636" tooltip="Visual J++" display="https://en.wikipedia.org/wiki/Visual_J%2B%2B" xr:uid="{4F86A6D1-A94C-4E52-B4B3-C9D1813511EB}"/>
-    <hyperlink ref="A641" r:id="rId637" tooltip="AutoLISP" display="https://en.wikipedia.org/wiki/AutoLISP" xr:uid="{4BA1F529-9D20-4AA7-A637-D92188E528C0}"/>
-    <hyperlink ref="A642" r:id="rId638" tooltip="Visual Objects" display="https://en.wikipedia.org/wiki/Visual_Objects" xr:uid="{7CE909FC-C770-46BC-A292-EAF5AF1EC04B}"/>
-    <hyperlink ref="A643" r:id="rId639" tooltip="Visual Prolog" display="https://en.wikipedia.org/wiki/Visual_Prolog" xr:uid="{6729C319-07DA-4B50-AAC4-2977B11D8600}"/>
-    <hyperlink ref="A644" r:id="rId640" tooltip="WATFIV (programming language)" display="https://en.wikipedia.org/wiki/WATFIV_(programming_language)" xr:uid="{03CEC628-8911-44F2-A457-F35BD49E3660}"/>
-    <hyperlink ref="A645" r:id="rId641" tooltip="WebAssembly" display="https://en.wikipedia.org/wiki/WebAssembly" xr:uid="{1EC8EF90-DD9C-42B5-9AF1-5460C0461317}"/>
-    <hyperlink ref="A646" r:id="rId642" tooltip="WebDNA" display="https://en.wikipedia.org/wiki/WebDNA" xr:uid="{DDA7BD3B-E92D-4C09-95C7-F4E450B1EE69}"/>
-    <hyperlink ref="A647" r:id="rId643" tooltip="Whiley (programming language)" display="https://en.wikipedia.org/wiki/Whiley_(programming_language)" xr:uid="{7F63E9BF-F225-401C-9A8E-194A7574F1B7}"/>
-    <hyperlink ref="A648" r:id="rId644" tooltip="Winbatch" display="https://en.wikipedia.org/wiki/Winbatch" xr:uid="{8D5EBD1B-06CF-4CAB-9187-259D54661191}"/>
-    <hyperlink ref="A649" r:id="rId645" tooltip="Wolfram Language" display="https://en.wikipedia.org/wiki/Wolfram_Language" xr:uid="{8D9B9E98-314E-4963-887C-63E62D81FD2C}"/>
-    <hyperlink ref="A650" r:id="rId646" tooltip="Wyvern (programming language)" display="https://en.wikipedia.org/wiki/Wyvern_(programming_language)" xr:uid="{1E346957-5E4C-40B1-8034-676921F0C705}"/>
-    <hyperlink ref="A651" r:id="rId647" tooltip="X++" display="https://en.wikipedia.org/wiki/X%2B%2B" xr:uid="{248CF4F6-F778-40D0-92AA-37BBF073A571}"/>
-    <hyperlink ref="A652" r:id="rId648" tooltip="X10 (programming language)" display="https://en.wikipedia.org/wiki/X10_(programming_language)" xr:uid="{1505C560-B67F-4DE6-A73F-485B9B2CAE8E}"/>
-    <hyperlink ref="A653" r:id="rId649" tooltip="XBase++" display="https://en.wikipedia.org/wiki/XBase%2B%2B" xr:uid="{214B0CC8-B390-40F9-85AE-32300DAA7E64}"/>
-    <hyperlink ref="A654" r:id="rId650" tooltip="XBL" display="https://en.wikipedia.org/wiki/XBL" xr:uid="{FD7D1DB0-2975-4F06-A958-E7BD9BEDD454}"/>
-    <hyperlink ref="A656" r:id="rId651" tooltip="XHarbour" display="https://en.wikipedia.org/wiki/XHarbour" xr:uid="{8BDCD6B5-FE1F-45FD-AABB-A5681C254F91}"/>
-    <hyperlink ref="A657" r:id="rId652" tooltip="XL (programming language)" display="https://en.wikipedia.org/wiki/XL_(programming_language)" xr:uid="{8544F378-D92A-4E5A-AB91-5BBEBBEA408C}"/>
-    <hyperlink ref="A658" r:id="rId653" tooltip="Xojo" display="https://en.wikipedia.org/wiki/Xojo" xr:uid="{3557F324-E37E-44CB-BB11-907AA34F5694}"/>
-    <hyperlink ref="A659" r:id="rId654" tooltip="XOTcl" display="https://en.wikipedia.org/wiki/XOTcl" xr:uid="{2F74650E-0719-42D6-8538-159658BDD715}"/>
-    <hyperlink ref="A660" r:id="rId655" tooltip="XOD (programming language)" display="https://en.wikipedia.org/wiki/XOD_(programming_language)" xr:uid="{BDE2F146-69B9-4FD2-9CF8-B390103CF9C9}"/>
-    <hyperlink ref="A661" r:id="rId656" tooltip="XPL" display="https://en.wikipedia.org/wiki/XPL" xr:uid="{557272C9-F7BF-478D-9D0A-968727826298}"/>
-    <hyperlink ref="A662" r:id="rId657" tooltip="XPL0" display="https://en.wikipedia.org/wiki/XPL0" xr:uid="{8F947F5E-19D9-406B-8647-75671A067303}"/>
-    <hyperlink ref="A663" r:id="rId658" tooltip="XQuery" display="https://en.wikipedia.org/wiki/XQuery" xr:uid="{66D6F89F-1B00-4DF7-BFB7-0AE74598FE85}"/>
-    <hyperlink ref="A664" r:id="rId659" tooltip="XSB" display="https://en.wikipedia.org/wiki/XSB" xr:uid="{4569FDAB-290D-436D-9330-72F93CFB9BCD}"/>
-    <hyperlink ref="A665" r:id="rId660" tooltip="XSharp" display="https://en.wikipedia.org/wiki/XSharp" xr:uid="{490F299C-19FD-4A74-8502-0EF670C35314}"/>
-    <hyperlink ref="A666" r:id="rId661" tooltip="XSLT" display="https://en.wikipedia.org/wiki/XSLT" xr:uid="{6F0C7868-E59A-4184-9F75-D3C3230C0782}"/>
-    <hyperlink ref="A667" r:id="rId662" tooltip="Xtend" display="https://en.wikipedia.org/wiki/Xtend" xr:uid="{BC00BDA1-192A-4D66-9BD1-A94223FFEF47}"/>
-    <hyperlink ref="A668" r:id="rId663" tooltip="Yorick (programming language)" display="https://en.wikipedia.org/wiki/Yorick_(programming_language)" xr:uid="{EFA804C0-47A1-40D4-9AF4-8A729EBEFB53}"/>
-    <hyperlink ref="A669" r:id="rId664" tooltip="YQL (programming language)" display="https://en.wikipedia.org/wiki/YQL_(programming_language)" xr:uid="{A1184A7F-2D04-49EF-8D4F-2F589F7DCED3}"/>
-    <hyperlink ref="A670" r:id="rId665" tooltip="Yoix" display="https://en.wikipedia.org/wiki/Yoix" xr:uid="{D82E29D5-080F-42C6-BCAC-D18F985357F8}"/>
-    <hyperlink ref="A671" r:id="rId666" tooltip="Z notation" display="https://en.wikipedia.org/wiki/Z_notation" xr:uid="{7E0B70D6-68ED-46CE-8C6B-E95D31D2128E}"/>
-    <hyperlink ref="A672" r:id="rId667" tooltip="Z shell" display="https://en.wikipedia.org/wiki/Z_shell" xr:uid="{B2DB0F01-524C-4C78-A51A-128C3BE1C822}"/>
-    <hyperlink ref="A673" r:id="rId668" tooltip="Zebra (programming language)" display="https://en.wikipedia.org/wiki/Zebra_(programming_language)" xr:uid="{B9E33609-D2B4-4EDF-B800-B9941EBADA24}"/>
-    <hyperlink ref="A674" r:id="rId669" tooltip="Zeno (programming language)" display="https://en.wikipedia.org/wiki/Zeno_(programming_language)" xr:uid="{568093EA-7730-4B61-9E06-86947E19A194}"/>
-    <hyperlink ref="A675" r:id="rId670" tooltip="ZetaLisp" display="https://en.wikipedia.org/wiki/ZetaLisp" xr:uid="{215DA9D6-D002-4725-A27F-179B0529928B}"/>
-    <hyperlink ref="A676" r:id="rId671" tooltip="Zig (programming language)" display="https://en.wikipedia.org/wiki/Zig_(programming_language)" xr:uid="{281D9ACD-9161-4774-B820-FCAEDEB36E44}"/>
-    <hyperlink ref="A677" r:id="rId672" tooltip="Zonnon" display="https://en.wikipedia.org/wiki/Zonnon" xr:uid="{04C66519-12D0-49E3-9390-FF4557F91B39}"/>
-    <hyperlink ref="A678" r:id="rId673" tooltip="ZOPL" display="https://en.wikipedia.org/wiki/ZOPL" xr:uid="{AA71FB2B-BDB5-4E8E-98ED-F6A7D09F229D}"/>
-    <hyperlink ref="A679" r:id="rId674" tooltip="ZPL (programming language)" display="https://en.wikipedia.org/wiki/ZPL_(programming_language)" xr:uid="{E886937E-1F3E-49FA-B2BC-66B1FDB1EC3C}"/>
-    <hyperlink ref="A680" r:id="rId675" tooltip="Z++" display="https://en.wikipedia.org/wiki/Z%2B%2B" xr:uid="{FC4CF4C7-73F4-49FE-BD3A-64B8453205C6}"/>
+    <hyperlink ref="A69" r:id="rId67" tooltip="C (programming language)" display="https://en.wikipedia.org/wiki/C_(programming_language)" xr:uid="{3657807A-80AD-4528-A267-F54C005387E1}"/>
+    <hyperlink ref="A70" r:id="rId68" tooltip="C--" display="https://en.wikipedia.org/wiki/C--" xr:uid="{ECF96DE6-E1D6-41F9-9A51-DEEAE3B434F6}"/>
+    <hyperlink ref="A71" r:id="rId69" tooltip="C++" display="https://en.wikipedia.org/wiki/C%2B%2B" xr:uid="{FACC81B8-A220-48D7-8981-08C404DC641F}"/>
+    <hyperlink ref="A72" r:id="rId70" tooltip="C*" display="https://en.wikipedia.org/wiki/C*" xr:uid="{6B081E1C-F470-4818-820B-55B00AB65B52}"/>
+    <hyperlink ref="A73" r:id="rId71" tooltip="C Sharp (programming language)" display="https://en.wikipedia.org/wiki/C_Sharp_(programming_language)" xr:uid="{00865C8C-ACB0-40DB-AC17-AECBFEB19093}"/>
+    <hyperlink ref="A74" r:id="rId72" tooltip="C/AL" display="https://en.wikipedia.org/wiki/C/AL" xr:uid="{5D587D15-54E4-44F0-9C65-EF816721BE4E}"/>
+    <hyperlink ref="A75" r:id="rId73" tooltip="Caché ObjectScript" display="https://en.wikipedia.org/wiki/Cach%C3%A9_ObjectScript" xr:uid="{7B55B42A-FB5B-4C3F-B7BE-83EC2712E37F}"/>
+    <hyperlink ref="A76" r:id="rId74" tooltip="C Shell" display="https://en.wikipedia.org/wiki/C_Shell" xr:uid="{AFFE6527-8FB6-494B-9BF0-3C4FEA1D3A58}"/>
+    <hyperlink ref="A77" r:id="rId75" tooltip="Caml" display="https://en.wikipedia.org/wiki/Caml" xr:uid="{D23ACE1B-D213-4ED1-A65D-235DAFB535E9}"/>
+    <hyperlink ref="A78" r:id="rId76" tooltip="Carbon (programming language)" display="https://en.wikipedia.org/wiki/Carbon_(programming_language)" xr:uid="{EBA97D40-2D92-4C28-B2B0-458B8DD8356A}"/>
+    <hyperlink ref="A79" r:id="rId77" tooltip="Catrobat" display="https://en.wikipedia.org/wiki/Catrobat" xr:uid="{68ACC56F-4F7C-47CE-984A-199A6581907E}"/>
+    <hyperlink ref="A80" r:id="rId78" tooltip="Cayenne (programming language)" display="https://en.wikipedia.org/wiki/Cayenne_(programming_language)" xr:uid="{9B3063C0-D75D-4BDF-BF84-D21861D68219}"/>
+    <hyperlink ref="A81" r:id="rId79" tooltip="CDuce" display="https://en.wikipedia.org/wiki/CDuce" xr:uid="{3EC8BE76-AB45-4D3E-9912-1EE643F8452A}"/>
+    <hyperlink ref="A82" r:id="rId80" tooltip="Cecil (programming language)" display="https://en.wikipedia.org/wiki/Cecil_(programming_language)" xr:uid="{9324C2CA-DFA5-443F-A506-EDD0A1EE11D9}"/>
+    <hyperlink ref="A83" r:id="rId81" tooltip="CESIL" display="https://en.wikipedia.org/wiki/CESIL" xr:uid="{A188F93A-8367-4666-B544-66E7E7E17B8E}"/>
+    <hyperlink ref="A84" r:id="rId82" tooltip="Céu (programming language)" display="https://en.wikipedia.org/wiki/C%C3%A9u_(programming_language)" xr:uid="{3E7181BE-BA8F-493E-BA64-6B54AA109482}"/>
+    <hyperlink ref="A85" r:id="rId83" tooltip="Ceylon (programming language)" display="https://en.wikipedia.org/wiki/Ceylon_(programming_language)" xr:uid="{4C647DAD-387E-42A2-8B39-943FA76F67CA}"/>
+    <hyperlink ref="A86" r:id="rId84" tooltip="CFEngine" display="https://en.wikipedia.org/wiki/CFEngine" xr:uid="{E360D530-DD23-4F1F-8E87-BB319B35ABBE}"/>
+    <hyperlink ref="A87" r:id="rId85" tooltip="Cg (programming language)" display="https://en.wikipedia.org/wiki/Cg_(programming_language)" xr:uid="{9B0D0BF5-2F7A-48A3-AABC-E55209A31DB9}"/>
+    <hyperlink ref="A88" r:id="rId86" tooltip="Ch (computer programming)" display="https://en.wikipedia.org/wiki/Ch_(computer_programming)" xr:uid="{72FCFC9F-D309-4321-B0A3-11DDA4D467F4}"/>
+    <hyperlink ref="A89" r:id="rId87" tooltip="Chapel (programming language)" display="https://en.wikipedia.org/wiki/Chapel_(programming_language)" xr:uid="{3524F2DD-F782-4671-B50E-7711AE3E42DF}"/>
+    <hyperlink ref="A90" r:id="rId88" tooltip="Charm (language)" display="https://en.wikipedia.org/wiki/Charm_(language)" xr:uid="{CD2F8278-B1F4-41A9-90F0-3BFC116B333D}"/>
+    <hyperlink ref="A91" r:id="rId89" tooltip="CHILL" display="https://en.wikipedia.org/wiki/CHILL" xr:uid="{B8C7C7D8-99B6-40E8-940F-C43DD3BD5446}"/>
+    <hyperlink ref="A92" r:id="rId90" tooltip="CHIP-8" display="https://en.wikipedia.org/wiki/CHIP-8" xr:uid="{C6C69CA9-1747-4FB4-BA97-441FD7C28043}"/>
+    <hyperlink ref="A93" r:id="rId91" tooltip="ChucK" display="https://en.wikipedia.org/wiki/ChucK" xr:uid="{55A0F9BD-E8AB-4B2F-AEFF-065F5780D602}"/>
+    <hyperlink ref="A94" r:id="rId92" tooltip="Cilk" display="https://en.wikipedia.org/wiki/Cilk" xr:uid="{95DD8420-5154-4B70-9B51-97059BEFD8E9}"/>
+    <hyperlink ref="A95" r:id="rId93" tooltip="Claire (programming language)" display="https://en.wikipedia.org/wiki/Claire_(programming_language)" xr:uid="{CC9A5A0B-47B0-495D-8441-9BDCAA04A50E}"/>
+    <hyperlink ref="A96" r:id="rId94" tooltip="Clarion (programming language)" display="https://en.wikipedia.org/wiki/Clarion_(programming_language)" xr:uid="{A2EEB8DD-1294-404F-BB3A-DD80FBB27E65}"/>
+    <hyperlink ref="A97" r:id="rId95" tooltip="Clean (programming language)" display="https://en.wikipedia.org/wiki/Clean_(programming_language)" xr:uid="{CAE06E2D-710A-4EB9-8AA8-D18E3D44E800}"/>
+    <hyperlink ref="A98" r:id="rId96" tooltip="Clipper (programming language)" display="https://en.wikipedia.org/wiki/Clipper_(programming_language)" xr:uid="{7317367E-9071-4BAF-B93E-3E18CE2B0E3D}"/>
+    <hyperlink ref="A99" r:id="rId97" tooltip="CLIPS (programming language)" display="https://en.wikipedia.org/wiki/CLIPS_(programming_language)" xr:uid="{3135ED5C-2B6F-4811-95C8-B239F3989731}"/>
+    <hyperlink ref="A100" r:id="rId98" tooltip="CLIST" display="https://en.wikipedia.org/wiki/CLIST" xr:uid="{CD3D8580-F62B-4593-A1F0-4393E5C41526}"/>
+    <hyperlink ref="A101" r:id="rId99" tooltip="Clojure" display="https://en.wikipedia.org/wiki/Clojure" xr:uid="{0F761F32-6452-490D-8501-253DACDC99C5}"/>
+    <hyperlink ref="A102" r:id="rId100" tooltip="CLU (programming language)" display="https://en.wikipedia.org/wiki/CLU_(programming_language)" xr:uid="{B02BAC57-7ACC-4C03-9A03-B795BE2A3784}"/>
+    <hyperlink ref="A103" r:id="rId101" tooltip="CMS-2 (programming language)" display="https://en.wikipedia.org/wiki/CMS-2_(programming_language)" xr:uid="{9A59981E-F5A9-445D-95C3-A524448EABC3}"/>
+    <hyperlink ref="A104" r:id="rId102" tooltip="COBOL" display="https://en.wikipedia.org/wiki/COBOL" xr:uid="{A13AD42C-ACE6-4F03-AC23-5A7FCE5BF02C}"/>
+    <hyperlink ref="A105" r:id="rId103" tooltip="CobolScript" display="https://en.wikipedia.org/wiki/CobolScript" xr:uid="{EBD6B1F8-3C48-493D-B912-40FBB05C4DAD}"/>
+    <hyperlink ref="A106" r:id="rId104" tooltip="Cobra (programming language)" display="https://en.wikipedia.org/wiki/Cobra_(programming_language)" xr:uid="{50257406-299B-49EF-86C1-4E7177A669C7}"/>
+    <hyperlink ref="A107" r:id="rId105" tooltip="CoffeeScript" display="https://en.wikipedia.org/wiki/CoffeeScript" xr:uid="{03651E2B-F63B-486E-80DF-1BA4A556CD8A}"/>
+    <hyperlink ref="A108" r:id="rId106" tooltip="ColdFusion" display="https://en.wikipedia.org/wiki/ColdFusion" xr:uid="{793789A4-8EF4-45BE-A5EB-CCB3510F621B}"/>
+    <hyperlink ref="A109" r:id="rId107" tooltip="COMAL" display="https://en.wikipedia.org/wiki/COMAL" xr:uid="{F1865F2C-8C66-4A5C-9A01-356B979CA007}"/>
+    <hyperlink ref="A110" r:id="rId108" tooltip="COMIT" display="https://en.wikipedia.org/wiki/COMIT" xr:uid="{F4F27D55-D41C-4CCB-8D94-86BF93C51446}"/>
+    <hyperlink ref="A111" r:id="rId109" tooltip="Common Intermediate Language" display="https://en.wikipedia.org/wiki/Common_Intermediate_Language" xr:uid="{B64E2E2D-E283-4505-B70B-6D01B36C62B3}"/>
+    <hyperlink ref="A112" r:id="rId110" tooltip="Common Lisp" display="https://en.wikipedia.org/wiki/Common_Lisp" xr:uid="{C866F91D-615D-4A40-892E-43A7A0CF5F0E}"/>
+    <hyperlink ref="A113" r:id="rId111" tooltip="COMPASS" display="https://en.wikipedia.org/wiki/COMPASS" xr:uid="{3A9ADF09-0597-4DF4-8394-B7BD605F9899}"/>
+    <hyperlink ref="A114" r:id="rId112" tooltip="Component Pascal" display="https://en.wikipedia.org/wiki/Component_Pascal" xr:uid="{5CDA0A8D-86CB-4DE9-B27F-F6983E39594A}"/>
+    <hyperlink ref="A115" r:id="rId113" tooltip="COMTRAN" display="https://en.wikipedia.org/wiki/COMTRAN" xr:uid="{B51CFE93-61A9-45FD-B45D-030149B3D428}"/>
+    <hyperlink ref="A116" r:id="rId114" tooltip="Constraint Handling Rules" display="https://en.wikipedia.org/wiki/Constraint_Handling_Rules" xr:uid="{E15694E2-32E4-4EE8-9686-F1E940FBAF11}"/>
+    <hyperlink ref="A117" r:id="rId115" tooltip="Control Language" display="https://en.wikipedia.org/wiki/Control_Language" xr:uid="{4B8403DC-2108-4103-A162-8F55A8AC35DD}"/>
+    <hyperlink ref="A118" r:id="rId116" tooltip="Cool (programming language)" display="https://en.wikipedia.org/wiki/Cool_(programming_language)" xr:uid="{C8318B9F-5EBE-48D9-95A1-3DAF1D1C0C53}"/>
+    <hyperlink ref="A119" r:id="rId117" tooltip="Coq" display="https://en.wikipedia.org/wiki/Coq" xr:uid="{16E66891-73A3-4420-985B-CF337A25DC48}"/>
+    <hyperlink ref="A120" r:id="rId118" tooltip="Coral 66" display="https://en.wikipedia.org/wiki/Coral_66" xr:uid="{2FAC71EB-BF37-4DEC-A909-5EC0E7C1C33C}"/>
+    <hyperlink ref="A121" r:id="rId119" tooltip="CorVision" display="https://en.wikipedia.org/wiki/CorVision" xr:uid="{B69C2A55-77CA-49E9-ACE4-D60D3F316A6D}"/>
+    <hyperlink ref="A122" r:id="rId120" tooltip="COWSEL" display="https://en.wikipedia.org/wiki/COWSEL" xr:uid="{B16970A2-0D41-47AC-8C9F-7130DF635EFB}"/>
+    <hyperlink ref="A123" r:id="rId121" tooltip="CPL (programming language)" display="https://en.wikipedia.org/wiki/CPL_(programming_language)" xr:uid="{7190AC2B-182C-4A22-AF80-8C36010F5CD6}"/>
+    <hyperlink ref="A124" r:id="rId122" tooltip="Cryptol" display="https://en.wikipedia.org/wiki/Cryptol" xr:uid="{F2CB07A8-C908-4271-A90A-7C12B32F5E85}"/>
+    <hyperlink ref="A125" r:id="rId123" tooltip="Crystal (programming language)" display="https://en.wikipedia.org/wiki/Crystal_(programming_language)" xr:uid="{CCA383BD-EC9F-4037-A158-1E26E3E12816}"/>
+    <hyperlink ref="A126" r:id="rId124" tooltip="Csound" display="https://en.wikipedia.org/wiki/Csound" xr:uid="{FC84B004-5162-4178-B012-85AD842BC337}"/>
+    <hyperlink ref="A127" r:id="rId125" tooltip="Cuneiform (programming language)" display="https://en.wikipedia.org/wiki/Cuneiform_(programming_language)" xr:uid="{3493AE2F-07C3-4050-B54C-9DEF4E3A5AC5}"/>
+    <hyperlink ref="A128" r:id="rId126" tooltip="Curl (programming language)" display="https://en.wikipedia.org/wiki/Curl_(programming_language)" xr:uid="{4C09711D-A0E8-4CE5-B4C5-BF5EFACC5C1D}"/>
+    <hyperlink ref="A129" r:id="rId127" tooltip="Curry (programming language)" display="https://en.wikipedia.org/wiki/Curry_(programming_language)" xr:uid="{3562DCAB-102C-420D-AD1F-692898357EBD}"/>
+    <hyperlink ref="A130" r:id="rId128" tooltip="Cybil (programming language)" display="https://en.wikipedia.org/wiki/Cybil_(programming_language)" xr:uid="{6D0EB438-D8DB-4AB8-90F0-9D0FAC3554B7}"/>
+    <hyperlink ref="A131" r:id="rId129" tooltip="Cyclone (programming language)" display="https://en.wikipedia.org/wiki/Cyclone_(programming_language)" xr:uid="{9F37C4FF-F53F-4A57-969F-D68E0A0BE56D}"/>
+    <hyperlink ref="A132" r:id="rId130" tooltip="Cypher Query Language" display="https://en.wikipedia.org/wiki/Cypher_Query_Language" xr:uid="{321F554C-01B1-4728-B5CC-A57043BAAD09}"/>
+    <hyperlink ref="A133" r:id="rId131" tooltip="Cython" display="https://en.wikipedia.org/wiki/Cython" xr:uid="{CB110665-EF50-43AC-B3C0-66C350769132}"/>
+    <hyperlink ref="A134" r:id="rId132" tooltip="CEEMAC" display="https://en.wikipedia.org/wiki/CEEMAC" xr:uid="{09985B2F-0086-423B-99F8-3A275EC7B7FA}"/>
+    <hyperlink ref="A135" r:id="rId133" tooltip="Dart (programming language)" display="https://en.wikipedia.org/wiki/Dart_(programming_language)" xr:uid="{73535242-9185-488F-A757-BD6033817914}"/>
+    <hyperlink ref="A136" r:id="rId134" tooltip="Darwin (programming language)" display="https://en.wikipedia.org/wiki/Darwin_(programming_language)" xr:uid="{A66AACC9-0AF5-4F42-BBBB-547C53B8F2DD}"/>
+    <hyperlink ref="A137" r:id="rId135" tooltip="DataFlex" display="https://en.wikipedia.org/wiki/DataFlex" xr:uid="{6D6D34D9-8BC4-406F-AA82-44F3639277C3}"/>
+    <hyperlink ref="A138" r:id="rId136" tooltip="Datalog" display="https://en.wikipedia.org/wiki/Datalog" xr:uid="{51E9672E-FEB3-4C88-8756-0032AF3CEFE1}"/>
+    <hyperlink ref="A139" r:id="rId137" tooltip="DATATRIEVE" display="https://en.wikipedia.org/wiki/DATATRIEVE" xr:uid="{92D10FD7-9010-4C5F-85C4-FD963E6E8DF0}"/>
+    <hyperlink ref="A140" r:id="rId138" tooltip="DBase" display="https://en.wikipedia.org/wiki/DBase" xr:uid="{6FB2C551-FAB7-4A85-BAE4-170A2490D0C9}"/>
+    <hyperlink ref="A141" r:id="rId139" tooltip="Dc (computer program)" display="https://en.wikipedia.org/wiki/Dc_(computer_program)" xr:uid="{6AFCC2B1-2DCC-4501-8375-696DC66DEA17}"/>
+    <hyperlink ref="A142" r:id="rId140" tooltip="DIGITAL Command Language" display="https://en.wikipedia.org/wiki/DIGITAL_Command_Language" xr:uid="{268E7EF5-36DE-49E0-8B14-8E9801C09717}"/>
+    <hyperlink ref="A143" r:id="rId141" tooltip="Delphi (software)" display="https://en.wikipedia.org/wiki/Delphi_(software)" xr:uid="{409950DD-AD5F-4199-BFB2-33444D40BE9C}"/>
+    <hyperlink ref="A144" r:id="rId142" tooltip="DIBOL" display="https://en.wikipedia.org/wiki/DIBOL" xr:uid="{5A5A8892-CC6F-43C7-AB86-D8D539B46CCC}"/>
+    <hyperlink ref="A145" r:id="rId143" location="Modification" tooltip="Dink Smallwood" display="https://en.wikipedia.org/wiki/Dink_Smallwood - Modification" xr:uid="{D861D49E-2FDF-4B0A-A291-6D573834335A}"/>
+    <hyperlink ref="A146" r:id="rId144" tooltip="Dog (programming language)" display="https://en.wikipedia.org/wiki/Dog_(programming_language)" xr:uid="{FBEBF846-941E-46B7-AC99-ED757FD53ADA}"/>
+    <hyperlink ref="A147" r:id="rId145" tooltip="Draco (programming language)" display="https://en.wikipedia.org/wiki/Draco_(programming_language)" xr:uid="{8C90A143-F8A6-4371-B900-9E127167C980}"/>
+    <hyperlink ref="A148" r:id="rId146" tooltip="DRAKON" display="https://en.wikipedia.org/wiki/DRAKON" xr:uid="{EBEAD8A8-CE82-4736-9D7D-0A45D17608F6}"/>
+    <hyperlink ref="A149" r:id="rId147" tooltip="Dylan (programming language)" display="https://en.wikipedia.org/wiki/Dylan_(programming_language)" xr:uid="{81F07823-8A14-44FD-8683-B6BDCF018D77}"/>
+    <hyperlink ref="A150" r:id="rId148" tooltip="DYNAMO (programming language)" display="https://en.wikipedia.org/wiki/DYNAMO_(programming_language)" xr:uid="{40F17476-1E6C-41A4-A798-87C001C6DFE6}"/>
+    <hyperlink ref="A151" r:id="rId149" tooltip="Data analysis expressions" display="https://en.wikipedia.org/wiki/Data_analysis_expressions" xr:uid="{DBE3DDF6-13E0-4B1D-8136-53C68504D50A}"/>
+    <hyperlink ref="A152" r:id="rId150" tooltip="Ease (programming language)" display="https://en.wikipedia.org/wiki/Ease_(programming_language)" xr:uid="{FA6D78B2-7B38-4B3A-A6D1-E7C6D04FE9FF}"/>
+    <hyperlink ref="A153" r:id="rId151" tooltip="PL/I" display="https://en.wikipedia.org/wiki/PL/I" xr:uid="{38C34D7A-5C52-461B-84E8-D19DC594D083}"/>
+    <hyperlink ref="A154" r:id="rId152" tooltip="Easytrieve" display="https://en.wikipedia.org/wiki/Easytrieve" xr:uid="{2FBA2721-75AE-48C0-A80F-C4666FC1B489}"/>
+    <hyperlink ref="A155" r:id="rId153" tooltip="EC (programming language)" display="https://en.wikipedia.org/wiki/EC_(programming_language)" xr:uid="{0DB3E33D-60F0-4200-AA60-DD9FB67BD0B5}"/>
+    <hyperlink ref="A156" r:id="rId154" tooltip="ECMAScript" display="https://en.wikipedia.org/wiki/ECMAScript" xr:uid="{45B48016-6FA0-4AD4-BA5F-421304F7191A}"/>
+    <hyperlink ref="A157" r:id="rId155" tooltip="Edinburgh IMP" display="https://en.wikipedia.org/wiki/Edinburgh_IMP" xr:uid="{3E3F93C2-0211-4713-ACA3-275828F2687E}"/>
+    <hyperlink ref="A158" r:id="rId156" tooltip="EGL (programming language)" display="https://en.wikipedia.org/wiki/EGL_(programming_language)" xr:uid="{2ADAF833-1DB4-450D-BFAB-1E0F31D6575F}"/>
+    <hyperlink ref="A159" r:id="rId157" tooltip="Eiffel (programming language)" display="https://en.wikipedia.org/wiki/Eiffel_(programming_language)" xr:uid="{5B583706-374F-46A3-B567-7D089A145CA2}"/>
+    <hyperlink ref="A160" r:id="rId158" tooltip="ELAN (programming language)" display="https://en.wikipedia.org/wiki/ELAN_(programming_language)" xr:uid="{27AA23B0-3D89-4DB7-8804-D7DC28122E89}"/>
+    <hyperlink ref="A161" r:id="rId159" tooltip="Elixir (programming language)" display="https://en.wikipedia.org/wiki/Elixir_(programming_language)" xr:uid="{A57CF776-7AEC-4A17-AB0D-056B17A0CFD0}"/>
+    <hyperlink ref="A162" r:id="rId160" tooltip="Elm (programming language)" display="https://en.wikipedia.org/wiki/Elm_(programming_language)" xr:uid="{653AE1C2-E6A8-44D7-8224-2F5B2134B84F}"/>
+    <hyperlink ref="A163" r:id="rId161" tooltip="Emacs Lisp" display="https://en.wikipedia.org/wiki/Emacs_Lisp" xr:uid="{5A8EF9A3-DDC5-4DF3-BD2D-CBD3E9D1F4AE}"/>
+    <hyperlink ref="A164" r:id="rId162" tooltip="Emerald (programming language)" display="https://en.wikipedia.org/wiki/Emerald_(programming_language)" xr:uid="{556D811C-D207-496C-91E0-C30053DFE7F3}"/>
+    <hyperlink ref="A165" r:id="rId163" tooltip="Epigram (programming language)" display="https://en.wikipedia.org/wiki/Epigram_(programming_language)" xr:uid="{A8ABF5C8-1E42-4715-A010-D4152A921943}"/>
+    <hyperlink ref="A166" r:id="rId164" tooltip="Easy Programming Language" display="https://en.wikipedia.org/wiki/Easy_Programming_Language" xr:uid="{E8D55191-56A8-482B-B38B-6A1B0E11BF81}"/>
+    <hyperlink ref="A167" r:id="rId165" tooltip="Erlang (programming language)" display="https://en.wikipedia.org/wiki/Erlang_(programming_language)" xr:uid="{C1CFBC04-203A-421B-9459-F4A6D8793EEC}"/>
+    <hyperlink ref="A168" r:id="rId166" tooltip="Es (Unix shell)" display="https://en.wikipedia.org/wiki/Es_(Unix_shell)" xr:uid="{8CFBB79D-C3E0-446E-9061-67A977E40D69}"/>
+    <hyperlink ref="A169" r:id="rId167" tooltip="Escher (programming language)" display="https://en.wikipedia.org/wiki/Escher_(programming_language)" xr:uid="{C55593EA-A35D-419E-9C07-3D598A839E72}"/>
+    <hyperlink ref="A170" r:id="rId168" tooltip="Executive Systems Problem Oriented Language" display="https://en.wikipedia.org/wiki/Executive_Systems_Problem_Oriented_Language" xr:uid="{8B37313A-5B69-4BDD-B87E-DE9510A36F23}"/>
+    <hyperlink ref="A171" r:id="rId169" tooltip="Esterel" display="https://en.wikipedia.org/wiki/Esterel" xr:uid="{07B5A9F4-515D-473F-9659-FFDF690FAC88}"/>
+    <hyperlink ref="A172" r:id="rId170" tooltip="Etoys (programming language)" display="https://en.wikipedia.org/wiki/Etoys_(programming_language)" xr:uid="{9D74E809-6C88-4631-9280-DF050B44773A}"/>
+    <hyperlink ref="A173" r:id="rId171" tooltip="Euclid (programming language)" display="https://en.wikipedia.org/wiki/Euclid_(programming_language)" xr:uid="{7AA1731E-0F07-41E8-B078-8BDCAB2AF1BB}"/>
+    <hyperlink ref="A174" r:id="rId172" tooltip="Euler (programming language)" display="https://en.wikipedia.org/wiki/Euler_(programming_language)" xr:uid="{617A1893-B064-4E0E-B44F-E1CAAD054094}"/>
+    <hyperlink ref="A175" r:id="rId173" tooltip="Euphoria (programming language)" display="https://en.wikipedia.org/wiki/Euphoria_(programming_language)" xr:uid="{6B971B98-F926-4D84-8AB0-17F6281DF446}"/>
+    <hyperlink ref="A176" r:id="rId174" tooltip="EusLisp Robot Programming Language" display="https://en.wikipedia.org/wiki/EusLisp_Robot_Programming_Language" xr:uid="{907EB979-E31A-4324-AB60-F89CF8CA1BCA}"/>
+    <hyperlink ref="A177" r:id="rId175" tooltip="CMS EXEC" display="https://en.wikipedia.org/wiki/CMS_EXEC" xr:uid="{195D24BE-9267-48A3-A7A2-45B1D0B01956}"/>
+    <hyperlink ref="A178" r:id="rId176" tooltip="EXEC 2" display="https://en.wikipedia.org/wiki/EXEC_2" xr:uid="{65314412-C267-4211-86BB-5EA1E9A7CD70}"/>
+    <hyperlink ref="A179" r:id="rId177" tooltip="Executable UML" display="https://en.wikipedia.org/wiki/Executable_UML" xr:uid="{671E55AB-6C45-46D9-8535-45491833B9B1}"/>
+    <hyperlink ref="A180" r:id="rId178" tooltip="Ezhil (programming language)" display="https://en.wikipedia.org/wiki/Ezhil_(programming_language)" xr:uid="{2951BDFB-7AE9-4A0C-909A-86499373CA10}"/>
+    <hyperlink ref="A181" r:id="rId179" tooltip="F Sharp (programming language)" display="https://en.wikipedia.org/wiki/F_Sharp_(programming_language)" xr:uid="{EFF0159D-2C23-41A1-8965-AD20D7EDE80D}"/>
+    <hyperlink ref="A182" r:id="rId180" tooltip="F* (programming language)" display="https://en.wikipedia.org/wiki/F*_(programming_language)" xr:uid="{F2BFC9F9-3F82-44E7-AC83-171019A619CB}"/>
+    <hyperlink ref="A183" r:id="rId181" tooltip="Factor (programming language)" display="https://en.wikipedia.org/wiki/Factor_(programming_language)" xr:uid="{76669254-17FB-4FF8-977E-8AB27C22D571}"/>
+    <hyperlink ref="A184" r:id="rId182" tooltip="Fantom (programming language)" display="https://en.wikipedia.org/wiki/Fantom_(programming_language)" xr:uid="{23445AEE-AF1B-41A3-BD7C-5557604CB235}"/>
+    <hyperlink ref="A185" r:id="rId183" tooltip="FAUST (programming language)" display="https://en.wikipedia.org/wiki/FAUST_(programming_language)" xr:uid="{25C82BEE-396F-46E2-A4BD-9B338AEB1AA0}"/>
+    <hyperlink ref="A186" r:id="rId184" tooltip="FFP (programming language)" display="https://en.wikipedia.org/wiki/FFP_(programming_language)" xr:uid="{4EF1B7A3-F826-4FF8-98FC-D60F189FF079}"/>
+    <hyperlink ref="A187" r:id="rId185" tooltip="Friendly interactive shell" display="https://en.wikipedia.org/wiki/Friendly_interactive_shell" xr:uid="{B3DFB77C-08ED-47DE-8E3C-2B333FE1480A}"/>
+    <hyperlink ref="A188" r:id="rId186" tooltip="Fjölnir (programming language)" display="https://en.wikipedia.org/wiki/Fj%C3%B6lnir_(programming_language)" xr:uid="{AD67E7D6-08DE-4AFC-80BF-D320243DFB64}"/>
+    <hyperlink ref="A189" r:id="rId187" tooltip="FL (programming language)" display="https://en.wikipedia.org/wiki/FL_(programming_language)" xr:uid="{3DFAF392-5DB1-435E-85AD-165812AA3FC5}"/>
+    <hyperlink ref="A190" r:id="rId188" tooltip="FlagShip" display="https://en.wikipedia.org/wiki/FlagShip" xr:uid="{8560C2D0-7EA6-40ED-A41D-AB84B534542C}"/>
+    <hyperlink ref="A191" r:id="rId189" tooltip="Flavors (programming language)" display="https://en.wikipedia.org/wiki/Flavors_(programming_language)" xr:uid="{82A19771-55B4-46BE-B1B1-9E470BE89E9B}"/>
+    <hyperlink ref="A192" r:id="rId190" tooltip="Flex (language)" display="https://en.wikipedia.org/wiki/Flex_(language)" xr:uid="{F1B1151E-D6FC-4ED5-A54E-1B75BB0E3E7E}"/>
+    <hyperlink ref="A193" r:id="rId191" tooltip="Flix (programming language)" display="https://en.wikipedia.org/wiki/Flix_(programming_language)" xr:uid="{69991EBB-4224-4A06-898B-14BE9E8C8C41}"/>
+    <hyperlink ref="A194" r:id="rId192" tooltip="BlooP and FlooP" display="https://en.wikipedia.org/wiki/BlooP_and_FlooP" xr:uid="{0A52C670-9ACB-4895-A2AF-172E753CDB7A}"/>
+    <hyperlink ref="A195" r:id="rId193" tooltip="FLOW-MATIC" display="https://en.wikipedia.org/wiki/FLOW-MATIC" xr:uid="{A3AE5865-5A2D-4CF0-B878-8C79EDAFA916}"/>
+    <hyperlink ref="A196" r:id="rId194" tooltip="FOCAL (programming language)" display="https://en.wikipedia.org/wiki/FOCAL_(programming_language)" xr:uid="{84489BB1-3992-469F-9B3D-B7CB3D1BEF06}"/>
+    <hyperlink ref="A197" r:id="rId195" tooltip="FOCUS" display="https://en.wikipedia.org/wiki/FOCUS" xr:uid="{B0C01C0C-FCAB-485D-8158-06FEE3E942B2}"/>
+    <hyperlink ref="A198" r:id="rId196" tooltip="FOIL (programming language)" display="https://en.wikipedia.org/wiki/FOIL_(programming_language)" xr:uid="{9ED22FAE-89DF-4CFB-827A-2DB1E570632A}"/>
+    <hyperlink ref="A199" r:id="rId197" tooltip="FORMAC (programming language)" display="https://en.wikipedia.org/wiki/FORMAC_(programming_language)" xr:uid="{CF9AB9BA-66B5-4423-B553-A9922BC70F6A}"/>
+    <hyperlink ref="A200" r:id="rId198" tooltip="Formula language" display="https://en.wikipedia.org/wiki/Formula_language" xr:uid="{F29A92DC-7D50-4042-8F63-FD436349E20B}"/>
+    <hyperlink ref="A201" r:id="rId199" tooltip="Forth (programming language)" display="https://en.wikipedia.org/wiki/Forth_(programming_language)" xr:uid="{7EFF1A8E-ABA1-4F78-A3BD-5E8C4F0D18B6}"/>
+    <hyperlink ref="A202" r:id="rId200" tooltip="Fortran" display="https://en.wikipedia.org/wiki/Fortran" xr:uid="{3B0682E7-0846-401C-9EA6-9ED0D34AE06A}"/>
+    <hyperlink ref="A203" r:id="rId201" tooltip="Fortress (programming language)" display="https://en.wikipedia.org/wiki/Fortress_(programming_language)" xr:uid="{8C73BE7E-D00E-4149-B963-AD01F51D840A}"/>
+    <hyperlink ref="A204" r:id="rId202" tooltip="FP (programming language)" display="https://en.wikipedia.org/wiki/FP_(programming_language)" xr:uid="{3035E627-D1BB-4F0A-8F6B-12B5E48B3E7C}"/>
+    <hyperlink ref="A205" r:id="rId203" tooltip="FoxPro (programming language)" display="https://en.wikipedia.org/wiki/FoxPro_(programming_language)" xr:uid="{8EDA69D6-537D-4FE9-BF73-847C7173EA56}"/>
+    <hyperlink ref="A206" r:id="rId204" tooltip="Franz Lisp" display="https://en.wikipedia.org/wiki/Franz_Lisp" xr:uid="{B2E77091-1C65-4178-9B5A-9F7A1EE5BDE8}"/>
+    <hyperlink ref="A207" r:id="rId205" tooltip="Futhark (programming language)" display="https://en.wikipedia.org/wiki/Futhark_(programming_language)" xr:uid="{F2362470-F53E-4FF2-8110-4DAF9A9AF09A}"/>
+    <hyperlink ref="A208" r:id="rId206" tooltip="F-Script (programming language)" display="https://en.wikipedia.org/wiki/F-Script_(programming_language)" xr:uid="{D134BB15-0198-4D5A-A08A-E1C18CF4BBCE}"/>
+    <hyperlink ref="A209" r:id="rId207" tooltip="Game Maker Language" display="https://en.wikipedia.org/wiki/Game_Maker_Language" xr:uid="{9295CAA0-6939-4177-9EDF-7A6E0AEEB9EF}"/>
+    <hyperlink ref="A210" r:id="rId208" tooltip="GameMonkey Script" display="https://en.wikipedia.org/wiki/GameMonkey_Script" xr:uid="{C31862B3-D66D-47BD-BEBE-585EE11CAAEC}"/>
+    <hyperlink ref="A211" r:id="rId209" tooltip="General Algebraic Modeling System" display="https://en.wikipedia.org/wiki/General_Algebraic_Modeling_System" xr:uid="{FC7D8AAF-187F-47C2-BB79-C6ACBEC39FB2}"/>
+    <hyperlink ref="A212" r:id="rId210" tooltip="GAP computer algebra system" display="https://en.wikipedia.org/wiki/GAP_computer_algebra_system" xr:uid="{70922E45-CF2E-41F5-BBA1-2E363355C049}"/>
+    <hyperlink ref="A213" r:id="rId211" tooltip="G-code" display="https://en.wikipedia.org/wiki/G-code" xr:uid="{B9D5340A-FDC7-42EA-92E0-1C605E8F5F07}"/>
+    <hyperlink ref="A214" r:id="rId212" tooltip="Godot (game engine)" display="https://en.wikipedia.org/wiki/Godot_(game_engine)" xr:uid="{E486F76A-C3B2-472B-9AEC-0C02C028B64B}"/>
+    <hyperlink ref="A215" r:id="rId213" tooltip="Genie (programming language)" display="https://en.wikipedia.org/wiki/Genie_(programming_language)" xr:uid="{81E2BCB2-07B7-4BB6-835E-ACADDBDE1281}"/>
+    <hyperlink ref="A216" r:id="rId214" tooltip="Geometric Description Language" display="https://en.wikipedia.org/wiki/Geometric_Description_Language" xr:uid="{945285E1-471E-47D7-ACAA-99DC5978F1D4}"/>
+    <hyperlink ref="A217" r:id="rId215" tooltip="GEORGE (programming language)" display="https://en.wikipedia.org/wiki/GEORGE_(programming_language)" xr:uid="{DABA073E-840F-4A12-86FC-6034EA9BCED5}"/>
+    <hyperlink ref="A218" r:id="rId216" tooltip="OpenGL Shading Language" display="https://en.wikipedia.org/wiki/OpenGL_Shading_Language" xr:uid="{F2529917-1FC1-40A3-A847-E59F64D08A68}"/>
+    <hyperlink ref="A219" r:id="rId217" tooltip="GNU E" display="https://en.wikipedia.org/wiki/GNU_E" xr:uid="{1A3EE3D1-6782-46AD-8271-D58DA2669E3B}"/>
+    <hyperlink ref="A220" r:id="rId218" tooltip="GNU Guile" display="https://en.wikipedia.org/wiki/GNU_Guile" xr:uid="{E72E1565-79F2-4E0C-BB24-BD3C494E124A}"/>
+    <hyperlink ref="A221" r:id="rId219" tooltip="Go (programming language)" display="https://en.wikipedia.org/wiki/Go_(programming_language)" xr:uid="{72186A3E-4AEC-4CC9-81A3-678D04F78DCC}"/>
+    <hyperlink ref="A222" r:id="rId220" tooltip="Go! (programming language)" display="https://en.wikipedia.org/wiki/Go!_(programming_language)" xr:uid="{534B5BC1-1496-4292-9FB7-ACECA4B3607E}"/>
+    <hyperlink ref="A223" r:id="rId221" tooltip="Game Oriented Assembly Lisp" display="https://en.wikipedia.org/wiki/Game_Oriented_Assembly_Lisp" xr:uid="{AABCABFE-E8C6-4B19-95AA-61CFFC56A8C0}"/>
+    <hyperlink ref="A224" r:id="rId222" tooltip="Gödel (programming language)" display="https://en.wikipedia.org/wiki/G%C3%B6del_(programming_language)" xr:uid="{C086682C-F3DD-4803-B848-1FE29E62C0BC}"/>
+    <hyperlink ref="A225" r:id="rId223" tooltip="Golo (programming language)" display="https://en.wikipedia.org/wiki/Golo_(programming_language)" xr:uid="{75BDECC9-5E55-4455-A4BA-D41828E871D0}"/>
+    <hyperlink ref="A226" r:id="rId224" tooltip="MAD (programming language)" display="https://en.wikipedia.org/wiki/MAD_(programming_language)" xr:uid="{A23C8B37-9C09-4914-8357-34FBDD86B6A2}"/>
+    <hyperlink ref="A227" r:id="rId225" tooltip="Google Apps Script" display="https://en.wikipedia.org/wiki/Google_Apps_Script" xr:uid="{9A2AA101-B050-48ED-9903-E1B86EBCE10F}"/>
+    <hyperlink ref="A228" r:id="rId226" tooltip="Gosu (programming language)" display="https://en.wikipedia.org/wiki/Gosu_(programming_language)" xr:uid="{A9FFFBDC-E51A-4E9A-A47B-AC6597DA2FC6}"/>
+    <hyperlink ref="A229" r:id="rId227" location="GOTRAN" tooltip="IBM 1620" display="https://en.wikipedia.org/wiki/IBM_1620 - GOTRAN" xr:uid="{19FAD9AC-AE94-43E8-B5A8-5F63ECC53BB0}"/>
+    <hyperlink ref="A230" r:id="rId228" tooltip="GPSS" display="https://en.wikipedia.org/wiki/GPSS" xr:uid="{6BC88DEA-B379-4352-B813-77E817EF62D1}"/>
+    <hyperlink ref="A231" r:id="rId229" tooltip="Computer Sciences Corporation" display="https://en.wikipedia.org/wiki/Computer_Sciences_Corporation" xr:uid="{F769AF19-B1B6-457B-A833-4903C990815D}"/>
+    <hyperlink ref="A232" r:id="rId230" tooltip="GRASS (programming language)" display="https://en.wikipedia.org/wiki/GRASS_(programming_language)" xr:uid="{D1E8B613-12B3-4EA7-B827-5B132AEF6ACF}"/>
+    <hyperlink ref="A233" r:id="rId231" tooltip="Grasshopper 3D" display="https://en.wikipedia.org/wiki/Grasshopper_3D" xr:uid="{8C6EBE55-F4BD-43ED-959F-BF93BE5022C3}"/>
+    <hyperlink ref="A234" r:id="rId232" tooltip="Apache Groovy" display="https://en.wikipedia.org/wiki/Apache_Groovy" xr:uid="{39B657FF-0E50-4AD6-B8A3-B5A4B8FE746E}"/>
+    <hyperlink ref="A236" r:id="rId233" tooltip="Hack (programming language)" display="https://en.wikipedia.org/wiki/Hack_(programming_language)" xr:uid="{E563F6AB-C4C1-4EAA-81C5-08FEEAED9362}"/>
+    <hyperlink ref="A237" r:id="rId234" tooltip="HAGGIS" display="https://en.wikipedia.org/wiki/HAGGIS" xr:uid="{72CE1C24-79DB-4894-94A6-979B78A64054}"/>
+    <hyperlink ref="A238" r:id="rId235" tooltip="HAL/S" display="https://en.wikipedia.org/wiki/HAL/S" xr:uid="{54E828D3-C399-4F76-B545-81254D51ED09}"/>
+    <hyperlink ref="A239" r:id="rId236" tooltip="Halide (programming language)" display="https://en.wikipedia.org/wiki/Halide_(programming_language)" xr:uid="{3B45CA43-97AB-43C3-B4CA-EFCDAAFEC802}"/>
+    <hyperlink ref="A240" r:id="rId237" tooltip="Hamilton C shell" display="https://en.wikipedia.org/wiki/Hamilton_C_shell" xr:uid="{36F3D4DC-867F-4A7B-98E5-D9ABA7904C33}"/>
+    <hyperlink ref="A241" r:id="rId238" tooltip="Harbour (software)" display="https://en.wikipedia.org/wiki/Harbour_(software)" xr:uid="{DEB9423F-73D1-4CDB-86B9-B243A95E3EF0}"/>
+    <hyperlink ref="A242" r:id="rId239" tooltip="Hartmann pipeline" display="https://en.wikipedia.org/wiki/Hartmann_pipeline" xr:uid="{E61BFA90-17C9-4D32-B9B4-063E77821BCA}"/>
+    <hyperlink ref="A243" r:id="rId240" tooltip="Haskell (programming language)" display="https://en.wikipedia.org/wiki/Haskell_(programming_language)" xr:uid="{D42AF286-F587-4102-AC16-A3FF8CC725C9}"/>
+    <hyperlink ref="A244" r:id="rId241" tooltip="Haxe" display="https://en.wikipedia.org/wiki/Haxe" xr:uid="{935FD85D-FACF-49A5-995B-FCDCEDC3DA54}"/>
+    <hyperlink ref="A245" r:id="rId242" tooltip="Hermes (programming language)" display="https://en.wikipedia.org/wiki/Hermes_(programming_language)" xr:uid="{5D9441AC-3A78-4867-A679-53CDF17FB9D5}"/>
+    <hyperlink ref="A246" r:id="rId243" tooltip="High Level Assembly" display="https://en.wikipedia.org/wiki/High_Level_Assembly" xr:uid="{2E1E897B-6A2D-4F14-AFCA-A6348F5A9E8C}"/>
+    <hyperlink ref="A247" r:id="rId244" tooltip="High Level Shader Language" display="https://en.wikipedia.org/wiki/High_Level_Shader_Language" xr:uid="{C0FD8130-C36C-42C9-9935-A225934BCC52}"/>
+    <hyperlink ref="A248" r:id="rId245" tooltip="Hollywood (programming language)" display="https://en.wikipedia.org/wiki/Hollywood_(programming_language)" xr:uid="{3C8F2622-9F43-4204-BB69-2293E90AEAF7}"/>
+    <hyperlink ref="A249" r:id="rId246" tooltip="TempleOS" display="https://en.wikipedia.org/wiki/TempleOS" xr:uid="{3EB39EC6-1C8F-4612-B43B-AC162BA25A7C}"/>
+    <hyperlink ref="A250" r:id="rId247" tooltip="Hop (software)" display="https://en.wikipedia.org/wiki/Hop_(software)" xr:uid="{1358C712-3317-48EB-95FC-6965851AEFF9}"/>
+    <hyperlink ref="A251" r:id="rId248" tooltip="Hopscotch (programming language)" display="https://en.wikipedia.org/wiki/Hopscotch_(programming_language)" xr:uid="{BF83624F-816B-4961-A2CA-4BC586D90B59}"/>
+    <hyperlink ref="A252" r:id="rId249" tooltip="Hope (programming language)" display="https://en.wikipedia.org/wiki/Hope_(programming_language)" xr:uid="{63B6B86A-0286-413C-8887-56AC3257F942}"/>
+    <hyperlink ref="A253" r:id="rId250" tooltip="Hume (language)" display="https://en.wikipedia.org/wiki/Hume_(language)" xr:uid="{C9854125-B6B8-4C06-B08A-02A3BF98DB4D}"/>
+    <hyperlink ref="A254" r:id="rId251" tooltip="HyperTalk" display="https://en.wikipedia.org/wiki/HyperTalk" xr:uid="{37F3A451-01BB-4243-8BBA-4BE24DFC7992}"/>
+    <hyperlink ref="A255" r:id="rId252" tooltip="Hy" display="https://en.wikipedia.org/wiki/Hy" xr:uid="{D206A8ED-2281-4A12-B452-BBAD6EEA9B44}"/>
+    <hyperlink ref="A256" r:id="rId253" tooltip="Io (programming language)" display="https://en.wikipedia.org/wiki/Io_(programming_language)" xr:uid="{D1310D65-2A68-4D2C-BB3B-B66874A0855A}"/>
+    <hyperlink ref="A257" r:id="rId254" tooltip="Icon (programming language)" display="https://en.wikipedia.org/wiki/Icon_(programming_language)" xr:uid="{3834619A-D921-4D32-8638-9B07130FFCB2}"/>
+    <hyperlink ref="A258" r:id="rId255" tooltip="IBM Basic assembly language" display="https://en.wikipedia.org/wiki/IBM_Basic_assembly_language" xr:uid="{CE268C7F-C91F-4471-A950-C0667DD3DCEB}"/>
+    <hyperlink ref="A259" r:id="rId256" tooltip="IBM HAScript" display="https://en.wikipedia.org/wiki/IBM_HAScript" xr:uid="{43BC442C-DAF3-4C37-8EA7-ADA799833D8A}"/>
+    <hyperlink ref="A260" r:id="rId257" tooltip="IBM Informix-4GL" display="https://en.wikipedia.org/wiki/IBM_Informix-4GL" xr:uid="{46FB51DA-4345-4029-B8AD-7CBB20D84D0C}"/>
+    <hyperlink ref="A261" r:id="rId258" tooltip="IBM RPG" display="https://en.wikipedia.org/wiki/IBM_RPG" xr:uid="{B2D10408-D47C-4A7F-ACD8-537DCFFE9676}"/>
+    <hyperlink ref="A262" r:id="rId259" tooltip="IDL (programming language)" display="https://en.wikipedia.org/wiki/IDL_(programming_language)" xr:uid="{54FD52DA-4EC4-430C-A729-5B10F356895A}"/>
+    <hyperlink ref="A263" r:id="rId260" tooltip="Idris (programming language)" display="https://en.wikipedia.org/wiki/Idris_(programming_language)" xr:uid="{F591F23B-67BE-4322-B751-F3858772D937}"/>
+    <hyperlink ref="A264" r:id="rId261" tooltip="Inform (programming language)" display="https://en.wikipedia.org/wiki/Inform_(programming_language)" xr:uid="{B1CFC782-84CE-489C-9DFA-0F2C980CFE5E}"/>
+    <hyperlink ref="A265" r:id="rId262" tooltip="ISLISP" display="https://en.wikipedia.org/wiki/ISLISP" xr:uid="{6DE80490-F55A-439E-AC49-08A56951038F}"/>
+    <hyperlink ref="A266" r:id="rId263" tooltip="J Sharp" display="https://en.wikipedia.org/wiki/J_Sharp" xr:uid="{E6ECDC37-A06F-4088-AC57-3E4E16BE4496}"/>
+    <hyperlink ref="A267" r:id="rId264" tooltip="Visual J++" display="https://en.wikipedia.org/wiki/Visual_J%2B%2B" xr:uid="{12FB095A-92A3-4AE1-9369-EDD9C18702E2}"/>
+    <hyperlink ref="A268" r:id="rId265" tooltip="JADE (programming language)" display="https://en.wikipedia.org/wiki/JADE_(programming_language)" xr:uid="{174C2A31-8D3A-4CAB-A9F4-DF612C9E37A0}"/>
+    <hyperlink ref="A269" r:id="rId266" tooltip="Jai (programming language)" display="https://en.wikipedia.org/wiki/Jai_(programming_language)" xr:uid="{98B40853-A3A4-4D17-B451-829AC363AD53}"/>
+    <hyperlink ref="A270" r:id="rId267" tooltip="JAL (compiler)" display="https://en.wikipedia.org/wiki/JAL_(compiler)" xr:uid="{D42900F0-2723-45A0-B187-114DDD53E824}"/>
+    <hyperlink ref="A271" r:id="rId268" tooltip="Janus (concurrent constraint programming language)" display="https://en.wikipedia.org/wiki/Janus_(concurrent_constraint_programming_language)" xr:uid="{84199D52-B2CF-451A-A75B-FD8B0C541849}"/>
+    <hyperlink ref="A272" r:id="rId269" tooltip="Janus (time-reversible computing programming language)" display="https://en.wikipedia.org/wiki/Janus_(time-reversible_computing_programming_language)" xr:uid="{C9FDDA92-9102-4B10-8F79-308DB4382859}"/>
+    <hyperlink ref="A273" r:id="rId270" tooltip="JASS (scripting language)" display="https://en.wikipedia.org/wiki/JASS_(scripting_language)" xr:uid="{22F05E74-D06B-4CCE-A906-B1B9238180E6}"/>
+    <hyperlink ref="A274" r:id="rId271" tooltip="Java (programming language)" display="https://en.wikipedia.org/wiki/Java_(programming_language)" xr:uid="{39EDDBD7-8CCD-4633-A1D1-FD0C8605B9AC}"/>
+    <hyperlink ref="A275" r:id="rId272" tooltip="JavaFX Script" display="https://en.wikipedia.org/wiki/JavaFX_Script" xr:uid="{2FEFF4E7-EA5C-4625-A59D-895501356E89}"/>
+    <hyperlink ref="A276" r:id="rId273" tooltip="JavaScript" display="https://en.wikipedia.org/wiki/JavaScript" xr:uid="{548054CF-4C95-4121-AD86-551DC9772B15}"/>
+    <hyperlink ref="A277" r:id="rId274" tooltip="Jess (programming language)" display="https://en.wikipedia.org/wiki/Jess_(programming_language)" xr:uid="{BBC255C4-E835-4D21-A964-1A974E9408B6}"/>
+    <hyperlink ref="A278" r:id="rId275" tooltip="Job Control Language" display="https://en.wikipedia.org/wiki/Job_Control_Language" xr:uid="{3289300F-DCEE-4411-9393-B110665C8818}"/>
+    <hyperlink ref="A279" r:id="rId276" tooltip="JEAN" display="https://en.wikipedia.org/wiki/JEAN" xr:uid="{56AF5E50-01C2-43DB-AA3D-D711F7A93224}"/>
+    <hyperlink ref="A280" r:id="rId277" tooltip="Join Java" display="https://en.wikipedia.org/wiki/Join_Java" xr:uid="{5E03BEAD-A9B4-4093-9DDF-56A14487C308}"/>
+    <hyperlink ref="A281" r:id="rId278" tooltip="JOSS" display="https://en.wikipedia.org/wiki/JOSS" xr:uid="{F7458A77-F31D-47E0-9B8D-4CD1FA227794}"/>
+    <hyperlink ref="A282" r:id="rId279" tooltip="Joule (programming language)" display="https://en.wikipedia.org/wiki/Joule_(programming_language)" xr:uid="{93722C79-F6BF-48BF-83CE-FF2057D1CC93}"/>
+    <hyperlink ref="A283" r:id="rId280" tooltip="JOVIAL" display="https://en.wikipedia.org/wiki/JOVIAL" xr:uid="{B3698A35-006F-42D6-88D4-AAB39FE352C3}"/>
+    <hyperlink ref="A284" r:id="rId281" tooltip="Joy (programming language)" display="https://en.wikipedia.org/wiki/Joy_(programming_language)" xr:uid="{7EBCA08E-D259-428A-B881-CB133810DD97}"/>
+    <hyperlink ref="A285" r:id="rId282" tooltip="JScript" display="https://en.wikipedia.org/wiki/JScript" xr:uid="{7CAEC649-B8DA-4A30-8719-F08669DD0B92}"/>
+    <hyperlink ref="A286" r:id="rId283" tooltip="JScript .NET" display="https://en.wikipedia.org/wiki/JScript_.NET" xr:uid="{E6DA6E57-6035-49C8-9B91-841233E2BD07}"/>
+    <hyperlink ref="A287" r:id="rId284" tooltip="Julia (programming language)" display="https://en.wikipedia.org/wiki/Julia_(programming_language)" xr:uid="{D00F7742-8318-4AB5-812E-C567B73568FA}"/>
+    <hyperlink ref="A288" r:id="rId285" tooltip="Jython" display="https://en.wikipedia.org/wiki/Jython" xr:uid="{C279149B-2A16-4DE4-A723-8880F64AFC3E}"/>
+    <hyperlink ref="A289" r:id="rId286" tooltip="Kaleidoscope (programming language)" display="https://en.wikipedia.org/wiki/Kaleidoscope_(programming_language)" xr:uid="{C8AC1731-1B1A-4616-9332-0E69319153E7}"/>
+    <hyperlink ref="A290" r:id="rId287" tooltip="Karel (programming language)" display="https://en.wikipedia.org/wiki/Karel_(programming_language)" xr:uid="{69BBF924-FAF6-4661-B9F1-829E61B7F00A}"/>
+    <hyperlink ref="A291" r:id="rId288" tooltip="IntelliCorp (Software)" display="https://en.wikipedia.org/wiki/IntelliCorp_(Software)" xr:uid="{F2028D44-6DDB-4A3E-8AE1-BFD9E24F3AA1}"/>
+    <hyperlink ref="A292" r:id="rId289" tooltip="KiXtart" display="https://en.wikipedia.org/wiki/KiXtart" xr:uid="{4D164CAA-71E3-40CB-AE6D-CB2922B54E9D}"/>
+    <hyperlink ref="A293" r:id="rId290" tooltip="Klerer-May System" display="https://en.wikipedia.org/wiki/Klerer-May_System" xr:uid="{922904F6-DE56-4193-95C6-5DF1A0229501}"/>
+    <hyperlink ref="A294" r:id="rId291" tooltip="Knowledge Interchange Format" display="https://en.wikipedia.org/wiki/Knowledge_Interchange_Format" xr:uid="{B895285B-DB95-43C4-9546-9D6326D4C8C3}"/>
+    <hyperlink ref="A295" r:id="rId292" tooltip="Kojo (programming language)" display="https://en.wikipedia.org/wiki/Kojo_(programming_language)" xr:uid="{82B5332C-E1D9-4364-88CF-041D030FFC2E}"/>
+    <hyperlink ref="A296" r:id="rId293" tooltip="Kotlin (programming language)" display="https://en.wikipedia.org/wiki/Kotlin_(programming_language)" xr:uid="{F01550ED-415A-491F-85B9-25E694A4479D}"/>
+    <hyperlink ref="A297" r:id="rId294" tooltip="Kent Recursive Calculator" display="https://en.wikipedia.org/wiki/Kent_Recursive_Calculator" xr:uid="{78789EA0-E29F-4447-92C8-F5C5BA5C8343}"/>
+    <hyperlink ref="A298" r:id="rId295" tooltip="KRL (programming language)" display="https://en.wikipedia.org/wiki/KRL_(programming_language)" xr:uid="{25B7032F-434C-4102-A10B-CC056EDD9516}"/>
+    <hyperlink ref="A299" r:id="rId296" tooltip="KUKA Robot Language" display="https://en.wikipedia.org/wiki/KUKA_Robot_Language" xr:uid="{590DD664-3698-424A-9A9D-258C04E7D700}"/>
+    <hyperlink ref="A300" r:id="rId297" tooltip="KRYPTON" display="https://en.wikipedia.org/wiki/KRYPTON" xr:uid="{8A142A50-8FC4-41AB-9E99-201FE6EBFD58}"/>
+    <hyperlink ref="A301" r:id="rId298" tooltip="KornShell" display="https://en.wikipedia.org/wiki/KornShell" xr:uid="{AA21802E-7C55-4242-8965-9CB2E5FE3560}"/>
+    <hyperlink ref="A302" r:id="rId299" tooltip="Kodu Game Lab" display="https://en.wikipedia.org/wiki/Kodu_Game_Lab" xr:uid="{3728DC62-A5FD-4848-8D66-79DDDD31CC35}"/>
+    <hyperlink ref="A303" r:id="rId300" location="Kv_language" tooltip="Kivy (framework)" display="https://en.wikipedia.org/wiki/Kivy_(framework) - Kv_language" xr:uid="{3C8842B8-688E-4295-B258-0BFA61B262D6}"/>
+    <hyperlink ref="A304" r:id="rId301" tooltip="LabVIEW" display="https://en.wikipedia.org/wiki/LabVIEW" xr:uid="{D8F6C7A1-CDA7-4F98-9F0E-83039B666B4C}"/>
+    <hyperlink ref="A305" r:id="rId302" tooltip="Ladder logic" display="https://en.wikipedia.org/wiki/Ladder_logic" xr:uid="{6CB94BD6-52DD-4D30-98DF-D0C4686F8F09}"/>
+    <hyperlink ref="A306" r:id="rId303" tooltip="LANSA (development environment)" display="https://en.wikipedia.org/wiki/LANSA_(development_environment)" xr:uid="{BB4B1843-B60D-4611-8C8F-C4F489E1F6A6}"/>
+    <hyperlink ref="A307" r:id="rId304" tooltip="Lasso (programming language)" display="https://en.wikipedia.org/wiki/Lasso_(programming_language)" xr:uid="{E08E81D9-D2B6-44A1-868F-FA0554493652}"/>
+    <hyperlink ref="A308" r:id="rId305" tooltip="Lava (programming language)" display="https://en.wikipedia.org/wiki/Lava_(programming_language)" xr:uid="{4FAF7A73-98E2-4976-ADDC-1F643C39B88C}"/>
+    <hyperlink ref="A309" r:id="rId306" tooltip="Little Computer 3" display="https://en.wikipedia.org/wiki/Little_Computer_3" xr:uid="{512BAD76-5450-42B5-8B82-326EACA8F35C}"/>
+    <hyperlink ref="A310" r:id="rId307" tooltip="Lean (proof assistant)" display="https://en.wikipedia.org/wiki/Lean_(proof_assistant)" xr:uid="{6013D905-7C96-43DD-B260-0EC2A86148AA}"/>
+    <hyperlink ref="A311" r:id="rId308" tooltip="Legoscript" display="https://en.wikipedia.org/wiki/Legoscript" xr:uid="{67E696F0-5A91-4AFA-8A78-83AD55BF3E34}"/>
+    <hyperlink ref="A312" r:id="rId309" tooltip="Little Implementation Language" display="https://en.wikipedia.org/wiki/Little_Implementation_Language" xr:uid="{9E3AAE51-E23D-4134-9149-88F79749721A}"/>
+    <hyperlink ref="A313" r:id="rId310" tooltip="LilyPond" display="https://en.wikipedia.org/wiki/LilyPond" xr:uid="{633C8F56-A1FD-4B41-B720-40F7218F85DA}"/>
+    <hyperlink ref="A314" r:id="rId311" tooltip="Limbo (programming language)" display="https://en.wikipedia.org/wiki/Limbo_(programming_language)" xr:uid="{C7FD16A6-693F-4594-ABD9-6FEA7BF5CBE9}"/>
+    <hyperlink ref="A315" r:id="rId312" tooltip="Limnor" display="https://en.wikipedia.org/wiki/Limnor" xr:uid="{05618BA8-7A5F-487F-B488-499E90A27359}"/>
+    <hyperlink ref="A316" r:id="rId313" tooltip="LINC 4GL" display="https://en.wikipedia.org/wiki/LINC_4GL" xr:uid="{0D0CECCF-9315-4ADC-BD91-B8E4D4B9DFD7}"/>
+    <hyperlink ref="A317" r:id="rId314" tooltip="Lingo (programming language)" display="https://en.wikipedia.org/wiki/Lingo_(programming_language)" xr:uid="{79BA7EFF-0EB4-48D6-90C1-6AFA928E8AFC}"/>
+    <hyperlink ref="A318" r:id="rId315" tooltip="LINQ" display="https://en.wikipedia.org/wiki/LINQ" xr:uid="{CF25E875-0349-44CD-8C11-FF70B10A099D}"/>
+    <hyperlink ref="A319" r:id="rId316" tooltip="LIS (programming language)" display="https://en.wikipedia.org/wiki/LIS_(programming_language)" xr:uid="{4F0F3E60-E403-470C-BCB3-58D112652DD7}"/>
+    <hyperlink ref="A320" r:id="rId317" tooltip="Language for Instruction Set Architecture" display="https://en.wikipedia.org/wiki/Language_for_Instruction_Set_Architecture" xr:uid="{8A4B86DF-3D84-4B58-9740-E59057EB63D3}"/>
+    <hyperlink ref="A321" r:id="rId318" tooltip="Language H" display="https://en.wikipedia.org/wiki/Language_H" xr:uid="{231C2636-207D-413D-9049-569BDB50B03B}"/>
+    <hyperlink ref="A322" r:id="rId319" tooltip="Lisp (programming language)" display="https://en.wikipedia.org/wiki/Lisp_(programming_language)" xr:uid="{0BFABBC6-3AC2-4AFE-9BBF-B32E8CA339CB}"/>
+    <hyperlink ref="A323" r:id="rId320" tooltip="Lite-C" display="https://en.wikipedia.org/wiki/Lite-C" xr:uid="{76EAD394-CB9B-4EFB-8863-2C873B304AE0}"/>
+    <hyperlink ref="A324" r:id="rId321" tooltip="Lithe (programming language)" display="https://en.wikipedia.org/wiki/Lithe_(programming_language)" xr:uid="{5A86A809-80DE-42D4-97C1-3A826DAB8604}"/>
+    <hyperlink ref="A325" r:id="rId322" tooltip="Little b (programming language)" display="https://en.wikipedia.org/wiki/Little_b_(programming_language)" xr:uid="{D632BA47-9E39-403C-86FD-CA32AEA7ADB8}"/>
+    <hyperlink ref="A326" r:id="rId323" location="Contract_source_code" tooltip="Ethereum" display="https://en.wikipedia.org/wiki/Ethereum - Contract_source_code" xr:uid="{EC3C4D7B-DE84-40B7-B784-82836F0B286D}"/>
+    <hyperlink ref="A327" r:id="rId324" tooltip="Logo (programming language)" display="https://en.wikipedia.org/wiki/Logo_(programming_language)" xr:uid="{15FE7904-D31C-4FA3-AC67-9FACF6BE74D4}"/>
+    <hyperlink ref="A328" r:id="rId325" tooltip="Logtalk" display="https://en.wikipedia.org/wiki/Logtalk" xr:uid="{13F6DD86-6E62-4A6D-A799-DEFE13225780}"/>
+    <hyperlink ref="A329" r:id="rId326" tooltip="LotusScript" display="https://en.wikipedia.org/wiki/LotusScript" xr:uid="{6B147385-A27C-40AC-A691-64BAFDFB713A}"/>
+    <hyperlink ref="A330" r:id="rId327" tooltip="LPC (programming language)" display="https://en.wikipedia.org/wiki/LPC_(programming_language)" xr:uid="{1D67BE18-8D0E-4A93-8706-01249D250FBA}"/>
+    <hyperlink ref="A331" r:id="rId328" tooltip="LSE (programming language)" display="https://en.wikipedia.org/wiki/LSE_(programming_language)" xr:uid="{5022A65B-CE7D-4F29-8F39-91D582D73867}"/>
+    <hyperlink ref="A332" r:id="rId329" tooltip="Linden Scripting Language" display="https://en.wikipedia.org/wiki/Linden_Scripting_Language" xr:uid="{8A7BFF5D-4156-49B9-A6CF-5FFE920578AD}"/>
+    <hyperlink ref="A333" r:id="rId330" tooltip="LiveCode" display="https://en.wikipedia.org/wiki/LiveCode" xr:uid="{E0583B7D-A88A-4104-B1B3-5E98F843B308}"/>
+    <hyperlink ref="A334" r:id="rId331" tooltip="LiveScript" display="https://en.wikipedia.org/wiki/LiveScript" xr:uid="{07441096-55F7-437C-8BE5-0340A1ED41D3}"/>
+    <hyperlink ref="A335" r:id="rId332" tooltip="Lua (programming language)" display="https://en.wikipedia.org/wiki/Lua_(programming_language)" xr:uid="{15CBEA4A-5FE6-496A-BC68-80DDDC5C74C2}"/>
+    <hyperlink ref="A336" r:id="rId333" tooltip="Lucid (programming language)" display="https://en.wikipedia.org/wiki/Lucid_(programming_language)" xr:uid="{D4F3B66D-4467-4909-B2F8-F604E24FC0D1}"/>
+    <hyperlink ref="A337" r:id="rId334" tooltip="Lustre (programming language)" display="https://en.wikipedia.org/wiki/Lustre_(programming_language)" xr:uid="{993FFE73-4742-4693-8103-DB0F8E2078C5}"/>
+    <hyperlink ref="A338" r:id="rId335" tooltip="LYaPAS" display="https://en.wikipedia.org/wiki/LYaPAS" xr:uid="{D1B343B2-5A72-44DC-A833-C0A6FA6766D2}"/>
+    <hyperlink ref="A339" r:id="rId336" tooltip="Lynx (programming language)" display="https://en.wikipedia.org/wiki/Lynx_(programming_language)" xr:uid="{803CF46E-E5C9-4471-87D6-31F8AA852FFE}"/>
+    <hyperlink ref="A340" r:id="rId337" tooltip="M Formula language" display="https://en.wikipedia.org/wiki/M_Formula_language" xr:uid="{7829C08A-3E56-4027-A457-BBB18C736E89}"/>
+    <hyperlink ref="A341" r:id="rId338" tooltip="M2001" display="https://en.wikipedia.org/wiki/M2001" xr:uid="{7389609C-29DF-48AE-BEAE-10D46BB512C0}"/>
+    <hyperlink ref="A342" r:id="rId339" tooltip="M4 (computer language)" display="https://en.wikipedia.org/wiki/M4_(computer_language)" xr:uid="{641FB40B-21C3-498D-ACE3-82840F5F10F4}"/>
+    <hyperlink ref="A343" r:id="rId340" tooltip="M Sharp (programming language)" display="https://en.wikipedia.org/wiki/M_Sharp_(programming_language)" xr:uid="{8A0B68CB-2007-4C7E-A00D-052A89AE8E9E}"/>
+    <hyperlink ref="A344" r:id="rId341" tooltip="Machine code" display="https://en.wikipedia.org/wiki/Machine_code" xr:uid="{2CE95CAF-F53F-4A6E-BB07-9D721137A456}"/>
+    <hyperlink ref="A345" r:id="rId342" tooltip="MAD (programming language)" display="https://en.wikipedia.org/wiki/MAD_(programming_language)" xr:uid="{FB8D8CAD-7AA2-43AF-8DC1-04D4EB9CBC60}"/>
+    <hyperlink ref="A346" r:id="rId343" tooltip="MAD (programming language)" display="https://en.wikipedia.org/wiki/MAD_(programming_language)" xr:uid="{75A988A4-90B1-4F91-B093-7C52143F8CD4}"/>
+    <hyperlink ref="A347" r:id="rId344" tooltip="Magik (programming language)" display="https://en.wikipedia.org/wiki/Magik_(programming_language)" xr:uid="{0BC1EEA7-CD6C-4F1E-817F-8D910D047D07}"/>
+    <hyperlink ref="A348" r:id="rId345" tooltip="Magma computer algebra system" display="https://en.wikipedia.org/wiki/Magma_computer_algebra_system" xr:uid="{DC6C3774-11E8-4D06-B18E-70C64C3BE4F1}"/>
+    <hyperlink ref="A349" r:id="rId346" tooltip="Máni" display="https://en.wikipedia.org/wiki/M%C3%A1ni" xr:uid="{BEE6B54E-78B4-40D4-8377-D313D0611232}"/>
+    <hyperlink ref="A350" r:id="rId347" tooltip="Maple (software)" display="https://en.wikipedia.org/wiki/Maple_(software)" xr:uid="{E0601AC5-2978-4A2D-A9CD-1A39DBCD8612}"/>
+    <hyperlink ref="A351" r:id="rId348" tooltip="MAPPER" display="https://en.wikipedia.org/wiki/MAPPER" xr:uid="{FBFF8738-6682-4B4B-9381-B18380CAFD98}"/>
+    <hyperlink ref="A352" r:id="rId349" tooltip="MARK IV (software)" display="https://en.wikipedia.org/wiki/MARK_IV_(software)" xr:uid="{0B277979-38FE-4C47-9091-65C7862A53D8}"/>
+    <hyperlink ref="A353" r:id="rId350" tooltip="Mary (programming language)" display="https://en.wikipedia.org/wiki/Mary_(programming_language)" xr:uid="{8E4A8F01-CED4-4384-8E86-2F853D298761}"/>
+    <hyperlink ref="A354" r:id="rId351" tooltip="MATLAB" display="https://en.wikipedia.org/wiki/MATLAB" xr:uid="{323890CD-5C11-49A9-B5C7-20174ED11032}"/>
+    <hyperlink ref="A355" r:id="rId352" tooltip="Microsoft Macro Assembler" display="https://en.wikipedia.org/wiki/Microsoft_Macro_Assembler" xr:uid="{438DFBE7-8A3B-499F-AF20-14249E4F4CD3}"/>
+    <hyperlink ref="A356" r:id="rId353" tooltip="MATH-MATIC" display="https://en.wikipedia.org/wiki/MATH-MATIC" xr:uid="{12058E5E-78C2-4037-890C-0095DC06B95D}"/>
+    <hyperlink ref="A357" r:id="rId354" tooltip="Maude system" display="https://en.wikipedia.org/wiki/Maude_system" xr:uid="{EEAAEF50-4E81-4DBB-A8B1-F78AC3C943AC}"/>
+    <hyperlink ref="A359" r:id="rId355" tooltip="Max (software)" display="https://en.wikipedia.org/wiki/Max_(software)" xr:uid="{E5B59C6C-6B82-441D-88BE-AB408F77E94C}"/>
+    <hyperlink ref="A360" r:id="rId356" tooltip="Autodesk 3ds Max" display="https://en.wikipedia.org/wiki/Autodesk_3ds_Max" xr:uid="{1C537B4E-914A-41AF-B82C-5FA86662DE38}"/>
+    <hyperlink ref="A361" r:id="rId357" tooltip="Maya Embedded Language" display="https://en.wikipedia.org/wiki/Maya_Embedded_Language" xr:uid="{CE7076A9-49D2-47D8-93AC-0F5D34650759}"/>
+    <hyperlink ref="A362" r:id="rId358" tooltip="MDL (programming language)" display="https://en.wikipedia.org/wiki/MDL_(programming_language)" xr:uid="{DEBBA858-0C02-4630-A846-43877DB4C98C}"/>
+    <hyperlink ref="A363" r:id="rId359" tooltip="Mercury (programming language)" display="https://en.wikipedia.org/wiki/Mercury_(programming_language)" xr:uid="{3C180F28-0604-4B0A-80D2-3ACFA8FB70C9}"/>
+    <hyperlink ref="A364" r:id="rId360" tooltip="Mesa (programming language)" display="https://en.wikipedia.org/wiki/Mesa_(programming_language)" xr:uid="{685ED57D-EC7D-4408-A92C-C04C8398AA2B}"/>
+    <hyperlink ref="A365" r:id="rId361" tooltip="MHEG-5" display="https://en.wikipedia.org/wiki/MHEG-5" xr:uid="{F8F5F663-F7EB-46DE-BCC4-9704C9C76DEE}"/>
+    <hyperlink ref="A366" r:id="rId362" tooltip="Microassembler" display="https://en.wikipedia.org/wiki/Microassembler" xr:uid="{2601976C-FE27-4E2F-8CF0-0D22D0CD9D64}"/>
+    <hyperlink ref="A367" r:id="rId363" tooltip="Microsoft Power Fx" display="https://en.wikipedia.org/wiki/Microsoft_Power_Fx" xr:uid="{608304A6-8B26-4B48-B889-037DF3653D22}"/>
+    <hyperlink ref="A368" r:id="rId364" tooltip="MIIS (programming language)" display="https://en.wikipedia.org/wiki/MIIS_(programming_language)" xr:uid="{D7D413C3-5563-4AE3-95A3-FC82DC6C0516}"/>
+    <hyperlink ref="A369" r:id="rId365" tooltip="MIMIC" display="https://en.wikipedia.org/wiki/MIMIC" xr:uid="{171676D9-04DD-4BDE-8FCF-795383152640}"/>
+    <hyperlink ref="A370" r:id="rId366" tooltip="Mirah (programming language)" display="https://en.wikipedia.org/wiki/Mirah_(programming_language)" xr:uid="{5F295805-E26B-4B9F-B6D7-54F1C93FF44B}"/>
+    <hyperlink ref="A371" r:id="rId367" tooltip="Miranda (programming language)" display="https://en.wikipedia.org/wiki/Miranda_(programming_language)" xr:uid="{D35E5B5F-393C-4FC9-A181-045EB6DD0952}"/>
+    <hyperlink ref="A372" r:id="rId368" tooltip="MIVA Script" display="https://en.wikipedia.org/wiki/MIVA_Script" xr:uid="{A202973F-DA79-4DE7-A050-2C9879243C43}"/>
+    <hyperlink ref="A373" r:id="rId369" tooltip="ML (programming language)" display="https://en.wikipedia.org/wiki/ML_(programming_language)" xr:uid="{F83D6C92-D361-4359-8B1C-AEA070E06CFF}"/>
+    <hyperlink ref="A374" r:id="rId370" tooltip="Model 204" display="https://en.wikipedia.org/wiki/Model_204" xr:uid="{D9AC18F9-E08A-4057-AA92-7858B16259B2}"/>
+    <hyperlink ref="A375" r:id="rId371" tooltip="Modelica" display="https://en.wikipedia.org/wiki/Modelica" xr:uid="{419D4447-4F67-42FB-A835-E1D4F5B584F2}"/>
+    <hyperlink ref="A376" r:id="rId372" tooltip="Malbolge" display="https://en.wikipedia.org/wiki/Malbolge" xr:uid="{8DD21620-A33A-4806-93EE-B0D1F61E25FB}"/>
+    <hyperlink ref="A377" r:id="rId373" tooltip="Modula" display="https://en.wikipedia.org/wiki/Modula" xr:uid="{655499BB-9B7D-4CB4-B927-E55B820B2900}"/>
+    <hyperlink ref="A378" r:id="rId374" tooltip="Modula-2" display="https://en.wikipedia.org/wiki/Modula-2" xr:uid="{DF42135E-AB1A-4180-ABE2-996237D6C40F}"/>
+    <hyperlink ref="A379" r:id="rId375" tooltip="Modula-3" display="https://en.wikipedia.org/wiki/Modula-3" xr:uid="{E89B49EF-35E8-4A52-831E-BC4D8EAAE3DF}"/>
+    <hyperlink ref="A380" r:id="rId376" tooltip="Mohol programming languages" display="https://en.wikipedia.org/wiki/Mohol_programming_languages" xr:uid="{EA347FC7-72FD-40C3-9411-9BA9EF5C4F3A}"/>
+    <hyperlink ref="A381" r:id="rId377" tooltip="MOO (programming language)" display="https://en.wikipedia.org/wiki/MOO_(programming_language)" xr:uid="{04AF088B-0AFF-45F8-B415-83622F892C70}"/>
+    <hyperlink ref="A382" r:id="rId378" tooltip="Mortran" display="https://en.wikipedia.org/wiki/Mortran" xr:uid="{1E460ECF-7B77-4BE8-A480-E7D18BA06B2C}"/>
+    <hyperlink ref="A383" r:id="rId379" tooltip="Mouse (programming language)" display="https://en.wikipedia.org/wiki/Mouse_(programming_language)" xr:uid="{8833AAC8-5AC1-46ED-8E06-680356C5EA98}"/>
+    <hyperlink ref="A384" r:id="rId380" tooltip="MPD (programming language)" display="https://en.wikipedia.org/wiki/MPD_(programming_language)" xr:uid="{ACB691B9-FA57-4D54-A28D-CDB85B4AB6D0}"/>
+    <hyperlink ref="A385" r:id="rId381" tooltip="MIRC scripting language" display="https://en.wikipedia.org/wiki/MIRC_scripting_language" xr:uid="{ED6D675F-5B10-406E-8D41-3BF94C03B03D}"/>
+    <hyperlink ref="A386" r:id="rId382" tooltip="MUMPS" display="https://en.wikipedia.org/wiki/MUMPS" xr:uid="{636CF18C-0383-465E-9730-EE07EAD75FFF}"/>
+    <hyperlink ref="A387" r:id="rId383" tooltip="MuPAD" display="https://en.wikipedia.org/wiki/MuPAD" xr:uid="{FA6A8A09-74D9-4648-A004-FADF6D1522EC}"/>
+    <hyperlink ref="A388" r:id="rId384" location="Programming_languages" tooltip="Ethereum" display="https://en.wikipedia.org/wiki/Ethereum - Programming_languages" xr:uid="{7B342E90-5C40-4D2F-A3DB-817614B30832}"/>
+    <hyperlink ref="A389" r:id="rId385" tooltip="Mystic BBS" display="https://en.wikipedia.org/wiki/Mystic_BBS" xr:uid="{081C27D7-AE41-41BF-809F-D87B3B858886}"/>
+    <hyperlink ref="A390" r:id="rId386" tooltip="Netwide Assembler" display="https://en.wikipedia.org/wiki/Netwide_Assembler" xr:uid="{5D99FAFA-E18D-4D35-9525-72055A11E6A7}"/>
+    <hyperlink ref="A391" r:id="rId387" tooltip="Napier88" display="https://en.wikipedia.org/wiki/Napier88" xr:uid="{918A4F03-B76D-4A74-812C-D5CFF1CC6FEB}"/>
+    <hyperlink ref="A392" r:id="rId388" tooltip="Neko (programming language)" display="https://en.wikipedia.org/wiki/Neko_(programming_language)" xr:uid="{127401E4-F1FD-4372-A9AB-9E3A9619F2B7}"/>
+    <hyperlink ref="A393" r:id="rId389" tooltip="Nemerle" display="https://en.wikipedia.org/wiki/Nemerle" xr:uid="{5505E0FA-6C29-43EE-B05F-9D80A642E119}"/>
+    <hyperlink ref="A394" r:id="rId390" tooltip="NESL" display="https://en.wikipedia.org/wiki/NESL" xr:uid="{5A9DC6E0-351F-474A-82F4-18275C55591F}"/>
+    <hyperlink ref="A395" r:id="rId391" tooltip="Net.Data" display="https://en.wikipedia.org/wiki/Net.Data" xr:uid="{CBF90A40-F637-4D2B-85EF-6857B3481CE4}"/>
+    <hyperlink ref="A396" r:id="rId392" tooltip="NetLogo" display="https://en.wikipedia.org/wiki/NetLogo" xr:uid="{9B2CBFE7-109E-4A3C-8EBA-CE545F159EA3}"/>
+    <hyperlink ref="A397" r:id="rId393" tooltip="NetRexx" display="https://en.wikipedia.org/wiki/NetRexx" xr:uid="{166A0F37-28FB-45A0-9CF5-CCA4F39E6F16}"/>
+    <hyperlink ref="A398" r:id="rId394" tooltip="NewLISP" display="https://en.wikipedia.org/wiki/NewLISP" xr:uid="{ED4A45D9-F08E-4964-A317-2A6038D37D2C}"/>
+    <hyperlink ref="A399" r:id="rId395" tooltip="NEWP" display="https://en.wikipedia.org/wiki/NEWP" xr:uid="{DB315252-B323-41F2-82F5-B273AE64BE4D}"/>
+    <hyperlink ref="A400" r:id="rId396" tooltip="Newspeak (programming language)" display="https://en.wikipedia.org/wiki/Newspeak_(programming_language)" xr:uid="{130E6B59-76FC-49ED-B3B2-4E228B0386D7}"/>
+    <hyperlink ref="A401" r:id="rId397" tooltip="NewtonScript" display="https://en.wikipedia.org/wiki/NewtonScript" xr:uid="{1E935EA0-C64D-4698-A35C-F1619CB0D101}"/>
+    <hyperlink ref="A402" r:id="rId398" tooltip="Nial" display="https://en.wikipedia.org/wiki/Nial" xr:uid="{3A26695E-577B-4A2A-AFDD-D8A3D76A23F6}"/>
+    <hyperlink ref="A404" r:id="rId399" tooltip="Nim (programming language)" display="https://en.wikipedia.org/wiki/Nim_(programming_language)" xr:uid="{C7144BBE-0527-456B-8A40-8BF79A3CDA2A}"/>
+    <hyperlink ref="A405" r:id="rId400" tooltip="Nix package manager" display="https://en.wikipedia.org/wiki/Nix_package_manager" xr:uid="{C1093214-BAE4-4D26-B773-04CDB9D47697}"/>
+    <hyperlink ref="A406" r:id="rId401" tooltip="NORD Programming Language" display="https://en.wikipedia.org/wiki/NORD_Programming_Language" xr:uid="{836D891A-242C-413F-8D6D-9877D9C96843}"/>
+    <hyperlink ref="A407" r:id="rId402" tooltip="Not eXactly C" display="https://en.wikipedia.org/wiki/Not_eXactly_C" xr:uid="{942E648A-E1C4-437B-874B-83083AFAEB06}"/>
+    <hyperlink ref="A408" r:id="rId403" tooltip="Not Quite C" display="https://en.wikipedia.org/wiki/Not_Quite_C" xr:uid="{F032F761-1168-4BDD-883F-374A3DB5B7B8}"/>
+    <hyperlink ref="A409" r:id="rId404" tooltip="Nullsoft Scriptable Install System" display="https://en.wikipedia.org/wiki/Nullsoft_Scriptable_Install_System" xr:uid="{AE01A0C4-98B3-4697-A649-505D17D59639}"/>
+    <hyperlink ref="A410" r:id="rId405" tooltip="Nu (programming language)" display="https://en.wikipedia.org/wiki/Nu_(programming_language)" xr:uid="{25ED6306-C473-4C25-8B2D-EBC2F19D1A86}"/>
+    <hyperlink ref="A411" r:id="rId406" tooltip="NWScript" display="https://en.wikipedia.org/wiki/NWScript" xr:uid="{6A1713AB-B00C-477D-9E7F-4332C76017A1}"/>
+    <hyperlink ref="A412" r:id="rId407" tooltip="NXT-G" display="https://en.wikipedia.org/wiki/NXT-G" xr:uid="{07D9AF7A-19C9-458D-8EA2-0282BB959C35}"/>
+    <hyperlink ref="A413" r:id="rId408" tooltip="O:XML" display="https://en.wikipedia.org/wiki/O:XML" xr:uid="{79E1C1B6-3875-4044-A7F8-6014E5933CD6}"/>
+    <hyperlink ref="A414" r:id="rId409" tooltip="Oak (programming language)" display="https://en.wikipedia.org/wiki/Oak_(programming_language)" xr:uid="{F25550D2-B28D-459F-8BE6-AD2FE393F147}"/>
+    <hyperlink ref="A415" r:id="rId410" tooltip="Oberon (programming language)" display="https://en.wikipedia.org/wiki/Oberon_(programming_language)" xr:uid="{91E80FB3-F1FF-499C-BCD6-0457029E08F3}"/>
+    <hyperlink ref="A416" r:id="rId411" tooltip="OBJ2" display="https://en.wikipedia.org/wiki/OBJ2" xr:uid="{60C97598-9E05-49BF-BB37-048340A1681E}"/>
+    <hyperlink ref="A417" r:id="rId412" tooltip="Object Lisp" display="https://en.wikipedia.org/wiki/Object_Lisp" xr:uid="{50BAB5D2-959F-42ED-A722-EC87AC8A7AB4}"/>
+    <hyperlink ref="A418" r:id="rId413" tooltip="ObjectLOGO" display="https://en.wikipedia.org/wiki/ObjectLOGO" xr:uid="{A419E56F-0792-4A51-A97C-AB4CA5AC1542}"/>
+    <hyperlink ref="A419" r:id="rId414" tooltip="Object REXX" display="https://en.wikipedia.org/wiki/Object_REXX" xr:uid="{9626A2FC-A9CD-4FFE-BC59-F45B10B0F04A}"/>
+    <hyperlink ref="A420" r:id="rId415" tooltip="Object Pascal" display="https://en.wikipedia.org/wiki/Object_Pascal" xr:uid="{A17D415A-4F81-4698-A290-DF9858051A15}"/>
+    <hyperlink ref="A421" r:id="rId416" tooltip="Objective-C" display="https://en.wikipedia.org/wiki/Objective-C" xr:uid="{0A8F41C0-4549-4F8C-829F-47B99F46EE7B}"/>
+    <hyperlink ref="A422" r:id="rId417" tooltip="Obliq" display="https://en.wikipedia.org/wiki/Obliq" xr:uid="{ED43CE1B-BD0B-4201-8DD5-A5C2E1525BEF}"/>
+    <hyperlink ref="A423" r:id="rId418" tooltip="OCaml" display="https://en.wikipedia.org/wiki/OCaml" xr:uid="{AD1B9084-383E-4742-B1F8-AA687B61BA01}"/>
+    <hyperlink ref="A424" r:id="rId419" tooltip="Occam (programming language)" display="https://en.wikipedia.org/wiki/Occam_(programming_language)" xr:uid="{93627A2D-4BC6-4ACA-8947-9E405D7E4E1C}"/>
+    <hyperlink ref="A425" r:id="rId420" tooltip="Occam-π" display="https://en.wikipedia.org/wiki/Occam-%CF%80" xr:uid="{93F3B91A-4E8D-47B0-8B48-21DA4276A4AF}"/>
+    <hyperlink ref="A426" r:id="rId421" tooltip="GNU Octave" display="https://en.wikipedia.org/wiki/GNU_Octave" xr:uid="{A76D415F-6709-42F2-A4A1-9057819AE842}"/>
+    <hyperlink ref="A427" r:id="rId422" tooltip="OmniMark" display="https://en.wikipedia.org/wiki/OmniMark" xr:uid="{A60ADF38-79C0-49E8-B087-8D26F5A36C11}"/>
+    <hyperlink ref="A428" r:id="rId423" tooltip="Opa (programming language)" display="https://en.wikipedia.org/wiki/Opa_(programming_language)" xr:uid="{1DABB1E8-8D01-481D-A295-EA6F9609ABB6}"/>
+    <hyperlink ref="A429" r:id="rId424" tooltip="Opal (programming language)" display="https://en.wikipedia.org/wiki/Opal_(programming_language)" xr:uid="{8C12D5E2-45BF-4707-8ED3-DC7559A17B71}"/>
+    <hyperlink ref="A430" r:id="rId425" tooltip="Open Programming Language" display="https://en.wikipedia.org/wiki/Open_Programming_Language" xr:uid="{8A9BF970-A426-459A-9EC9-F4A59E1DF3EB}"/>
+    <hyperlink ref="A431" r:id="rId426" tooltip="OpenCL" display="https://en.wikipedia.org/wiki/OpenCL" xr:uid="{BFE3557E-E1BC-47E8-918C-EA830703D24B}"/>
+    <hyperlink ref="A432" r:id="rId427" tooltip="OpenEdge Advanced Business Language" display="https://en.wikipedia.org/wiki/OpenEdge_Advanced_Business_Language" xr:uid="{CB63B384-FD2D-4DCB-A7FE-6BDCF5E5BE1E}"/>
+    <hyperlink ref="A433" r:id="rId428" tooltip="OpenVera" display="https://en.wikipedia.org/wiki/OpenVera" xr:uid="{60966F19-204C-4D8D-B8EC-F287BB98E10C}"/>
+    <hyperlink ref="A434" r:id="rId429" tooltip="OpenQASM" display="https://en.wikipedia.org/wiki/OpenQASM" xr:uid="{162BDD34-B33F-41D6-B6D6-9387324F5522}"/>
+    <hyperlink ref="A435" r:id="rId430" tooltip="OPS5" display="https://en.wikipedia.org/wiki/OPS5" xr:uid="{85CCE69A-5E55-4085-AEF9-95FC6912F646}"/>
+    <hyperlink ref="A436" r:id="rId431" tooltip="OptimJ" display="https://en.wikipedia.org/wiki/OptimJ" xr:uid="{4257DB03-78FE-4EAB-9ACB-A452B79FB990}"/>
+    <hyperlink ref="A437" r:id="rId432" tooltip="Orc (programming language)" display="https://en.wikipedia.org/wiki/Orc_(programming_language)" xr:uid="{2E03C08B-5046-4F9E-9074-2D51ADAAE74E}"/>
+    <hyperlink ref="A438" r:id="rId433" tooltip="ORCA/Modula-2" display="https://en.wikipedia.org/wiki/ORCA/Modula-2" xr:uid="{BD27C5AE-2746-4E89-845C-938C84EE81BB}"/>
+    <hyperlink ref="A439" r:id="rId434" tooltip="Oriel (scripting language)" display="https://en.wikipedia.org/wiki/Oriel_(scripting_language)" xr:uid="{8FFABE5F-F0E4-44BB-93E4-F45B3A6D098F}"/>
+    <hyperlink ref="A440" r:id="rId435" tooltip="Orwell (programming language)" display="https://en.wikipedia.org/wiki/Orwell_(programming_language)" xr:uid="{174997C8-1146-4A95-90CC-170C30556B9A}"/>
+    <hyperlink ref="A441" r:id="rId436" tooltip="Oxygene (programming language)" display="https://en.wikipedia.org/wiki/Oxygene_(programming_language)" xr:uid="{34907510-3634-48D8-BE63-1C6B94E1F7EF}"/>
+    <hyperlink ref="A442" r:id="rId437" tooltip="Oz (programming language)" display="https://en.wikipedia.org/wiki/Oz_(programming_language)" xr:uid="{32541E47-F4C9-42AA-AC8C-148E75919BE3}"/>
+    <hyperlink ref="A443" r:id="rId438" tooltip="P4 (programming language)" display="https://en.wikipedia.org/wiki/P4_(programming_language)" xr:uid="{5BF6BFA1-9043-4F77-A694-4A0806D69211}"/>
+    <hyperlink ref="A444" r:id="rId439" tooltip="P′′" display="https://en.wikipedia.org/wiki/P%E2%80%B2%E2%80%B2" xr:uid="{5761B359-0FAC-4C96-A07F-F1FAC1854946}"/>
+    <hyperlink ref="A445" r:id="rId440" tooltip="ParaSail (programming language)" display="https://en.wikipedia.org/wiki/ParaSail_(programming_language)" xr:uid="{ACF2EC26-C8FA-46B9-BED7-22C6098B9468}"/>
+    <hyperlink ref="A446" r:id="rId441" tooltip="PARI/GP" display="https://en.wikipedia.org/wiki/PARI/GP" xr:uid="{AA2CF69C-01E7-48C1-BA2B-B6AFEDFD24DF}"/>
+    <hyperlink ref="A447" r:id="rId442" tooltip="Pascal (programming language)" display="https://en.wikipedia.org/wiki/Pascal_(programming_language)" xr:uid="{07BCBD30-1CDC-4E23-9E50-ACFD6C8A9494}"/>
+    <hyperlink ref="A448" r:id="rId443" tooltip="Pascal Script" display="https://en.wikipedia.org/wiki/Pascal_Script" xr:uid="{15D3E135-73BC-49B6-8D38-F31AA9B53144}"/>
+    <hyperlink ref="A449" r:id="rId444" tooltip="PCASTL" display="https://en.wikipedia.org/wiki/PCASTL" xr:uid="{72BE97F1-6195-4CC4-A2D7-E271D0D50AB7}"/>
+    <hyperlink ref="A450" r:id="rId445" tooltip="Programming language for Computable Functions" display="https://en.wikipedia.org/wiki/Programming_language_for_Computable_Functions" xr:uid="{357C0215-DB8A-4BB5-B19A-3057925937F1}"/>
+    <hyperlink ref="A451" r:id="rId446" tooltip="PEARL (programming language)" display="https://en.wikipedia.org/wiki/PEARL_(programming_language)" xr:uid="{3F553951-AB64-46DE-BD30-8144DC08A7F2}"/>
+    <hyperlink ref="A452" r:id="rId447" tooltip="PeopleCode" display="https://en.wikipedia.org/wiki/PeopleCode" xr:uid="{7E73B093-82DB-44C6-B6EB-522497D665B0}"/>
+    <hyperlink ref="A453" r:id="rId448" tooltip="Perl" display="https://en.wikipedia.org/wiki/Perl" xr:uid="{1218EF02-4F31-4DCF-822A-839D2CB8501C}"/>
+    <hyperlink ref="A454" r:id="rId449" tooltip="Perl Data Language" display="https://en.wikipedia.org/wiki/Perl_Data_Language" xr:uid="{30D39D42-7F05-4D38-9FF7-D107A26C869F}"/>
+    <hyperlink ref="A455" r:id="rId450" tooltip="Pharo" display="https://en.wikipedia.org/wiki/Pharo" xr:uid="{4FF5A647-FA08-4F33-82FD-206DA989CECC}"/>
+    <hyperlink ref="A456" r:id="rId451" tooltip="PHP" display="https://en.wikipedia.org/wiki/PHP" xr:uid="{0D3228D0-CC5E-42AE-BFC5-E3FD887DB3B6}"/>
+    <hyperlink ref="A457" r:id="rId452" tooltip="Pico (programming language)" display="https://en.wikipedia.org/wiki/Pico_(programming_language)" xr:uid="{4CC1ADD0-2F3C-40C0-8DBF-0805A9AAF24C}"/>
+    <hyperlink ref="A458" r:id="rId453" tooltip="Picolisp" display="https://en.wikipedia.org/wiki/Picolisp" xr:uid="{B5036B39-3C96-41E0-A987-2F851B15E01C}"/>
+    <hyperlink ref="A459" r:id="rId454" tooltip="Pict (programming language)" display="https://en.wikipedia.org/wiki/Pict_(programming_language)" xr:uid="{B9E2A053-B78A-4002-AA90-30BEA9ED2EEE}"/>
+    <hyperlink ref="A460" r:id="rId455" tooltip="Pike (programming language)" display="https://en.wikipedia.org/wiki/Pike_(programming_language)" xr:uid="{0B8BEA17-40E4-4135-93D2-96E42A63A2C3}"/>
+    <hyperlink ref="A461" r:id="rId456" tooltip="PILOT" display="https://en.wikipedia.org/wiki/PILOT" xr:uid="{8FD90490-342C-43C7-9F45-72524AEB1D3F}"/>
+    <hyperlink ref="A462" r:id="rId457" tooltip="Hartmann pipeline" display="https://en.wikipedia.org/wiki/Hartmann_pipeline" xr:uid="{19442F83-8D95-4E74-B7AE-F036DB5DCEB3}"/>
+    <hyperlink ref="A463" r:id="rId458" tooltip="Pizza (programming language)" display="https://en.wikipedia.org/wiki/Pizza_(programming_language)" xr:uid="{3FCEF34F-675E-470B-ABA5-DDA2DB5FED17}"/>
+    <hyperlink ref="A464" r:id="rId459" tooltip="PL-11" display="https://en.wikipedia.org/wiki/PL-11" xr:uid="{30C4758E-9311-4C30-B158-CA95073E124B}"/>
+    <hyperlink ref="A465" r:id="rId460" tooltip="PL/0" display="https://en.wikipedia.org/wiki/PL/0" xr:uid="{97DCB97D-CCF2-4FED-A3D4-BBB4E948A0E9}"/>
+    <hyperlink ref="A466" r:id="rId461" tooltip="Programming Language for Business" display="https://en.wikipedia.org/wiki/Programming_Language_for_Business" xr:uid="{D4E6A575-E809-445F-B456-E2672D957490}"/>
+    <hyperlink ref="A467" r:id="rId462" tooltip="PL/C" display="https://en.wikipedia.org/wiki/PL/C" xr:uid="{D4ABAE52-6DF7-4EE8-965C-BEBF9877F74B}"/>
+    <hyperlink ref="A468" r:id="rId463" tooltip="PL/I" display="https://en.wikipedia.org/wiki/PL/I" xr:uid="{2B8D2212-C896-463F-BAB4-B4FCEE976C15}"/>
+    <hyperlink ref="A469" r:id="rId464" tooltip="PL/M" display="https://en.wikipedia.org/wiki/PL/M" xr:uid="{49EC94CE-E6B4-493A-B914-51FCC2E6A97F}"/>
+    <hyperlink ref="A470" r:id="rId465" tooltip="PL/P" display="https://en.wikipedia.org/wiki/PL/P" xr:uid="{0961CF78-F1A8-4DF7-A4E1-B61BD42A4A8C}"/>
+    <hyperlink ref="A471" r:id="rId466" tooltip="PL/S" display="https://en.wikipedia.org/wiki/PL/S" xr:uid="{230530AD-10FE-4718-AF7D-03CD1A6CC122}"/>
+    <hyperlink ref="A472" r:id="rId467" tooltip="PL/SQL" display="https://en.wikipedia.org/wiki/PL/SQL" xr:uid="{CCF0EDBF-2299-46BC-99D9-2919CE21F847}"/>
+    <hyperlink ref="A473" r:id="rId468" tooltip="PL360" display="https://en.wikipedia.org/wiki/PL360" xr:uid="{858A6D53-7D80-42C4-B54A-E23948C60895}"/>
+    <hyperlink ref="A474" r:id="rId469" tooltip="PLANC" display="https://en.wikipedia.org/wiki/PLANC" xr:uid="{29FEEF13-68DC-4B3B-9A2F-5752091F5898}"/>
+    <hyperlink ref="A475" r:id="rId470" tooltip="Plankalkül" display="https://en.wikipedia.org/wiki/Plankalk%C3%BCl" xr:uid="{DC3CF7EA-BF10-45D2-9F01-F8C7AC2D5419}"/>
+    <hyperlink ref="A476" r:id="rId471" tooltip="Planner (programming language)" display="https://en.wikipedia.org/wiki/Planner_(programming_language)" xr:uid="{DD92342C-6E20-4AE4-992C-2668CF317616}"/>
+    <hyperlink ref="A477" r:id="rId472" tooltip="PLEX (programming language)" display="https://en.wikipedia.org/wiki/PLEX_(programming_language)" xr:uid="{58821F2D-0998-40E3-9FE7-1F2F95574CF4}"/>
+    <hyperlink ref="A478" r:id="rId473" tooltip="PLEXIL" display="https://en.wikipedia.org/wiki/PLEXIL" xr:uid="{CFFDE76C-4185-4E17-B25B-E081398C9697}"/>
+    <hyperlink ref="A479" r:id="rId474" tooltip="Plus (programming language)" display="https://en.wikipedia.org/wiki/Plus_(programming_language)" xr:uid="{0BB3B306-EAFF-42B8-A9F4-FDE05C6794F0}"/>
+    <hyperlink ref="A480" r:id="rId475" tooltip="POP-11" display="https://en.wikipedia.org/wiki/POP-11" xr:uid="{7E090F48-E464-484C-971B-42632F696304}"/>
+    <hyperlink ref="A481" r:id="rId476" tooltip="POP-2" display="https://en.wikipedia.org/wiki/POP-2" xr:uid="{4D100132-4AE2-4FEA-B979-8F4CE9042927}"/>
+    <hyperlink ref="A482" r:id="rId477" tooltip="PostScript" display="https://en.wikipedia.org/wiki/PostScript" xr:uid="{68C914DA-7047-4DF2-B316-6A89CC072A5C}"/>
+    <hyperlink ref="A483" r:id="rId478" location="PortablE" tooltip="Amiga E" display="https://en.wikipedia.org/wiki/Amiga_E - PortablE" xr:uid="{91164A05-5548-4740-A9E7-429102312DA7}"/>
+    <hyperlink ref="A484" r:id="rId479" tooltip="POV-Ray" display="https://en.wikipedia.org/wiki/POV-Ray" xr:uid="{05B451AB-1FD5-4C74-B72A-B1314C033207}"/>
+    <hyperlink ref="A485" r:id="rId480" tooltip="Powerhouse (programming language)" display="https://en.wikipedia.org/wiki/Powerhouse_(programming_language)" xr:uid="{19ED255A-906A-4683-B777-B791C82DE42A}"/>
+    <hyperlink ref="A486" r:id="rId481" tooltip="PowerBuilder" display="https://en.wikipedia.org/wiki/PowerBuilder" xr:uid="{453A6338-4988-4C59-9563-748AB19053DF}"/>
+    <hyperlink ref="A487" r:id="rId482" tooltip="PowerShell" display="https://en.wikipedia.org/wiki/PowerShell" xr:uid="{19F63BD0-71CC-4C8C-9AB8-F551CA75E7F4}"/>
+    <hyperlink ref="A488" r:id="rId483" tooltip="Polymorphic Programming Language" display="https://en.wikipedia.org/wiki/Polymorphic_Programming_Language" xr:uid="{D9E3A938-EC48-49C8-9943-28DBF9BE28DF}"/>
+    <hyperlink ref="A489" r:id="rId484" tooltip="Processing (programming language)" display="https://en.wikipedia.org/wiki/Processing_(programming_language)" xr:uid="{CAB8D8E5-FA39-4AFE-8C21-599C0C3ED58B}"/>
+    <hyperlink ref="A490" r:id="rId485" tooltip="Processing.js" display="https://en.wikipedia.org/wiki/Processing.js" xr:uid="{15F12CE4-EF94-41AE-9C2B-9B9E7B751763}"/>
+    <hyperlink ref="A491" r:id="rId486" tooltip="Prograph" display="https://en.wikipedia.org/wiki/Prograph" xr:uid="{FBAFE54B-8F61-4DD3-9715-BF525C5DCBE0}"/>
+    <hyperlink ref="A492" r:id="rId487" tooltip="Project Verona" display="https://en.wikipedia.org/wiki/Project_Verona" xr:uid="{814D218F-AC0C-4FF1-B4DF-22692F680BF3}"/>
+    <hyperlink ref="A493" r:id="rId488" tooltip="Prolog" display="https://en.wikipedia.org/wiki/Prolog" xr:uid="{D0039BCB-8DF3-4186-8B7D-382E05315D5F}"/>
+    <hyperlink ref="A494" r:id="rId489" tooltip="PROMAL" display="https://en.wikipedia.org/wiki/PROMAL" xr:uid="{8CC6CC0C-CB9B-47E5-9973-EE0897BBCC6A}"/>
+    <hyperlink ref="A495" r:id="rId490" tooltip="Promela" display="https://en.wikipedia.org/wiki/Promela" xr:uid="{985D3084-2491-4C1A-B12B-B7D2B0CCADB1}"/>
+    <hyperlink ref="A496" r:id="rId491" tooltip="PROSE modeling language" display="https://en.wikipedia.org/wiki/PROSE_modeling_language" xr:uid="{A2D953BF-6AA6-482C-8587-A4D220D2F373}"/>
+    <hyperlink ref="A497" r:id="rId492" tooltip="Protel" display="https://en.wikipedia.org/wiki/Protel" xr:uid="{0F6619B0-473C-4A92-BFB3-48BEE97CC81F}"/>
+    <hyperlink ref="A498" r:id="rId493" tooltip="ProvideX" display="https://en.wikipedia.org/wiki/ProvideX" xr:uid="{64E47F1A-565A-40CB-A11C-407322378918}"/>
+    <hyperlink ref="A499" r:id="rId494" tooltip="Pro*C" display="https://en.wikipedia.org/wiki/Pro*C" xr:uid="{557F1697-30AE-4DDB-BC83-55B5928948C0}"/>
+    <hyperlink ref="A500" r:id="rId495" tooltip="Pure (programming language)" display="https://en.wikipedia.org/wiki/Pure_(programming_language)" xr:uid="{59D0F91A-884A-4322-BCC4-17968C2FBC91}"/>
+    <hyperlink ref="A501" r:id="rId496" tooltip="Pure Data" display="https://en.wikipedia.org/wiki/Pure_Data" xr:uid="{2B481F16-07FA-4C4D-ADC6-B35C51DC6147}"/>
+    <hyperlink ref="A502" r:id="rId497" tooltip="PureScript" display="https://en.wikipedia.org/wiki/PureScript" xr:uid="{A416A406-1167-4DE7-A7CA-C02EB77F33AA}"/>
+    <hyperlink ref="A503" r:id="rId498" tooltip="PWCT" display="https://en.wikipedia.org/wiki/PWCT" xr:uid="{857C8CC2-2486-44EB-894E-60F6B69ECFAB}"/>
+    <hyperlink ref="A504" r:id="rId499" tooltip="Python (programming language)" display="https://en.wikipedia.org/wiki/Python_(programming_language)" xr:uid="{2C42EA30-CB1F-40F0-BF90-7CAC9322C6A1}"/>
+    <hyperlink ref="A505" r:id="rId500" tooltip="Q (programming language from Kx Systems)" display="https://en.wikipedia.org/wiki/Q_(programming_language_from_Kx_Systems)" xr:uid="{CEB82D4B-79AC-49E2-85A5-60306DA2EFBA}"/>
+    <hyperlink ref="A506" r:id="rId501" tooltip="Q Sharp" display="https://en.wikipedia.org/wiki/Q_Sharp" xr:uid="{2C634053-559C-41DF-8183-06F9B051E4E8}"/>
+    <hyperlink ref="A507" r:id="rId502" tooltip="Qalb (programming language)" display="https://en.wikipedia.org/wiki/Qalb_(programming_language)" xr:uid="{E6D27EF1-9B9A-4CCC-968B-4B8C13588FCE}"/>
+    <hyperlink ref="A508" r:id="rId503" tooltip="Quantum Computation Language" display="https://en.wikipedia.org/wiki/Quantum_Computation_Language" xr:uid="{196DB9DA-A929-4C52-8ED5-9A7AD240A3ED}"/>
+    <hyperlink ref="A509" r:id="rId504" tooltip="QtScript" display="https://en.wikipedia.org/wiki/QtScript" xr:uid="{B07D9AC7-CFEC-4C4F-BDC3-4BC4246C754A}"/>
+    <hyperlink ref="A510" r:id="rId505" tooltip="QuakeC" display="https://en.wikipedia.org/wiki/QuakeC" xr:uid="{FCA7CC1E-FFD3-4C13-8E2B-82E9C10862CA}"/>
+    <hyperlink ref="A511" r:id="rId506" tooltip="Quantum programming" display="https://en.wikipedia.org/wiki/Quantum_programming" xr:uid="{30D73E7A-5FC8-4711-AEF3-B75D3E208723}"/>
+    <hyperlink ref="A512" r:id="rId507" tooltip=".QL" display="https://en.wikipedia.org/wiki/.QL" xr:uid="{A2463C76-ED6D-4E55-9DCB-E708A7CF6BBD}"/>
+    <hyperlink ref="A513" r:id="rId508" tooltip="R (programming language)" display="https://en.wikipedia.org/wiki/R_(programming_language)" xr:uid="{5B8ABADB-81F5-4F2D-8825-CC8627978337}"/>
+    <hyperlink ref="A514" r:id="rId509" tooltip="R++" display="https://en.wikipedia.org/wiki/R%2B%2B" xr:uid="{0D6E8D6A-7CA1-4674-8436-152C6DA45AB0}"/>
+    <hyperlink ref="A515" r:id="rId510" tooltip="Racket (programming language)" display="https://en.wikipedia.org/wiki/Racket_(programming_language)" xr:uid="{E5772727-12CB-4B39-A296-F69A96A8A8E0}"/>
+    <hyperlink ref="A516" r:id="rId511" tooltip="Raku (programming language)" display="https://en.wikipedia.org/wiki/Raku_(programming_language)" xr:uid="{463583FA-C64D-4943-AF36-5E7BF4763E05}"/>
+    <hyperlink ref="A517" r:id="rId512" tooltip="RAPID" display="https://en.wikipedia.org/wiki/RAPID" xr:uid="{CC04F6E2-1575-40F1-974B-769D639A24BD}"/>
+    <hyperlink ref="A518" r:id="rId513" tooltip="Rapira" display="https://en.wikipedia.org/wiki/Rapira" xr:uid="{36E06B62-BE88-4C45-889B-FDDC8400D92D}"/>
+    <hyperlink ref="A519" r:id="rId514" tooltip="Ratfiv" display="https://en.wikipedia.org/wiki/Ratfiv" xr:uid="{33CA3F31-F6A7-419C-A092-E8FD8E9CDB5E}"/>
+    <hyperlink ref="A520" r:id="rId515" tooltip="Ratfor" display="https://en.wikipedia.org/wiki/Ratfor" xr:uid="{EDAA9004-CEF1-4780-AC68-787DB3139062}"/>
+    <hyperlink ref="A521" r:id="rId516" tooltip="Rc" display="https://en.wikipedia.org/wiki/Rc" xr:uid="{57277BF4-FD7F-4C33-96D5-F10B31D070AF}"/>
+    <hyperlink ref="A522" r:id="rId517" tooltip="Reason (programming language)" display="https://en.wikipedia.org/wiki/Reason_(programming_language)" xr:uid="{6F534942-6E77-406C-A558-C5E97A81455C}"/>
+    <hyperlink ref="A523" r:id="rId518" tooltip="REBOL" display="https://en.wikipedia.org/wiki/REBOL" xr:uid="{356CD2F5-B01D-4FCA-9E41-A90E33D1B5E7}"/>
+    <hyperlink ref="A524" r:id="rId519" tooltip="Red (programming language)" display="https://en.wikipedia.org/wiki/Red_(programming_language)" xr:uid="{41B4E50A-936B-40D3-AD2C-B0ECD94942E7}"/>
+    <hyperlink ref="A525" r:id="rId520" tooltip="Core War" display="https://en.wikipedia.org/wiki/Core_War" xr:uid="{D789E9AD-D856-401B-8C7A-3128DF84C584}"/>
+    <hyperlink ref="A526" r:id="rId521" tooltip="REFAL" display="https://en.wikipedia.org/wiki/REFAL" xr:uid="{0B07DE36-92C0-48CE-85FC-B056BAFE19C7}"/>
+    <hyperlink ref="A527" r:id="rId522" tooltip="REXX" display="https://en.wikipedia.org/wiki/REXX" xr:uid="{59A47DFC-C5D2-41AC-A33F-CBA1D6EDFDBA}"/>
+    <hyperlink ref="A528" r:id="rId523" tooltip="Ring (programming language)" display="https://en.wikipedia.org/wiki/Ring_(programming_language)" xr:uid="{96156886-55DB-4C43-AA86-18B184707500}"/>
+    <hyperlink ref="A529" r:id="rId524" tooltip="ROOP (programming language)" display="https://en.wikipedia.org/wiki/ROOP_(programming_language)" xr:uid="{2ECD655F-5A1B-41ED-8085-AF3ABEC74403}"/>
+    <hyperlink ref="A530" r:id="rId525" tooltip="IBM RPG" display="https://en.wikipedia.org/wiki/IBM_RPG" xr:uid="{EB97C09A-B145-4B85-A789-616A200189C8}"/>
+    <hyperlink ref="A531" r:id="rId526" tooltip="RPL (programming language)" display="https://en.wikipedia.org/wiki/RPL_(programming_language)" xr:uid="{74DC3931-8310-465D-BB80-A7EDEEAB5B2D}"/>
+    <hyperlink ref="A532" r:id="rId527" location="Robot_scripting_language" tooltip="Robot Battle" display="https://en.wikipedia.org/wiki/Robot_Battle - Robot_scripting_language" xr:uid="{051B9DDE-E2FE-4C1A-95FE-94D35978C2C0}"/>
+    <hyperlink ref="A533" r:id="rId528" tooltip="RTL/2" display="https://en.wikipedia.org/wiki/RTL/2" xr:uid="{9FA99D61-DCA7-483E-8368-E49659D1D621}"/>
+    <hyperlink ref="A534" r:id="rId529" tooltip="Ruby (programming language)" display="https://en.wikipedia.org/wiki/Ruby_(programming_language)" xr:uid="{A63C67D9-C046-45C7-A1BB-4B4880B56DAA}"/>
+    <hyperlink ref="A535" r:id="rId530" tooltip="Rust (programming language)" display="https://en.wikipedia.org/wiki/Rust_(programming_language)" xr:uid="{652B0673-3231-470E-A507-F3FBAA08BD6D}"/>
+    <hyperlink ref="A536" r:id="rId531" tooltip="S2 (programming language)" display="https://en.wikipedia.org/wiki/S2_(programming_language)" xr:uid="{DB6349B7-F557-4F48-904D-521DC02AD87C}"/>
+    <hyperlink ref="A537" r:id="rId532" tooltip="S3 (programming language)" display="https://en.wikipedia.org/wiki/S3_(programming_language)" xr:uid="{01DE48AE-1106-4A04-8398-63C7234FA6E4}"/>
+    <hyperlink ref="A538" r:id="rId533" tooltip="S-Lang (programming language)" display="https://en.wikipedia.org/wiki/S-Lang_(programming_language)" xr:uid="{AE85C335-8513-4B99-A2E5-51871816BD3F}"/>
+    <hyperlink ref="A539" r:id="rId534" tooltip="S-PLUS" display="https://en.wikipedia.org/wiki/S-PLUS" xr:uid="{21F00330-0614-43FB-B345-6C0BEFD16309}"/>
+    <hyperlink ref="A540" r:id="rId535" tooltip="SA-C (programming language)" display="https://en.wikipedia.org/wiki/SA-C_(programming_language)" xr:uid="{0B0452CC-F7C3-440B-A7D2-BEA19EFF4461}"/>
+    <hyperlink ref="A541" r:id="rId536" tooltip="SabreTalk" display="https://en.wikipedia.org/wiki/SabreTalk" xr:uid="{DD223AE3-D542-4645-9D34-CE35A8922665}"/>
+    <hyperlink ref="A542" r:id="rId537" tooltip="SAIL (programming language)" display="https://en.wikipedia.org/wiki/SAIL_(programming_language)" xr:uid="{4B04BD2C-7E96-44B2-96D1-54962B22DCD3}"/>
+    <hyperlink ref="A543" r:id="rId538" tooltip="SAKO (programming language)" display="https://en.wikipedia.org/wiki/SAKO_(programming_language)" xr:uid="{03C2C5C6-6F8B-45E9-8F6D-33DBF8AC706C}"/>
+    <hyperlink ref="A544" r:id="rId539" tooltip="SAS System" display="https://en.wikipedia.org/wiki/SAS_System" xr:uid="{A31DB0DE-2154-43CE-9C4E-BE14CD94232F}"/>
+    <hyperlink ref="A545" r:id="rId540" tooltip="SASL (programming language)" display="https://en.wikipedia.org/wiki/SASL_(programming_language)" xr:uid="{1F8B317D-FEEC-429F-ACB6-8FBF79C9A349}"/>
+    <hyperlink ref="A546" r:id="rId541" tooltip="Sather" display="https://en.wikipedia.org/wiki/Sather" xr:uid="{BF014DDF-2E14-42C8-A6F6-C428D9EAA898}"/>
+    <hyperlink ref="A547" r:id="rId542" tooltip="Sawzall (programming language)" display="https://en.wikipedia.org/wiki/Sawzall_(programming_language)" xr:uid="{AD5687D8-86B5-4BE7-9B1C-E75FE4360466}"/>
+    <hyperlink ref="A548" r:id="rId543" tooltip="Scala (programming language)" display="https://en.wikipedia.org/wiki/Scala_(programming_language)" xr:uid="{62847B1B-77FE-45E5-ADFE-55EC2FC4A42B}"/>
+    <hyperlink ref="A549" r:id="rId544" tooltip="Scheme (programming language)" display="https://en.wikipedia.org/wiki/Scheme_(programming_language)" xr:uid="{D60D4A9C-F8B3-4C6D-A580-2D9F00B16863}"/>
+    <hyperlink ref="A550" r:id="rId545" tooltip="Scilab" display="https://en.wikipedia.org/wiki/Scilab" xr:uid="{1E91B357-D2EC-4E05-A445-5BB02883F7C5}"/>
+    <hyperlink ref="A551" r:id="rId546" tooltip="Scratch (programming language)" display="https://en.wikipedia.org/wiki/Scratch_(programming_language)" xr:uid="{B0DF7191-7D37-4976-8D63-9A04098C7D53}"/>
+    <hyperlink ref="A552" r:id="rId547" tooltip="Script.NET" display="https://en.wikipedia.org/wiki/Script.NET" xr:uid="{903FF1A4-63DB-493C-9D66-F9B9799F1088}"/>
+    <hyperlink ref="A553" r:id="rId548" tooltip="Sed" display="https://en.wikipedia.org/wiki/Sed" xr:uid="{304619F5-C0CD-4D52-836E-5B5E81E8CFB2}"/>
+    <hyperlink ref="A554" r:id="rId549" tooltip="Seed7" display="https://en.wikipedia.org/wiki/Seed7" xr:uid="{D53D214E-B39A-4265-916B-0426E04E6E6C}"/>
+    <hyperlink ref="A555" r:id="rId550" tooltip="Self (programming language)" display="https://en.wikipedia.org/wiki/Self_(programming_language)" xr:uid="{059A6A3B-D84D-43EE-836A-6FA2E507B9C7}"/>
+    <hyperlink ref="A556" r:id="rId551" tooltip="SenseTalk" display="https://en.wikipedia.org/wiki/SenseTalk" xr:uid="{69572E9C-2F00-4518-990B-A2F764F1B937}"/>
+    <hyperlink ref="A557" r:id="rId552" tooltip="SequenceL" display="https://en.wikipedia.org/wiki/SequenceL" xr:uid="{74E33C5A-C530-4A06-AF9E-642E44F07C4A}"/>
+    <hyperlink ref="A558" r:id="rId553" location="Programming_languages" tooltip="Ethereum" display="https://en.wikipedia.org/wiki/Ethereum - Programming_languages" xr:uid="{FED303CF-7728-45EA-B601-7ABB83408D58}"/>
+    <hyperlink ref="A559" r:id="rId554" tooltip="SETL" display="https://en.wikipedia.org/wiki/SETL" xr:uid="{3C814929-5334-4043-8C2A-43265F7359BC}"/>
+    <hyperlink ref="A560" r:id="rId555" tooltip="Short Code (computer language)" display="https://en.wikipedia.org/wiki/Short_Code_(computer_language)" xr:uid="{8E394519-DB36-4FD2-9534-DEE11C0B87C7}"/>
+    <hyperlink ref="A561" r:id="rId556" location="History" tooltip="Superbase database" display="https://en.wikipedia.org/wiki/Superbase_database - History" xr:uid="{39A70E73-5BE5-4838-86ED-4C1361130C3B}"/>
+    <hyperlink ref="A562" r:id="rId557" tooltip="SIGNAL (programming language)" display="https://en.wikipedia.org/wiki/SIGNAL_(programming_language)" xr:uid="{D842251D-3729-44FD-B099-38004904F4FA}"/>
+    <hyperlink ref="A563" r:id="rId558" tooltip="SiMPLE" display="https://en.wikipedia.org/wiki/SiMPLE" xr:uid="{1FBBA4BF-1AF9-4395-B9FC-D5A4D4C01D63}"/>
+    <hyperlink ref="A564" r:id="rId559" tooltip="SIMSCRIPT" display="https://en.wikipedia.org/wiki/SIMSCRIPT" xr:uid="{C467B6B3-AD7C-40CB-9271-195B579A2A96}"/>
+    <hyperlink ref="A565" r:id="rId560" tooltip="Simula" display="https://en.wikipedia.org/wiki/Simula" xr:uid="{079477DF-98B1-4A7F-857A-817620DCAFD4}"/>
+    <hyperlink ref="A566" r:id="rId561" tooltip="Simulink" display="https://en.wikipedia.org/wiki/Simulink" xr:uid="{B4232C87-E0CD-4320-955C-E730D32806B1}"/>
+    <hyperlink ref="A567" r:id="rId562" tooltip="SISAL" display="https://en.wikipedia.org/wiki/SISAL" xr:uid="{E459F7BC-26A4-4A67-A0B4-68B6B0F27D0A}"/>
+    <hyperlink ref="A568" r:id="rId563" tooltip="SLIP (programming language)" display="https://en.wikipedia.org/wiki/SLIP_(programming_language)" xr:uid="{3879ED50-723B-4798-9EF5-45C7B18AA971}"/>
+    <hyperlink ref="A569" r:id="rId564" tooltip="SMALL" display="https://en.wikipedia.org/wiki/SMALL" xr:uid="{4108B875-58BC-4EE1-9D82-6301208FAE0A}"/>
+    <hyperlink ref="A570" r:id="rId565" tooltip="Smalltalk" display="https://en.wikipedia.org/wiki/Smalltalk" xr:uid="{17A3400B-9F10-47C1-90AE-9260F7CD1C94}"/>
+    <hyperlink ref="A571" r:id="rId566" tooltip="Standard ML" display="https://en.wikipedia.org/wiki/Standard_ML" xr:uid="{3E810DD4-A4A6-4110-BFB5-85915D1F7064}"/>
+    <hyperlink ref="A572" r:id="rId567" tooltip="Strongtalk" display="https://en.wikipedia.org/wiki/Strongtalk" xr:uid="{AB513DBC-D9F5-4D75-BC66-BEC9962ED2A0}"/>
+    <hyperlink ref="A573" r:id="rId568" tooltip="Snap! (programming language)" display="https://en.wikipedia.org/wiki/Snap!_(programming_language)" xr:uid="{B5D649CD-81EB-4CE2-8C2E-F3E5ADE64C3A}"/>
+    <hyperlink ref="A575" r:id="rId569" tooltip="Snowball programming language" display="https://en.wikipedia.org/wiki/Snowball_programming_language" xr:uid="{2E633B97-0CF3-4765-BC53-C36A735C9CAB}"/>
+    <hyperlink ref="A576" r:id="rId570" tooltip="Secure Operations Language" display="https://en.wikipedia.org/wiki/Secure_Operations_Language" xr:uid="{9C6E2E21-C537-4FB0-950A-12508600CCFD}"/>
+    <hyperlink ref="A577" r:id="rId571" tooltip="Solidity" display="https://en.wikipedia.org/wiki/Solidity" xr:uid="{8A91856F-BD6B-49DC-B09C-0B63FADEE2F8}"/>
+    <hyperlink ref="A578" r:id="rId572" tooltip="SOPHAEROS" display="https://en.wikipedia.org/wiki/SOPHAEROS" xr:uid="{98E1EBD3-D0F2-457A-B5A3-59DFA31A48CD}"/>
+    <hyperlink ref="A579" r:id="rId573" tooltip="Source (programming language)" display="https://en.wikipedia.org/wiki/Source_(programming_language)" xr:uid="{C49F2E28-37B3-4098-B762-F19449F049C5}"/>
+    <hyperlink ref="A580" r:id="rId574" tooltip="SPARK (programming language)" display="https://en.wikipedia.org/wiki/SPARK_(programming_language)" xr:uid="{3BB5A647-39E8-4482-A84D-994183C12B07}"/>
+    <hyperlink ref="A581" r:id="rId575" tooltip="Speakeasy (computational environment)" display="https://en.wikipedia.org/wiki/Speakeasy_(computational_environment)" xr:uid="{CFF46677-A540-4DD2-83BB-7E67FB0E3CD1}"/>
+    <hyperlink ref="A582" r:id="rId576" tooltip="Speedcoding" display="https://en.wikipedia.org/wiki/Speedcoding" xr:uid="{9BB6DFFF-6599-437D-8823-9CDF55D3ADF7}"/>
+    <hyperlink ref="A583" r:id="rId577" tooltip="Parallax Propeller" display="https://en.wikipedia.org/wiki/Parallax_Propeller" xr:uid="{207DCB33-5868-43E2-B039-F449AF4D556D}"/>
+    <hyperlink ref="A584" r:id="rId578" tooltip="SP/k" display="https://en.wikipedia.org/wiki/SP/k" xr:uid="{6E6A5A5C-DA7B-4AEA-89D2-9247CDBF9043}"/>
+    <hyperlink ref="A585" r:id="rId579" tooltip="IBM 1401 Symbolic Programming System" display="https://en.wikipedia.org/wiki/IBM_1401_Symbolic_Programming_System" xr:uid="{1D60DA80-5EE3-4BA0-B4B9-20C83262FA8A}"/>
+    <hyperlink ref="A586" r:id="rId580" tooltip="SQL" display="https://en.wikipedia.org/wiki/SQL" xr:uid="{8DFB1F15-DE82-4C7E-AB87-5FF15AEC7A10}"/>
+    <hyperlink ref="A587" r:id="rId581" tooltip="SQR" display="https://en.wikipedia.org/wiki/SQR" xr:uid="{A52EDF1A-1812-4CBB-981D-AC5C9A28886F}"/>
+    <hyperlink ref="A588" r:id="rId582" tooltip="Squeak" display="https://en.wikipedia.org/wiki/Squeak" xr:uid="{BA25A447-93F4-4762-9A85-52B82B7E5F68}"/>
+    <hyperlink ref="A589" r:id="rId583" tooltip="Squirrel (programming language)" display="https://en.wikipedia.org/wiki/Squirrel_(programming_language)" xr:uid="{C3AC6BD2-46F3-4329-B4DF-BB580947DDC7}"/>
+    <hyperlink ref="A590" r:id="rId584" tooltip="SR (programming language)" display="https://en.wikipedia.org/wiki/SR_(programming_language)" xr:uid="{412066C2-A5F0-48E1-BBA9-73DC4BBD201A}"/>
+    <hyperlink ref="A591" r:id="rId585" tooltip="S/SL programming language" display="https://en.wikipedia.org/wiki/S/SL_programming_language" xr:uid="{FEB3B6F1-014C-460C-B78F-692EC5CEE0FF}"/>
+    <hyperlink ref="A592" r:id="rId586" tooltip="Starlogo" display="https://en.wikipedia.org/wiki/Starlogo" xr:uid="{5502028F-4315-4165-A944-4DD152B52066}"/>
+    <hyperlink ref="A593" r:id="rId587" tooltip="Strand (programming language)" display="https://en.wikipedia.org/wiki/Strand_(programming_language)" xr:uid="{D51033D9-636B-4A9F-80BC-AA98A2A7E81C}"/>
+    <hyperlink ref="A594" r:id="rId588" tooltip="Stata" display="https://en.wikipedia.org/wiki/Stata" xr:uid="{A95885A0-E708-4E1D-9965-6F8BC5A26771}"/>
+    <hyperlink ref="A595" r:id="rId589" tooltip="Stateflow" display="https://en.wikipedia.org/wiki/Stateflow" xr:uid="{87DCD0F7-6F5B-467C-B406-3D74F8129814}"/>
+    <hyperlink ref="A596" r:id="rId590" tooltip="Subtext (programming language)" display="https://en.wikipedia.org/wiki/Subtext_(programming_language)" xr:uid="{A38E3528-16C1-47B0-A648-DF7124F36E68}"/>
+    <hyperlink ref="A597" r:id="rId591" tooltip="Superbase database" display="https://en.wikipedia.org/wiki/Superbase_database" xr:uid="{469B4564-84AB-4A3B-BB9A-78E5794502D3}"/>
+    <hyperlink ref="A598" r:id="rId592" tooltip="SuperCollider" display="https://en.wikipedia.org/wiki/SuperCollider" xr:uid="{E3DD5404-6AAF-43CC-B4A2-858F6FD29F34}"/>
+    <hyperlink ref="A599" r:id="rId593" tooltip="Superplan" display="https://en.wikipedia.org/wiki/Superplan" xr:uid="{545827C9-CD13-4946-AF1D-90B1BBDCA0F4}"/>
+    <hyperlink ref="A600" r:id="rId594" tooltip="SuperTalk" display="https://en.wikipedia.org/wiki/SuperTalk" xr:uid="{F1D23AF7-F51B-4926-9860-A4FC88D8F92F}"/>
+    <hyperlink ref="A601" r:id="rId595" tooltip="Swift (programming language)" display="https://en.wikipedia.org/wiki/Swift_(programming_language)" xr:uid="{B5215862-11BF-4B02-85CD-97EF56E14CD7}"/>
+    <hyperlink ref="A602" r:id="rId596" tooltip="Swift (parallel scripting language)" display="https://en.wikipedia.org/wiki/Swift_(parallel_scripting_language)" xr:uid="{99FF8210-10D7-4F7A-A7C5-3EBCE056E406}"/>
+    <hyperlink ref="A603" r:id="rId597" tooltip="SYMPL" display="https://en.wikipedia.org/wiki/SYMPL" xr:uid="{DC7ED625-81E7-4769-9E98-3A9CFEBFA3CF}"/>
+    <hyperlink ref="A604" r:id="rId598" tooltip="TACL" display="https://en.wikipedia.org/wiki/TACL" xr:uid="{85F460F2-5DE3-479F-B867-72CE0D273268}"/>
+    <hyperlink ref="A605" r:id="rId599" tooltip="TACPOL (programming language)" display="https://en.wikipedia.org/wiki/TACPOL_(programming_language)" xr:uid="{01A79CB7-88FA-4D69-8E2B-31499AC9B02C}"/>
+    <hyperlink ref="A606" r:id="rId600" tooltip="TADS" display="https://en.wikipedia.org/wiki/TADS" xr:uid="{87D487BE-8A0E-4BC4-A0AF-E571E0C4DE5C}"/>
+    <hyperlink ref="A607" r:id="rId601" tooltip="Transaction Application Language" display="https://en.wikipedia.org/wiki/Transaction_Application_Language" xr:uid="{A48AAE3B-EC08-4D17-8F8E-F86A949CC506}"/>
+    <hyperlink ref="A608" r:id="rId602" tooltip="Tcl" display="https://en.wikipedia.org/wiki/Tcl" xr:uid="{615B55A9-6270-4643-88BC-46C5629F42FB}"/>
+    <hyperlink ref="A609" r:id="rId603" tooltip="Text Editor and Corrector" display="https://en.wikipedia.org/wiki/Text_Editor_and_Corrector" xr:uid="{731B3EAE-29F9-4693-B416-6B8FE6E4AB82}"/>
+    <hyperlink ref="A610" r:id="rId604" tooltip="TELCOMP" display="https://en.wikipedia.org/wiki/TELCOMP" xr:uid="{5956D65D-E080-4CED-942F-AF03243CA021}"/>
+    <hyperlink ref="A611" r:id="rId605" tooltip="TeX" display="https://en.wikipedia.org/wiki/TeX" xr:uid="{8500BC23-65AB-4E6E-A9BD-D82C3D2371BE}"/>
+    <hyperlink ref="A612" r:id="rId606" tooltip="Text Executive Programming Language" display="https://en.wikipedia.org/wiki/Text_Executive_Programming_Language" xr:uid="{3E8D9325-13D2-44D8-8724-3A4FEA0DBDA9}"/>
+    <hyperlink ref="A613" r:id="rId607" tooltip="Tensilica Instruction Extension" display="https://en.wikipedia.org/wiki/Tensilica_Instruction_Extension" xr:uid="{91CD6FA8-E728-4099-B317-4A9CF1521928}"/>
+    <hyperlink ref="A614" r:id="rId608" tooltip="TMG (language)" display="https://en.wikipedia.org/wiki/TMG_(language)" xr:uid="{949D2A28-DE79-403E-AF87-49B6B522A27C}"/>
+    <hyperlink ref="A615" r:id="rId609" tooltip="Tom (pattern matching language)" display="https://en.wikipedia.org/wiki/Tom_(pattern_matching_language)" xr:uid="{B5236212-9B83-43D8-9ED7-6DCCBD61D96B}"/>
+    <hyperlink ref="A616" r:id="rId610" tooltip="Toi (programming language)" display="https://en.wikipedia.org/wiki/Toi_(programming_language)" xr:uid="{8D9442A1-3638-4C7E-9982-C433F17F1993}"/>
+    <hyperlink ref="A617" r:id="rId611" tooltip="Clarion (programming language)" display="https://en.wikipedia.org/wiki/Clarion_(programming_language)" xr:uid="{8DB0FF34-2743-4589-B60B-4909E980B5B8}"/>
+    <hyperlink ref="A618" r:id="rId612" tooltip="Text Processing Utility" display="https://en.wikipedia.org/wiki/Text_Processing_Utility" xr:uid="{8A2E8BF8-1F23-4229-9E56-288437E3076F}"/>
+    <hyperlink ref="A619" r:id="rId613" tooltip="TRAC (programming language)" display="https://en.wikipedia.org/wiki/TRAC_(programming_language)" xr:uid="{99A3DA46-1B02-4A13-A361-7880A1FE2E0C}"/>
+    <hyperlink ref="A620" r:id="rId614" tooltip="TTM (programming language)" display="https://en.wikipedia.org/wiki/TTM_(programming_language)" xr:uid="{74A231D5-73C9-48BB-8199-AB7D7409548C}"/>
+    <hyperlink ref="A621" r:id="rId615" tooltip="Transact-SQL" display="https://en.wikipedia.org/wiki/Transact-SQL" xr:uid="{43448DCC-4083-405D-AD60-B538D85C97FA}"/>
+    <hyperlink ref="A622" r:id="rId616" tooltip="Transcript (programming language)" display="https://en.wikipedia.org/wiki/Transcript_(programming_language)" xr:uid="{64DEE4D6-DA54-4681-9C94-A9934D3F3BF4}"/>
+    <hyperlink ref="A623" r:id="rId617" tooltip="TTCN" display="https://en.wikipedia.org/wiki/TTCN" xr:uid="{A833921C-7958-4E3E-A917-E79684DCD81D}"/>
+    <hyperlink ref="A624" r:id="rId618" tooltip="Turing (programming language)" display="https://en.wikipedia.org/wiki/Turing_(programming_language)" xr:uid="{3CD081D7-9C2A-472F-82C4-3DECC898E362}"/>
+    <hyperlink ref="A625" r:id="rId619" tooltip="TUTOR (programming language)" display="https://en.wikipedia.org/wiki/TUTOR_(programming_language)" xr:uid="{2297CFF0-BC97-4202-8A6D-BF41E7057012}"/>
+    <hyperlink ref="A626" r:id="rId620" tooltip="TXL (programming language)" display="https://en.wikipedia.org/wiki/TXL_(programming_language)" xr:uid="{61F5A134-415D-4CC3-8F27-F63AA3415557}"/>
+    <hyperlink ref="A627" r:id="rId621" tooltip="TypeScript" display="https://en.wikipedia.org/wiki/TypeScript" xr:uid="{A449AB9F-7646-420A-B5FB-3BFF905E9D71}"/>
+    <hyperlink ref="A628" r:id="rId622" tooltip="Tynker" display="https://en.wikipedia.org/wiki/Tynker" xr:uid="{B44B3436-8F3E-4A06-9E0A-25F809AF8355}"/>
+    <hyperlink ref="A629" r:id="rId623" tooltip="Ubercode" display="https://en.wikipedia.org/wiki/Ubercode" xr:uid="{9D0F14DF-FC0E-4DC9-8035-78FB8BB6C1DB}"/>
+    <hyperlink ref="A630" r:id="rId624" tooltip="UCSD Pascal" display="https://en.wikipedia.org/wiki/UCSD_Pascal" xr:uid="{3727EE11-0696-40F1-9346-34698714A7C7}"/>
+    <hyperlink ref="A631" r:id="rId625" tooltip="Umple" display="https://en.wikipedia.org/wiki/Umple" xr:uid="{8F868E67-4E92-44B1-909D-BFEA452F9D5A}"/>
+    <hyperlink ref="A632" r:id="rId626" tooltip="Unicon (programming language)" display="https://en.wikipedia.org/wiki/Unicon_(programming_language)" xr:uid="{2AF9B3F2-0FE9-4A3B-A436-B2BBAA566BE7}"/>
+    <hyperlink ref="A633" r:id="rId627" tooltip="Uniface (programming language)" display="https://en.wikipedia.org/wiki/Uniface_(programming_language)" xr:uid="{E7571121-E0E5-40C7-B6CC-B2767F47205A}"/>
+    <hyperlink ref="A634" r:id="rId628" tooltip="UNITY (programming language)" display="https://en.wikipedia.org/wiki/UNITY_(programming_language)" xr:uid="{D8A9C46A-C815-493C-B3FA-5F14A8A451D0}"/>
+    <hyperlink ref="A635" r:id="rId629" tooltip="UnrealScript" display="https://en.wikipedia.org/wiki/UnrealScript" xr:uid="{C0DA92E9-0E74-468D-8D73-E7918547174E}"/>
+    <hyperlink ref="A636" r:id="rId630" tooltip="Vala (programming language)" display="https://en.wikipedia.org/wiki/Vala_(programming_language)" xr:uid="{53B5C7E3-7918-4EAA-ABD3-F2C12DC47C69}"/>
+    <hyperlink ref="A637" r:id="rId631" location="Vim_script" tooltip="Vim (text editor)" display="https://en.wikipedia.org/wiki/Vim_(text_editor) - Vim_script" xr:uid="{B056D13A-C4E5-4538-95E4-768427D3BDDD}"/>
+    <hyperlink ref="A638" r:id="rId632" location="Smart_contracts" tooltip="Ethereum" display="https://en.wikipedia.org/wiki/Ethereum - Smart_contracts" xr:uid="{0281484F-1F34-4A36-AAAB-EA9E91872F35}"/>
+    <hyperlink ref="A639" r:id="rId633" tooltip="Visual DataFlex" display="https://en.wikipedia.org/wiki/Visual_DataFlex" xr:uid="{65564EA0-F059-4B46-A340-C8D19E343874}"/>
+    <hyperlink ref="A640" r:id="rId634" tooltip="Visual DialogScript" display="https://en.wikipedia.org/wiki/Visual_DialogScript" xr:uid="{3F3DE125-9BA4-4E06-A7BC-8649E78D18F0}"/>
+    <hyperlink ref="A641" r:id="rId635" tooltip="Visual FoxPro" display="https://en.wikipedia.org/wiki/Visual_FoxPro" xr:uid="{4491155B-1B5C-414A-9F2C-B3053DEF0363}"/>
+    <hyperlink ref="A642" r:id="rId636" tooltip="Visual J++" display="https://en.wikipedia.org/wiki/Visual_J%2B%2B" xr:uid="{4F86A6D1-A94C-4E52-B4B3-C9D1813511EB}"/>
+    <hyperlink ref="A643" r:id="rId637" tooltip="AutoLISP" display="https://en.wikipedia.org/wiki/AutoLISP" xr:uid="{4BA1F529-9D20-4AA7-A637-D92188E528C0}"/>
+    <hyperlink ref="A644" r:id="rId638" tooltip="Visual Objects" display="https://en.wikipedia.org/wiki/Visual_Objects" xr:uid="{7CE909FC-C770-46BC-A292-EAF5AF1EC04B}"/>
+    <hyperlink ref="A645" r:id="rId639" tooltip="Visual Prolog" display="https://en.wikipedia.org/wiki/Visual_Prolog" xr:uid="{6729C319-07DA-4B50-AAC4-2977B11D8600}"/>
+    <hyperlink ref="A646" r:id="rId640" tooltip="WATFIV (programming language)" display="https://en.wikipedia.org/wiki/WATFIV_(programming_language)" xr:uid="{03CEC628-8911-44F2-A457-F35BD49E3660}"/>
+    <hyperlink ref="A647" r:id="rId641" tooltip="WebAssembly" display="https://en.wikipedia.org/wiki/WebAssembly" xr:uid="{1EC8EF90-DD9C-42B5-9AF1-5460C0461317}"/>
+    <hyperlink ref="A648" r:id="rId642" tooltip="WebDNA" display="https://en.wikipedia.org/wiki/WebDNA" xr:uid="{DDA7BD3B-E92D-4C09-95C7-F4E450B1EE69}"/>
+    <hyperlink ref="A649" r:id="rId643" tooltip="Whiley (programming language)" display="https://en.wikipedia.org/wiki/Whiley_(programming_language)" xr:uid="{7F63E9BF-F225-401C-9A8E-194A7574F1B7}"/>
+    <hyperlink ref="A650" r:id="rId644" tooltip="Winbatch" display="https://en.wikipedia.org/wiki/Winbatch" xr:uid="{8D5EBD1B-06CF-4CAB-9187-259D54661191}"/>
+    <hyperlink ref="A651" r:id="rId645" tooltip="Wolfram Language" display="https://en.wikipedia.org/wiki/Wolfram_Language" xr:uid="{8D9B9E98-314E-4963-887C-63E62D81FD2C}"/>
+    <hyperlink ref="A652" r:id="rId646" tooltip="Wyvern (programming language)" display="https://en.wikipedia.org/wiki/Wyvern_(programming_language)" xr:uid="{1E346957-5E4C-40B1-8034-676921F0C705}"/>
+    <hyperlink ref="A653" r:id="rId647" tooltip="X++" display="https://en.wikipedia.org/wiki/X%2B%2B" xr:uid="{248CF4F6-F778-40D0-92AA-37BBF073A571}"/>
+    <hyperlink ref="A654" r:id="rId648" tooltip="X10 (programming language)" display="https://en.wikipedia.org/wiki/X10_(programming_language)" xr:uid="{1505C560-B67F-4DE6-A73F-485B9B2CAE8E}"/>
+    <hyperlink ref="A655" r:id="rId649" tooltip="XBase++" display="https://en.wikipedia.org/wiki/XBase%2B%2B" xr:uid="{214B0CC8-B390-40F9-85AE-32300DAA7E64}"/>
+    <hyperlink ref="A656" r:id="rId650" tooltip="XBL" display="https://en.wikipedia.org/wiki/XBL" xr:uid="{FD7D1DB0-2975-4F06-A958-E7BD9BEDD454}"/>
+    <hyperlink ref="A658" r:id="rId651" tooltip="XHarbour" display="https://en.wikipedia.org/wiki/XHarbour" xr:uid="{8BDCD6B5-FE1F-45FD-AABB-A5681C254F91}"/>
+    <hyperlink ref="A659" r:id="rId652" tooltip="XL (programming language)" display="https://en.wikipedia.org/wiki/XL_(programming_language)" xr:uid="{8544F378-D92A-4E5A-AB91-5BBEBBEA408C}"/>
+    <hyperlink ref="A660" r:id="rId653" tooltip="Xojo" display="https://en.wikipedia.org/wiki/Xojo" xr:uid="{3557F324-E37E-44CB-BB11-907AA34F5694}"/>
+    <hyperlink ref="A661" r:id="rId654" tooltip="XOTcl" display="https://en.wikipedia.org/wiki/XOTcl" xr:uid="{2F74650E-0719-42D6-8538-159658BDD715}"/>
+    <hyperlink ref="A662" r:id="rId655" tooltip="XOD (programming language)" display="https://en.wikipedia.org/wiki/XOD_(programming_language)" xr:uid="{BDE2F146-69B9-4FD2-9CF8-B390103CF9C9}"/>
+    <hyperlink ref="A663" r:id="rId656" tooltip="XPL" display="https://en.wikipedia.org/wiki/XPL" xr:uid="{557272C9-F7BF-478D-9D0A-968727826298}"/>
+    <hyperlink ref="A664" r:id="rId657" tooltip="XPL0" display="https://en.wikipedia.org/wiki/XPL0" xr:uid="{8F947F5E-19D9-406B-8647-75671A067303}"/>
+    <hyperlink ref="A665" r:id="rId658" tooltip="XQuery" display="https://en.wikipedia.org/wiki/XQuery" xr:uid="{66D6F89F-1B00-4DF7-BFB7-0AE74598FE85}"/>
+    <hyperlink ref="A666" r:id="rId659" tooltip="XSB" display="https://en.wikipedia.org/wiki/XSB" xr:uid="{4569FDAB-290D-436D-9330-72F93CFB9BCD}"/>
+    <hyperlink ref="A667" r:id="rId660" tooltip="XSharp" display="https://en.wikipedia.org/wiki/XSharp" xr:uid="{490F299C-19FD-4A74-8502-0EF670C35314}"/>
+    <hyperlink ref="A668" r:id="rId661" tooltip="XSLT" display="https://en.wikipedia.org/wiki/XSLT" xr:uid="{6F0C7868-E59A-4184-9F75-D3C3230C0782}"/>
+    <hyperlink ref="A669" r:id="rId662" tooltip="Xtend" display="https://en.wikipedia.org/wiki/Xtend" xr:uid="{BC00BDA1-192A-4D66-9BD1-A94223FFEF47}"/>
+    <hyperlink ref="A670" r:id="rId663" tooltip="Yorick (programming language)" display="https://en.wikipedia.org/wiki/Yorick_(programming_language)" xr:uid="{EFA804C0-47A1-40D4-9AF4-8A729EBEFB53}"/>
+    <hyperlink ref="A671" r:id="rId664" tooltip="YQL (programming language)" display="https://en.wikipedia.org/wiki/YQL_(programming_language)" xr:uid="{A1184A7F-2D04-49EF-8D4F-2F589F7DCED3}"/>
+    <hyperlink ref="A672" r:id="rId665" tooltip="Yoix" display="https://en.wikipedia.org/wiki/Yoix" xr:uid="{D82E29D5-080F-42C6-BCAC-D18F985357F8}"/>
+    <hyperlink ref="A673" r:id="rId666" tooltip="Z notation" display="https://en.wikipedia.org/wiki/Z_notation" xr:uid="{7E0B70D6-68ED-46CE-8C6B-E95D31D2128E}"/>
+    <hyperlink ref="A674" r:id="rId667" tooltip="Z shell" display="https://en.wikipedia.org/wiki/Z_shell" xr:uid="{B2DB0F01-524C-4C78-A51A-128C3BE1C822}"/>
+    <hyperlink ref="A675" r:id="rId668" tooltip="Zebra (programming language)" display="https://en.wikipedia.org/wiki/Zebra_(programming_language)" xr:uid="{B9E33609-D2B4-4EDF-B800-B9941EBADA24}"/>
+    <hyperlink ref="A676" r:id="rId669" tooltip="Zeno (programming language)" display="https://en.wikipedia.org/wiki/Zeno_(programming_language)" xr:uid="{568093EA-7730-4B61-9E06-86947E19A194}"/>
+    <hyperlink ref="A677" r:id="rId670" tooltip="ZetaLisp" display="https://en.wikipedia.org/wiki/ZetaLisp" xr:uid="{215DA9D6-D002-4725-A27F-179B0529928B}"/>
+    <hyperlink ref="A678" r:id="rId671" tooltip="Zig (programming language)" display="https://en.wikipedia.org/wiki/Zig_(programming_language)" xr:uid="{281D9ACD-9161-4774-B820-FCAEDEB36E44}"/>
+    <hyperlink ref="A679" r:id="rId672" tooltip="Zonnon" display="https://en.wikipedia.org/wiki/Zonnon" xr:uid="{04C66519-12D0-49E3-9390-FF4557F91B39}"/>
+    <hyperlink ref="A680" r:id="rId673" tooltip="ZOPL" display="https://en.wikipedia.org/wiki/ZOPL" xr:uid="{AA71FB2B-BDB5-4E8E-98ED-F6A7D09F229D}"/>
+    <hyperlink ref="A681" r:id="rId674" tooltip="ZPL (programming language)" display="https://en.wikipedia.org/wiki/ZPL_(programming_language)" xr:uid="{E886937E-1F3E-49FA-B2BC-66B1FDB1EC3C}"/>
+    <hyperlink ref="A682" r:id="rId675" tooltip="Z++" display="https://en.wikipedia.org/wiki/Z%2B%2B" xr:uid="{FC4CF4C7-73F4-49FE-BD3A-64B8453205C6}"/>
     <hyperlink ref="B2" r:id="rId676" display="https://www.solarwinds.com/database-performance-monitor?CMP=BIZ-RVW-SWTH-DPM" xr:uid="{14C8A3B4-B95A-46D6-AAA0-9081C1B61060}"/>
     <hyperlink ref="B3" r:id="rId677" display="https://www.dbvis.com/download/?utm_source=softwaretestinghelp&amp;utm_medium=referral&amp;utm_campaign=database_management_list" xr:uid="{700A1379-5F8E-4B2A-B50C-8E116874AB72}"/>
     <hyperlink ref="B4" r:id="rId678" display="https://www.manageengine.com/products/applications_manager/database-monitoring.html?utm_source=STH&amp;utm_medium=Website&amp;utm_campaign=APM-DBMgmt" xr:uid="{FB34F140-E374-4642-9A77-983048FC2A9B}"/>
